--- a/HITEL/list.xlsx
+++ b/HITEL/list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\Viola15_font\HITEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A335C1-6D1A-4975-9365-C6D4C23E974F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{069F500A-7074-421E-B33F-475E3615C344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="750" yWindow="2190" windowWidth="14040" windowHeight="11385" activeTab="1" xr2:uid="{ECBBBA91-6ACC-4411-8119-0B98102DD867}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{ECBBBA91-6ACC-4411-8119-0B98102DD867}"/>
   </bookViews>
   <sheets>
     <sheet name="한글" sheetId="1" r:id="rId1"/>
@@ -2389,8 +2389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7EE061E-4DF6-4129-B2C9-943A90EE26B5}">
   <dimension ref="A1:L158"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="B114" sqref="B114"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5431,23 +5431,23 @@
         <f>"dokkebi_han.py eng\"&amp;F105&amp;" han\"&amp;D105&amp;" ksg\"&amp;I105&amp;" spc\"&amp;L105</f>
         <v>dokkebi_han.py eng\eprcs.eng han\hprcs.han ksg\san.ksg spc\hm.spc</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C105" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D105" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E105" t="s">
+      <c r="E105" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="F105" t="s">
+      <c r="F105" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="G105" t="str">
+      <c r="G105" s="2" t="str">
         <f>VLOOKUP(F105,영어!A:C,2,FALSE)</f>
         <v>가는가을 영문체</v>
       </c>
-      <c r="H105" t="str">
+      <c r="H105" s="2" t="str">
         <f>VLOOKUP(F105,영어!A:C,3,FALSE)</f>
         <v xml:space="preserve">이확영, 프린세스 메이커  </v>
       </c>
@@ -6874,10 +6874,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ACA197D-65FC-4B4A-A9D8-85379C7E3E11}">
-  <dimension ref="A1:D80"/>
+  <dimension ref="A1:D81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6889,843 +6889,846 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>327</v>
+        <v>516</v>
       </c>
       <c r="B1" t="s">
-        <v>488</v>
+        <v>448</v>
       </c>
       <c r="C1" t="s">
-        <v>273</v>
+        <v>449</v>
       </c>
       <c r="D1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>517</v>
+        <v>344</v>
       </c>
       <c r="B2" t="s">
-        <v>489</v>
+        <v>450</v>
       </c>
       <c r="C2" t="s">
-        <v>273</v>
+        <v>451</v>
       </c>
       <c r="D2" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>328</v>
+        <v>381</v>
       </c>
       <c r="B3" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="C3" t="s">
-        <v>419</v>
-      </c>
-      <c r="D3" t="s">
-        <v>459</v>
+        <v>422</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>329</v>
+        <v>383</v>
       </c>
       <c r="B4" t="s">
-        <v>418</v>
+        <v>452</v>
       </c>
       <c r="C4" t="s">
-        <v>420</v>
-      </c>
-      <c r="D4" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>516</v>
+        <v>397</v>
       </c>
       <c r="B5" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="C5" t="s">
-        <v>449</v>
-      </c>
-      <c r="D5" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>330</v>
+        <v>398</v>
       </c>
       <c r="B6" t="s">
-        <v>490</v>
+        <v>456</v>
       </c>
       <c r="C6" t="s">
-        <v>273</v>
-      </c>
-      <c r="D6" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B7" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C7" t="s">
         <v>273</v>
       </c>
       <c r="D7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>332</v>
+        <v>517</v>
       </c>
       <c r="B8" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C8" t="s">
         <v>273</v>
       </c>
       <c r="D8" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B9" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C9" t="s">
         <v>273</v>
       </c>
       <c r="D9" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B10" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C10" t="s">
         <v>273</v>
       </c>
       <c r="D10" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B11" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="C11" t="s">
         <v>273</v>
       </c>
       <c r="D11" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B12" t="s">
-        <v>406</v>
+        <v>493</v>
       </c>
       <c r="C12" t="s">
-        <v>404</v>
+        <v>273</v>
+      </c>
+      <c r="D12" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B13" t="s">
-        <v>405</v>
+        <v>494</v>
       </c>
       <c r="C13" t="s">
-        <v>404</v>
+        <v>273</v>
+      </c>
+      <c r="D13" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B14" t="s">
-        <v>407</v>
+        <v>495</v>
       </c>
       <c r="C14" t="s">
-        <v>404</v>
+        <v>273</v>
+      </c>
+      <c r="D14" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="B15" t="s">
-        <v>408</v>
+        <v>496</v>
       </c>
       <c r="C15" t="s">
-        <v>404</v>
+        <v>273</v>
+      </c>
+      <c r="D15" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="B16" t="s">
-        <v>409</v>
+        <v>497</v>
       </c>
       <c r="C16" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>341</v>
+        <v>359</v>
       </c>
       <c r="B17" t="s">
-        <v>411</v>
+        <v>498</v>
       </c>
       <c r="C17" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>342</v>
+        <v>360</v>
       </c>
       <c r="B18" t="s">
-        <v>410</v>
+        <v>499</v>
       </c>
       <c r="C18" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>343</v>
+        <v>374</v>
       </c>
       <c r="B19" t="s">
-        <v>412</v>
+        <v>500</v>
       </c>
       <c r="C19" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>344</v>
+        <v>377</v>
       </c>
       <c r="B20" t="s">
-        <v>450</v>
+        <v>502</v>
       </c>
       <c r="C20" t="s">
-        <v>451</v>
-      </c>
-      <c r="D20" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>345</v>
+        <v>378</v>
       </c>
       <c r="B21" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="C21" t="s">
         <v>273</v>
       </c>
-      <c r="D21" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>346</v>
+        <v>379</v>
       </c>
       <c r="B22" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="C22" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>347</v>
+        <v>386</v>
       </c>
       <c r="B23" t="s">
-        <v>416</v>
+        <v>501</v>
       </c>
       <c r="C23" t="s">
-        <v>435</v>
-      </c>
-      <c r="D23" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>348</v>
-      </c>
-      <c r="D24" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+        <v>389</v>
+      </c>
+      <c r="B24" t="s">
+        <v>505</v>
+      </c>
+      <c r="C24" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>349</v>
-      </c>
-      <c r="D25" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+        <v>391</v>
+      </c>
+      <c r="B25" t="s">
+        <v>507</v>
+      </c>
+      <c r="C25" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>350</v>
-      </c>
-      <c r="D26" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+        <v>392</v>
+      </c>
+      <c r="B26" t="s">
+        <v>506</v>
+      </c>
+      <c r="C26" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>351</v>
-      </c>
-      <c r="D27" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+        <v>393</v>
+      </c>
+      <c r="B27" t="s">
+        <v>508</v>
+      </c>
+      <c r="C27" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>352</v>
-      </c>
-      <c r="D28" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+        <v>394</v>
+      </c>
+      <c r="B28" t="s">
+        <v>425</v>
+      </c>
+      <c r="C28" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>353</v>
-      </c>
-      <c r="D29" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+        <v>396</v>
+      </c>
+      <c r="B29" t="s">
+        <v>509</v>
+      </c>
+      <c r="C29" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>354</v>
-      </c>
-      <c r="D30" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+        <v>399</v>
+      </c>
+      <c r="B30" t="s">
+        <v>426</v>
+      </c>
+      <c r="C30" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>355</v>
-      </c>
-      <c r="D31" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+        <v>400</v>
+      </c>
+      <c r="B31" t="s">
+        <v>510</v>
+      </c>
+      <c r="C31" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>356</v>
-      </c>
-      <c r="D32" t="s">
-        <v>471</v>
+        <v>401</v>
+      </c>
+      <c r="B32" t="s">
+        <v>511</v>
+      </c>
+      <c r="C32" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>357</v>
-      </c>
-      <c r="D33" t="s">
-        <v>470</v>
+        <v>402</v>
+      </c>
+      <c r="B33" t="s">
+        <v>512</v>
+      </c>
+      <c r="C33" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>358</v>
+        <v>336</v>
       </c>
       <c r="B34" t="s">
-        <v>436</v>
+        <v>406</v>
       </c>
       <c r="C34" t="s">
-        <v>437</v>
-      </c>
-      <c r="D34" t="s">
-        <v>474</v>
+        <v>404</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>359</v>
+        <v>337</v>
       </c>
       <c r="B35" t="s">
-        <v>498</v>
+        <v>405</v>
       </c>
       <c r="C35" t="s">
-        <v>273</v>
+        <v>404</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>360</v>
+        <v>338</v>
       </c>
       <c r="B36" t="s">
-        <v>499</v>
+        <v>407</v>
       </c>
       <c r="C36" t="s">
-        <v>273</v>
+        <v>404</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>361</v>
+        <v>339</v>
       </c>
       <c r="B37" t="s">
-        <v>429</v>
+        <v>408</v>
       </c>
       <c r="C37" t="s">
-        <v>427</v>
+        <v>404</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>362</v>
+        <v>340</v>
       </c>
       <c r="B38" t="s">
-        <v>430</v>
+        <v>409</v>
       </c>
       <c r="C38" t="s">
-        <v>428</v>
+        <v>404</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>363</v>
+        <v>341</v>
       </c>
       <c r="B39" t="s">
-        <v>431</v>
+        <v>411</v>
+      </c>
+      <c r="C39" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>364</v>
+        <v>342</v>
       </c>
       <c r="B40" t="s">
-        <v>432</v>
+        <v>410</v>
+      </c>
+      <c r="C40" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>365</v>
+        <v>343</v>
       </c>
       <c r="B41" t="s">
-        <v>438</v>
+        <v>412</v>
       </c>
       <c r="C41" t="s">
-        <v>443</v>
+        <v>404</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>366</v>
+        <v>380</v>
       </c>
       <c r="B42" t="s">
-        <v>444</v>
+        <v>414</v>
       </c>
       <c r="C42" t="s">
-        <v>443</v>
+        <v>413</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>367</v>
+        <v>395</v>
       </c>
       <c r="B43" t="s">
-        <v>439</v>
+        <v>415</v>
       </c>
       <c r="C43" t="s">
-        <v>443</v>
+        <v>413</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>368</v>
+        <v>329</v>
       </c>
       <c r="B44" t="s">
-        <v>445</v>
+        <v>418</v>
+      </c>
+      <c r="C44" t="s">
+        <v>420</v>
+      </c>
+      <c r="D44" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>369</v>
+        <v>328</v>
       </c>
       <c r="B45" t="s">
-        <v>440</v>
+        <v>417</v>
       </c>
       <c r="C45" t="s">
-        <v>443</v>
+        <v>419</v>
+      </c>
+      <c r="D45" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>370</v>
+        <v>390</v>
       </c>
       <c r="B46" t="s">
-        <v>441</v>
+        <v>424</v>
       </c>
       <c r="C46" t="s">
-        <v>443</v>
+        <v>423</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="B47" t="s">
-        <v>443</v>
+        <v>430</v>
+      </c>
+      <c r="C47" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
+        <v>361</v>
+      </c>
+      <c r="B48" t="s">
+        <v>429</v>
+      </c>
+      <c r="C48" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>375</v>
+      </c>
+      <c r="B49" t="s">
+        <v>433</v>
+      </c>
+      <c r="C49" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>376</v>
+      </c>
+      <c r="B50" t="s">
+        <v>434</v>
+      </c>
+      <c r="C50" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>347</v>
+      </c>
+      <c r="B51" t="s">
+        <v>416</v>
+      </c>
+      <c r="C51" t="s">
+        <v>435</v>
+      </c>
+      <c r="D51" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>358</v>
+      </c>
+      <c r="B52" t="s">
+        <v>436</v>
+      </c>
+      <c r="C52" t="s">
+        <v>437</v>
+      </c>
+      <c r="D52" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>365</v>
+      </c>
+      <c r="B53" t="s">
+        <v>438</v>
+      </c>
+      <c r="C53" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>366</v>
+      </c>
+      <c r="B54" t="s">
+        <v>444</v>
+      </c>
+      <c r="C54" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>367</v>
+      </c>
+      <c r="B55" t="s">
+        <v>439</v>
+      </c>
+      <c r="C55" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>369</v>
+      </c>
+      <c r="B56" t="s">
+        <v>440</v>
+      </c>
+      <c r="C56" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>370</v>
+      </c>
+      <c r="B57" t="s">
+        <v>441</v>
+      </c>
+      <c r="C57" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
         <v>372</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B58" t="s">
         <v>442</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C58" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>348</v>
+      </c>
+      <c r="D60" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>349</v>
+      </c>
+      <c r="D61" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>350</v>
+      </c>
+      <c r="D62" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>351</v>
+      </c>
+      <c r="D63" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>352</v>
+      </c>
+      <c r="D64" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>353</v>
+      </c>
+      <c r="D65" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>354</v>
+      </c>
+      <c r="D66" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>355</v>
+      </c>
+      <c r="D67" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>356</v>
+      </c>
+      <c r="D68" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>357</v>
+      </c>
+      <c r="D69" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>363</v>
+      </c>
+      <c r="B70" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>364</v>
+      </c>
+      <c r="B71" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>368</v>
+      </c>
+      <c r="B72" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>371</v>
+      </c>
+      <c r="B73" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
         <v>447</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B74" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>374</v>
-      </c>
-      <c r="B51" t="s">
-        <v>500</v>
-      </c>
-      <c r="C51" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>375</v>
-      </c>
-      <c r="B52" t="s">
-        <v>433</v>
-      </c>
-      <c r="C52" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>376</v>
-      </c>
-      <c r="B53" t="s">
-        <v>434</v>
-      </c>
-      <c r="C53" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>377</v>
-      </c>
-      <c r="B54" t="s">
-        <v>502</v>
-      </c>
-      <c r="C54" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>378</v>
-      </c>
-      <c r="B55" t="s">
-        <v>504</v>
-      </c>
-      <c r="C55" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>379</v>
-      </c>
-      <c r="B56" t="s">
-        <v>503</v>
-      </c>
-      <c r="C56" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>380</v>
-      </c>
-      <c r="B57" t="s">
-        <v>414</v>
-      </c>
-      <c r="C57" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>381</v>
-      </c>
-      <c r="B58" t="s">
-        <v>421</v>
-      </c>
-      <c r="C58" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>383</v>
-      </c>
-      <c r="B60" t="s">
-        <v>452</v>
-      </c>
-      <c r="C60" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>386</v>
-      </c>
-      <c r="B63" t="s">
-        <v>501</v>
-      </c>
-      <c r="C63" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>389</v>
-      </c>
-      <c r="B66" t="s">
-        <v>505</v>
-      </c>
-      <c r="C66" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>390</v>
-      </c>
-      <c r="B67" t="s">
-        <v>424</v>
-      </c>
-      <c r="C67" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>391</v>
-      </c>
-      <c r="B68" t="s">
-        <v>507</v>
-      </c>
-      <c r="C68" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>392</v>
-      </c>
-      <c r="B69" t="s">
-        <v>506</v>
-      </c>
-      <c r="C69" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>393</v>
-      </c>
-      <c r="B70" t="s">
-        <v>508</v>
-      </c>
-      <c r="C70" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>394</v>
-      </c>
-      <c r="B71" t="s">
-        <v>425</v>
-      </c>
-      <c r="C71" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>395</v>
-      </c>
-      <c r="B72" t="s">
-        <v>415</v>
-      </c>
-      <c r="C72" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>396</v>
-      </c>
-      <c r="B73" t="s">
-        <v>509</v>
-      </c>
-      <c r="C73" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>397</v>
-      </c>
-      <c r="B74" t="s">
-        <v>454</v>
-      </c>
-      <c r="C74" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>398</v>
-      </c>
-      <c r="B75" t="s">
-        <v>456</v>
-      </c>
-      <c r="C75" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>399</v>
-      </c>
-      <c r="B76" t="s">
-        <v>426</v>
-      </c>
-      <c r="C76" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>400</v>
-      </c>
-      <c r="B77" t="s">
-        <v>510</v>
-      </c>
-      <c r="C77" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>401</v>
-      </c>
-      <c r="B78" t="s">
-        <v>511</v>
-      </c>
-      <c r="C78" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>402</v>
-      </c>
-      <c r="B79" t="s">
-        <v>512</v>
-      </c>
-      <c r="C79" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
         <v>403</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:D81">
+    <sortCondition ref="C1:C81"/>
+  </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/HITEL/list.xlsx
+++ b/HITEL/list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\Viola15_font\HITEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{069F500A-7074-421E-B33F-475E3615C344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6433EA4-EE05-4C64-9417-40269C21FA9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{ECBBBA91-6ACC-4411-8119-0B98102DD867}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="577">
   <si>
     <t>ad24.han</t>
   </si>
@@ -1963,6 +1963,26 @@
   </si>
   <si>
     <t>hm.spc</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>명조같은 느낌</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>손글씨</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>둥금</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>얇음</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>yun.ksg</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2389,8 +2409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7EE061E-4DF6-4129-B2C9-943A90EE26B5}">
   <dimension ref="A1:L158"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2970,7 +2990,7 @@
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B21" t="str">
         <f t="shared" si="0"/>
-        <v>dokkebi_han.py eng\ad24.eng han\ad24.han ksg\roman.ksg spc\sys.spc</v>
+        <v>dokkebi_han.py eng\ad24.eng han\ad24.han ksg\yun.ksg spc\sys.spc</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>315</v>
@@ -2993,7 +3013,7 @@
         <v>김윤수</v>
       </c>
       <c r="I21" t="s">
-        <v>522</v>
+        <v>576</v>
       </c>
       <c r="L21" t="s">
         <v>551</v>
@@ -3002,7 +3022,7 @@
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B22" t="str">
         <f t="shared" si="0"/>
-        <v>dokkebi_han.py eng\ad24_10.eng han\ad24.han ksg\roman.ksg spc\sys.spc</v>
+        <v>dokkebi_han.py eng\ad24_10.eng han\ad24.han ksg\yun.ksg spc\sys.spc</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>315</v>
@@ -3025,7 +3045,7 @@
         <v>김윤수</v>
       </c>
       <c r="I22" t="s">
-        <v>522</v>
+        <v>576</v>
       </c>
       <c r="L22" t="s">
         <v>551</v>
@@ -7862,15 +7882,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{770541BF-A55C-4418-BBA8-17C60E69C320}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>539</v>
       </c>
@@ -7878,7 +7898,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>540</v>
       </c>
@@ -7886,7 +7906,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>541</v>
       </c>
@@ -7894,7 +7914,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>542</v>
       </c>
@@ -7902,7 +7922,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>543</v>
       </c>
@@ -7910,7 +7930,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>544</v>
       </c>
@@ -7921,7 +7941,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>545</v>
       </c>
@@ -7931,8 +7951,11 @@
       <c r="C7" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F7" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>546</v>
       </c>
@@ -7943,7 +7966,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>547</v>
       </c>
@@ -7951,7 +7974,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>548</v>
       </c>
@@ -7959,15 +7982,18 @@
         <v>557</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>549</v>
       </c>
       <c r="B11" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F11" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>550</v>
       </c>
@@ -7977,8 +8003,11 @@
       <c r="C12" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F12" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>551</v>
       </c>
@@ -7986,7 +8015,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>552</v>
       </c>
@@ -7997,12 +8026,15 @@
         <v>222</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>553</v>
       </c>
       <c r="B15" t="s">
         <v>566</v>
+      </c>
+      <c r="F15" t="s">
+        <v>573</v>
       </c>
     </row>
   </sheetData>

--- a/HITEL/list.xlsx
+++ b/HITEL/list.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\Viola15_font\HITEL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\Silhoua_font\HITEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6433EA4-EE05-4C64-9417-40269C21FA9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3377DE25-BFF9-4422-8554-F98893E7A6E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{ECBBBA91-6ACC-4411-8119-0B98102DD867}"/>
+    <workbookView xWindow="-16170" yWindow="675" windowWidth="14550" windowHeight="19725" activeTab="1" xr2:uid="{ECBBBA91-6ACC-4411-8119-0B98102DD867}"/>
   </bookViews>
   <sheets>
     <sheet name="한글" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="558">
   <si>
     <t>ad24.han</t>
   </si>
@@ -1213,36 +1213,6 @@
     <t>egood.eng</t>
   </si>
   <si>
-    <t>Eng1.eng</t>
-  </si>
-  <si>
-    <t>Eng10.eng</t>
-  </si>
-  <si>
-    <t>Eng2.eng</t>
-  </si>
-  <si>
-    <t>Eng3.eng</t>
-  </si>
-  <si>
-    <t>Eng4.eng</t>
-  </si>
-  <si>
-    <t>Eng5.eng</t>
-  </si>
-  <si>
-    <t>Eng6.eng</t>
-  </si>
-  <si>
-    <t>Eng7.eng</t>
-  </si>
-  <si>
-    <t>Eng8.eng</t>
-  </si>
-  <si>
-    <t>Eng9.eng</t>
-  </si>
-  <si>
     <t>eprcs.eng</t>
   </si>
   <si>
@@ -1378,9 +1348,6 @@
     <t>zorro.eng</t>
   </si>
   <si>
-    <t>영문정형체.eng</t>
-  </si>
-  <si>
     <t>김중태</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1445,544 +1412,526 @@
     <t xml:space="preserve">도깨비 한글 3.30  </t>
   </si>
   <si>
+    <t>산</t>
+  </si>
+  <si>
+    <t>San</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slant</t>
+  </si>
+  <si>
+    <t>Utopia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">아래아 한글  </t>
+  </si>
+  <si>
+    <t>아래아 한글</t>
+  </si>
+  <si>
+    <t>한글 이탤릭체</t>
+  </si>
+  <si>
+    <t>한글 필기체</t>
+  </si>
+  <si>
+    <t>Script 2</t>
+  </si>
+  <si>
+    <t>Script 2 Thin</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">이확영(HiTEL ID:TELETALK), TsengHi ASCII 변형  </t>
+  </si>
+  <si>
+    <t>가는가을 영문체</t>
+  </si>
+  <si>
+    <t xml:space="preserve">이확영, 프린세스 메이커  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">한메 Countdown </t>
+  </si>
+  <si>
+    <t>한메 Microgramma</t>
+  </si>
+  <si>
+    <t>한메 Script</t>
+  </si>
+  <si>
+    <t>한메 Standard 2</t>
+  </si>
+  <si>
+    <t>한메</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">한메 Default </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microgramma 2 </t>
+  </si>
+  <si>
+    <t>Standard 3</t>
+  </si>
+  <si>
+    <t>(유실)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ATI Ascii </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATI VGA Wonder BIOS  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EagleII ASCII  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EagleII BIOS  </t>
+  </si>
+  <si>
+    <t>디자인</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>세리프</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>꽉찬세리프</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>굵은 세리프</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>굵은 산세리프</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>큰 세리프</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>디자인세리프</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>산세리프계열</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>가는산세리프</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비디나루3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>더 세밀하게 만들어진 글꼴</t>
+  </si>
+  <si>
+    <t>한메본문체</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NORMAL.KOR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>보통체(옛날)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>hanpl3.kor</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>손글씨체 OLD</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>포항공대2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>부드러운</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>한글폰트</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>폰트명</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>한글폰트만든이</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>메모</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AD 2400 </t>
+  </si>
+  <si>
+    <t>AD 2400.10</t>
+  </si>
+  <si>
+    <t>Big</t>
+  </si>
+  <si>
+    <t>Bold Normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bold </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Byte   </t>
+  </si>
+  <si>
+    <t>Byte 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eart 10 </t>
+  </si>
+  <si>
+    <t>Flow</t>
+  </si>
+  <si>
+    <t>Flow 10</t>
+  </si>
+  <si>
+    <t>Inbold</t>
+  </si>
+  <si>
+    <t>Little</t>
+  </si>
+  <si>
+    <t>Mini</t>
+  </si>
+  <si>
+    <t>Middle</t>
+  </si>
+  <si>
+    <t>Script Bold</t>
+  </si>
+  <si>
+    <t>Script(가는)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Semi-Roman</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>X-Small</t>
+  </si>
+  <si>
+    <t>Zeo</t>
+  </si>
+  <si>
+    <t>Zorro</t>
+  </si>
+  <si>
+    <t>DKBDINA.KOR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSWP.KOR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>hansoft.KOR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ativga.eng</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad24_10.eng</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>영어폰트</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>hm.ksg</t>
+  </si>
+  <si>
+    <t>iyg.ksg</t>
+  </si>
+  <si>
+    <t>ped.ksg</t>
+  </si>
+  <si>
+    <t>roman.ksg</t>
+  </si>
+  <si>
+    <t>roman_c.ksg</t>
+  </si>
+  <si>
+    <t>roman_l.ksg</t>
+  </si>
+  <si>
+    <t>san.ksg</t>
+  </si>
+  <si>
+    <t>serife.ksg</t>
+  </si>
+  <si>
+    <t>smd.ksg</t>
+  </si>
+  <si>
+    <t>yun.ksg</t>
+  </si>
+  <si>
+    <t>강</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>사임당</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>산</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROMAN</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROMAN_C</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROMAN_L</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SERIFE</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>YUN</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>강에디터 박호용</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>사임당2.0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>bold.spc</t>
+  </si>
+  <si>
+    <t>bold2.spc</t>
+  </si>
+  <si>
+    <t>bold3.spc</t>
+  </si>
+  <si>
+    <t>gray1.spc</t>
+  </si>
+  <si>
+    <t>gray2.spc</t>
+  </si>
+  <si>
+    <t>hanari.spc</t>
+  </si>
+  <si>
+    <t>hm.spc</t>
+  </si>
+  <si>
+    <t>iyg_y.spc</t>
+  </si>
+  <si>
+    <t>ksline.spc</t>
+  </si>
+  <si>
+    <t>shadow.spc</t>
+  </si>
+  <si>
+    <t>smooth.spc</t>
+  </si>
+  <si>
+    <t>spec.spc</t>
+  </si>
+  <si>
+    <t>sys.spc</t>
+  </si>
+  <si>
+    <t>tb.spc</t>
+  </si>
+  <si>
+    <t>zorro.spc</t>
+  </si>
+  <si>
+    <t>BOLD</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOLD2(파이프형괘선</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOLD3(부드러운궤선</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>그림자체</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본형태</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>KS그래픽문자형</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>부드러운괘선</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>하나리</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>하나리C라이브러리, 이확영</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>태백</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>도꺠비</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비3.30</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZORRO</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>GRAY1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>GRAY2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>KSG</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>san.ksg</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>hm.spc</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>명조같은 느낌</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>손글씨</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>둥금</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>얇음</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>yun.ksg</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Eart    </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>한메 Standard 1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>이야기 굵은고딕</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>이야기 진로만체</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>MRol</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Many ROLs  </t>
-  </si>
-  <si>
-    <t>산</t>
-  </si>
-  <si>
-    <t>San</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Slant</t>
-  </si>
-  <si>
-    <t>Utopia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">아래아 한글  </t>
-  </si>
-  <si>
-    <t>아래아 한글</t>
-  </si>
-  <si>
-    <t>한글 이탤릭체</t>
-  </si>
-  <si>
-    <t>한글 필기체</t>
-  </si>
-  <si>
-    <t>Script 2</t>
-  </si>
-  <si>
-    <t>Script 2 Thin</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>이야기 굵은고딕</t>
-  </si>
-  <si>
-    <t>이야기 진로만체</t>
-  </si>
-  <si>
-    <t xml:space="preserve">이확영(HiTEL ID:TELETALK), TsengHi ASCII 변형  </t>
-  </si>
-  <si>
-    <t>가는가을 영문체</t>
-  </si>
-  <si>
-    <t xml:space="preserve">이확영, 프린세스 메이커  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">한메 Countdown </t>
-  </si>
-  <si>
-    <t>한메 Microgramma</t>
-  </si>
-  <si>
-    <t>한메 Script</t>
-  </si>
-  <si>
-    <t>한메 Standard 1</t>
-  </si>
-  <si>
-    <t>한메 Standard 2</t>
-  </si>
-  <si>
-    <t>한메</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">한메 Default </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Microgramma 2 </t>
-  </si>
-  <si>
-    <t>Standard 3</t>
-  </si>
-  <si>
-    <t>(유실)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">ATI Ascii </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATI VGA Wonder BIOS  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">EagleII ASCII  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">EagleII BIOS  </t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Oak ASCII</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Oak VGA BIOS </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Roman Large</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Royal</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Trident ASCII </t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Trident VGA BIOS</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tseng VGA/High RAM Dack BIOS</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>TsengHi ASCII</t>
-  </si>
-  <si>
-    <t>Tseng VGA/High RAM Dack BIOS</t>
-  </si>
-  <si>
-    <t>디자인</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>세리프</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>꽉찬세리프</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>굵은 세리프</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>굵은 산세리프</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>큰 세리프</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>디자인세리프</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>산세리프계열</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>산세리프</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>디자인(스캔라인)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>이텔릭</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>디자인(가는)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>필기</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>필기(날림)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>필기(세리프)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>굵음(산세리프)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>가는산세리프</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>도깨비디나루3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>더 세밀하게 만들어진 글꼴</t>
-  </si>
-  <si>
-    <t>한메본문체</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>NORMAL.KOR</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>보통체(옛날)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>hanpl3.kor</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>손글씨체 OLD</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>포항공대2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>부드러운</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>한글폰트</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>폰트명</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>한글폰트만든이</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>메모</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">AD 2400 </t>
-  </si>
-  <si>
-    <t>AD 2400.10</t>
-  </si>
-  <si>
-    <t>Big</t>
-  </si>
-  <si>
-    <t>Bold Normal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bold </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Byte   </t>
-  </si>
-  <si>
-    <t>Byte 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eart    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eart 10 </t>
-  </si>
-  <si>
-    <t>Flow</t>
-  </si>
-  <si>
-    <t>Flow 10</t>
-  </si>
-  <si>
-    <t>Inbold</t>
-  </si>
-  <si>
-    <t>Roman Large</t>
-  </si>
-  <si>
-    <t>Little</t>
-  </si>
-  <si>
-    <t>Mini</t>
-  </si>
-  <si>
-    <t>Middle</t>
-  </si>
-  <si>
-    <t>Royal</t>
-  </si>
-  <si>
-    <t>Script Bold</t>
-  </si>
-  <si>
-    <t>Script(가는)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Semi-Roman</t>
-  </si>
-  <si>
-    <t>System</t>
-  </si>
-  <si>
-    <t>X-Small</t>
-  </si>
-  <si>
-    <t>Zeo</t>
-  </si>
-  <si>
-    <t>Zorro</t>
-  </si>
-  <si>
-    <t>DKBDINA.KOR</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>CSWP.KOR</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>hansoft.KOR</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ativga.eng</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ad24_10.eng</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>영어폰트</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>hm.ksg</t>
-  </si>
-  <si>
-    <t>iyg.ksg</t>
-  </si>
-  <si>
-    <t>ped.ksg</t>
-  </si>
-  <si>
-    <t>roman.ksg</t>
-  </si>
-  <si>
-    <t>roman_c.ksg</t>
-  </si>
-  <si>
-    <t>roman_l.ksg</t>
-  </si>
-  <si>
-    <t>san.ksg</t>
-  </si>
-  <si>
-    <t>serife.ksg</t>
-  </si>
-  <si>
-    <t>smd.ksg</t>
-  </si>
-  <si>
-    <t>yun.ksg</t>
-  </si>
-  <si>
-    <t>강</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>사임당</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>산</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ROMAN</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ROMAN_C</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ROMAN_L</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>SERIFE</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>YUN</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>강에디터 박호용</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>사임당2.0</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>bold.spc</t>
-  </si>
-  <si>
-    <t>bold2.spc</t>
-  </si>
-  <si>
-    <t>bold3.spc</t>
-  </si>
-  <si>
-    <t>gray1.spc</t>
-  </si>
-  <si>
-    <t>gray2.spc</t>
-  </si>
-  <si>
-    <t>hanari.spc</t>
-  </si>
-  <si>
-    <t>hm.spc</t>
-  </si>
-  <si>
-    <t>iyg_y.spc</t>
-  </si>
-  <si>
-    <t>ksline.spc</t>
-  </si>
-  <si>
-    <t>shadow.spc</t>
-  </si>
-  <si>
-    <t>smooth.spc</t>
-  </si>
-  <si>
-    <t>spec.spc</t>
-  </si>
-  <si>
-    <t>sys.spc</t>
-  </si>
-  <si>
-    <t>tb.spc</t>
-  </si>
-  <si>
-    <t>zorro.spc</t>
-  </si>
-  <si>
-    <t>BOLD</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>BOLD2(파이프형괘선</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>BOLD3(부드러운궤선</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>그림자체</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본형태</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>KS그래픽문자형</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>부드러운괘선</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>하나리</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>하나리C라이브러리, 이확영</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>태백</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>도꺠비</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>도깨비3.30</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZORRO</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>GRAY1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>GRAY2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>KSG</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>san.ksg</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>hm.spc</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>명조같은 느낌</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>손글씨</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>둥금</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>얇음</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>yun.ksg</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2409,8 +2358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7EE061E-4DF6-4129-B2C9-943A90EE26B5}">
   <dimension ref="A1:L158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2424,22 +2373,22 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>487</v>
+        <v>457</v>
       </c>
       <c r="C1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D1" t="s">
+        <v>454</v>
+      </c>
+      <c r="E1" t="s">
+        <v>456</v>
+      </c>
+      <c r="F1" t="s">
         <v>485</v>
       </c>
-      <c r="D1" t="s">
-        <v>484</v>
-      </c>
-      <c r="E1" t="s">
-        <v>486</v>
-      </c>
-      <c r="F1" t="s">
-        <v>518</v>
-      </c>
       <c r="I1" t="s">
-        <v>569</v>
+        <v>536</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -2465,10 +2414,10 @@
         <v>#N/A</v>
       </c>
       <c r="I2" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L2" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -2494,10 +2443,10 @@
         <v>#N/A</v>
       </c>
       <c r="I3" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L3" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -2523,10 +2472,10 @@
         <v>#N/A</v>
       </c>
       <c r="I4" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L4" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -2552,10 +2501,10 @@
         <v>#N/A</v>
       </c>
       <c r="I5" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L5" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -2581,10 +2530,10 @@
         <v>#N/A</v>
       </c>
       <c r="I6" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L6" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -2610,10 +2559,10 @@
         <v>#N/A</v>
       </c>
       <c r="I7" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L7" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -2639,10 +2588,10 @@
         <v>#N/A</v>
       </c>
       <c r="I8" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L8" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -2668,10 +2617,10 @@
         <v>#N/A</v>
       </c>
       <c r="I9" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L9" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -2697,10 +2646,10 @@
         <v>#N/A</v>
       </c>
       <c r="I10" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L10" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -2723,10 +2672,10 @@
         <v>#N/A</v>
       </c>
       <c r="I11" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L11" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -2752,10 +2701,10 @@
         <v>#N/A</v>
       </c>
       <c r="I12" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L12" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -2781,10 +2730,10 @@
         <v>#N/A</v>
       </c>
       <c r="I13" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L13" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -2810,10 +2759,10 @@
         <v>#N/A</v>
       </c>
       <c r="I14" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L14" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -2839,10 +2788,10 @@
         <v>#N/A</v>
       </c>
       <c r="I15" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L15" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -2868,10 +2817,10 @@
         <v>#N/A</v>
       </c>
       <c r="I16" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L16" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -2897,10 +2846,10 @@
         <v>#N/A</v>
       </c>
       <c r="I17" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L17" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -2926,10 +2875,10 @@
         <v>#N/A</v>
       </c>
       <c r="I18" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L18" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -2955,10 +2904,10 @@
         <v>#N/A</v>
       </c>
       <c r="I19" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L19" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -2981,10 +2930,10 @@
         <v>#N/A</v>
       </c>
       <c r="I20" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L20" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -3013,10 +2962,10 @@
         <v>김윤수</v>
       </c>
       <c r="I21" t="s">
-        <v>576</v>
+        <v>543</v>
       </c>
       <c r="L21" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -3034,7 +2983,7 @@
         <v>273</v>
       </c>
       <c r="F22" t="s">
-        <v>517</v>
+        <v>484</v>
       </c>
       <c r="G22" t="str">
         <f>VLOOKUP(F22,영어!A:C,2,FALSE)</f>
@@ -3045,10 +2994,10 @@
         <v>김윤수</v>
       </c>
       <c r="I22" t="s">
-        <v>576</v>
+        <v>543</v>
       </c>
       <c r="L22" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
@@ -3077,10 +3026,10 @@
         <v>#N/A</v>
       </c>
       <c r="I23" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L23" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
@@ -3106,15 +3055,15 @@
         <v>#N/A</v>
       </c>
       <c r="I24" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L24" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>476</v>
+        <v>446</v>
       </c>
       <c r="B25" t="str">
         <f t="shared" si="0"/>
@@ -3138,10 +3087,10 @@
         <v>#N/A</v>
       </c>
       <c r="I25" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L25" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
@@ -3167,10 +3116,10 @@
         <v>#N/A</v>
       </c>
       <c r="I26" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L26" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
@@ -3196,10 +3145,10 @@
         <v>#N/A</v>
       </c>
       <c r="I27" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L27" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
@@ -3225,10 +3174,10 @@
         <v>#N/A</v>
       </c>
       <c r="I28" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L28" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -3254,10 +3203,10 @@
         <v>#N/A</v>
       </c>
       <c r="I29" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L29" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
@@ -3284,10 +3233,10 @@
         <v>#N/A</v>
       </c>
       <c r="I30" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L30" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
@@ -3313,10 +3262,10 @@
         <v>#N/A</v>
       </c>
       <c r="I31" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L31" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
@@ -3342,10 +3291,10 @@
         <v>#N/A</v>
       </c>
       <c r="I32" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L32" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
@@ -3371,10 +3320,10 @@
         <v>#N/A</v>
       </c>
       <c r="I33" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L33" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
@@ -3400,10 +3349,10 @@
         <v>#N/A</v>
       </c>
       <c r="I34" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L34" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -3432,10 +3381,10 @@
         <v>#N/A</v>
       </c>
       <c r="I35" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L35" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
@@ -3461,10 +3410,10 @@
         <v>#N/A</v>
       </c>
       <c r="I36" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L36" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
@@ -3490,10 +3439,10 @@
         <v>#N/A</v>
       </c>
       <c r="I37" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L37" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
@@ -3519,10 +3468,10 @@
         <v>#N/A</v>
       </c>
       <c r="I38" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L38" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
@@ -3548,10 +3497,10 @@
         <v>#N/A</v>
       </c>
       <c r="I39" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L39" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
@@ -3577,10 +3526,10 @@
         <v>#N/A</v>
       </c>
       <c r="I40" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L40" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
@@ -3606,10 +3555,10 @@
         <v>#N/A</v>
       </c>
       <c r="I41" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L41" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
@@ -3618,10 +3567,10 @@
         <v>dokkebi_han.py eng\ han\hanpl3.kor ksg\roman.ksg spc\sys.spc</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>481</v>
+        <v>451</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>480</v>
+        <v>450</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>273</v>
@@ -3635,10 +3584,10 @@
         <v>#N/A</v>
       </c>
       <c r="I42" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L42" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
@@ -3664,10 +3613,10 @@
         <v>#N/A</v>
       </c>
       <c r="I43" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L43" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
@@ -3693,10 +3642,10 @@
         <v>#N/A</v>
       </c>
       <c r="I44" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L44" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
@@ -3705,10 +3654,10 @@
         <v>dokkebi_han.py eng\ han\NORMAL.KOR ksg\roman.ksg spc\sys.spc</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>479</v>
+        <v>449</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>478</v>
+        <v>448</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>273</v>
@@ -3722,10 +3671,10 @@
         <v>#N/A</v>
       </c>
       <c r="I45" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L45" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
@@ -3751,10 +3700,10 @@
         <v>#N/A</v>
       </c>
       <c r="I46" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L46" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
@@ -3763,10 +3712,10 @@
         <v>dokkebi_han.py eng\ han\CSWP.KOR ksg\roman.ksg spc\sys.spc</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>482</v>
+        <v>452</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>514</v>
+        <v>481</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>273</v>
@@ -3780,10 +3729,10 @@
         <v>#N/A</v>
       </c>
       <c r="I47" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L47" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
@@ -3792,10 +3741,10 @@
         <v>dokkebi_han.py eng\ han\hansoft.KOR ksg\roman.ksg spc\sys.spc</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>483</v>
+        <v>453</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>515</v>
+        <v>482</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>273</v>
@@ -3809,10 +3758,10 @@
         <v>#N/A</v>
       </c>
       <c r="I48" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L48" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
@@ -3841,10 +3790,10 @@
         <v>#N/A</v>
       </c>
       <c r="I49" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L49" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
@@ -3873,10 +3822,10 @@
         <v>#N/A</v>
       </c>
       <c r="I50" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L50" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
@@ -3902,10 +3851,10 @@
         <v>#N/A</v>
       </c>
       <c r="I51" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L51" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
@@ -3931,10 +3880,10 @@
         <v>#N/A</v>
       </c>
       <c r="I52" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L52" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
@@ -3960,10 +3909,10 @@
         <v>#N/A</v>
       </c>
       <c r="I53" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L53" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
@@ -3992,10 +3941,10 @@
         <v>김중태</v>
       </c>
       <c r="I54" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L54" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
@@ -4021,10 +3970,10 @@
         <v>#N/A</v>
       </c>
       <c r="I55" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L55" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
@@ -4050,10 +3999,10 @@
         <v>#N/A</v>
       </c>
       <c r="I56" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L56" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
@@ -4079,10 +4028,10 @@
         <v>#N/A</v>
       </c>
       <c r="I57" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L57" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
@@ -4108,10 +4057,10 @@
         <v>#N/A</v>
       </c>
       <c r="I58" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L58" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
@@ -4137,10 +4086,10 @@
         <v>#N/A</v>
       </c>
       <c r="I59" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L59" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
@@ -4166,10 +4115,10 @@
         <v>#N/A</v>
       </c>
       <c r="I60" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L60" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
@@ -4195,10 +4144,10 @@
         <v>#N/A</v>
       </c>
       <c r="I61" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L61" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
@@ -4224,10 +4173,10 @@
         <v>#N/A</v>
       </c>
       <c r="I62" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L62" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
@@ -4253,10 +4202,10 @@
         <v>#N/A</v>
       </c>
       <c r="I63" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L63" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
@@ -4282,10 +4231,10 @@
         <v>#N/A</v>
       </c>
       <c r="I64" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L64" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
@@ -4311,10 +4260,10 @@
         <v>#N/A</v>
       </c>
       <c r="I65" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L65" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
@@ -4340,10 +4289,10 @@
         <v>#N/A</v>
       </c>
       <c r="I66" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L66" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
@@ -4355,7 +4304,7 @@
         <v>187</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>513</v>
+        <v>480</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>265</v>
@@ -4369,10 +4318,10 @@
         <v>#N/A</v>
       </c>
       <c r="I67" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L67" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
@@ -4398,10 +4347,10 @@
         <v>#N/A</v>
       </c>
       <c r="I68" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L68" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
@@ -4413,7 +4362,7 @@
         <v>dokkebi_han.py eng\ han\hankbc.han ksg\roman.ksg spc\sys.spc</v>
       </c>
       <c r="C69" t="s">
-        <v>475</v>
+        <v>445</v>
       </c>
       <c r="D69" t="s">
         <v>63</v>
@@ -4430,10 +4379,10 @@
         <v>#N/A</v>
       </c>
       <c r="I69" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L69" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
@@ -4459,10 +4408,10 @@
         <v>#N/A</v>
       </c>
       <c r="I70" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L70" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
@@ -4486,10 +4435,10 @@
         <v>#N/A</v>
       </c>
       <c r="I71" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L71" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
@@ -4515,10 +4464,10 @@
         <v>#N/A</v>
       </c>
       <c r="I72" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L72" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
@@ -4544,10 +4493,10 @@
         <v>#N/A</v>
       </c>
       <c r="I73" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L73" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
@@ -4573,10 +4522,10 @@
         <v>#N/A</v>
       </c>
       <c r="I74" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L74" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
@@ -4602,10 +4551,10 @@
         <v>#N/A</v>
       </c>
       <c r="I75" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L75" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
@@ -4631,10 +4580,10 @@
         <v>#N/A</v>
       </c>
       <c r="I76" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L76" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
@@ -4660,10 +4609,10 @@
         <v>#N/A</v>
       </c>
       <c r="I77" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L77" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
@@ -4689,10 +4638,10 @@
         <v>#N/A</v>
       </c>
       <c r="I78" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L78" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
@@ -4715,10 +4664,10 @@
         <v>#N/A</v>
       </c>
       <c r="I79" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L79" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
@@ -4744,10 +4693,10 @@
         <v>#N/A</v>
       </c>
       <c r="I80" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L80" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="81" spans="2:12" x14ac:dyDescent="0.3">
@@ -4773,10 +4722,10 @@
         <v>#N/A</v>
       </c>
       <c r="I81" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L81" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="82" spans="2:12" x14ac:dyDescent="0.3">
@@ -4802,10 +4751,10 @@
         <v>#N/A</v>
       </c>
       <c r="I82" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L82" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="83" spans="2:12" x14ac:dyDescent="0.3">
@@ -4831,10 +4780,10 @@
         <v>#N/A</v>
       </c>
       <c r="I83" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L83" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="84" spans="2:12" x14ac:dyDescent="0.3">
@@ -4860,10 +4809,10 @@
         <v>#N/A</v>
       </c>
       <c r="I84" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L84" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="85" spans="2:12" x14ac:dyDescent="0.3">
@@ -4889,10 +4838,10 @@
         <v>#N/A</v>
       </c>
       <c r="I85" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L85" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="86" spans="2:12" x14ac:dyDescent="0.3">
@@ -4918,10 +4867,10 @@
         <v>#N/A</v>
       </c>
       <c r="I86" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L86" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="87" spans="2:12" x14ac:dyDescent="0.3">
@@ -4947,10 +4896,10 @@
         <v>#N/A</v>
       </c>
       <c r="I87" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L87" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="88" spans="2:12" x14ac:dyDescent="0.3">
@@ -4976,10 +4925,10 @@
         <v>#N/A</v>
       </c>
       <c r="I88" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L88" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="89" spans="2:12" x14ac:dyDescent="0.3">
@@ -5005,10 +4954,10 @@
         <v>#N/A</v>
       </c>
       <c r="I89" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L89" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="90" spans="2:12" x14ac:dyDescent="0.3">
@@ -5034,10 +4983,10 @@
         <v>#N/A</v>
       </c>
       <c r="I90" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L90" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="91" spans="2:12" x14ac:dyDescent="0.3">
@@ -5063,10 +5012,10 @@
         <v>#N/A</v>
       </c>
       <c r="I91" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L91" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="92" spans="2:12" x14ac:dyDescent="0.3">
@@ -5092,10 +5041,10 @@
         <v>#N/A</v>
       </c>
       <c r="I92" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L92" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="93" spans="2:12" x14ac:dyDescent="0.3">
@@ -5121,10 +5070,10 @@
         <v>#N/A</v>
       </c>
       <c r="I93" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L93" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="94" spans="2:12" x14ac:dyDescent="0.3">
@@ -5150,10 +5099,10 @@
         <v>#N/A</v>
       </c>
       <c r="I94" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L94" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="95" spans="2:12" x14ac:dyDescent="0.3">
@@ -5179,10 +5128,10 @@
         <v>#N/A</v>
       </c>
       <c r="I95" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L95" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="96" spans="2:12" x14ac:dyDescent="0.3">
@@ -5208,10 +5157,10 @@
         <v>#N/A</v>
       </c>
       <c r="I96" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L96" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
@@ -5237,10 +5186,10 @@
         <v>#N/A</v>
       </c>
       <c r="I97" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L97" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
@@ -5266,10 +5215,10 @@
         <v>#N/A</v>
       </c>
       <c r="I98" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L98" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
@@ -5295,10 +5244,10 @@
         <v>#N/A</v>
       </c>
       <c r="I99" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L99" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
@@ -5324,10 +5273,10 @@
         <v>#N/A</v>
       </c>
       <c r="I100" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L100" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
@@ -5353,10 +5302,10 @@
         <v>#N/A</v>
       </c>
       <c r="I101" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L101" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
@@ -5382,10 +5331,10 @@
         <v>#N/A</v>
       </c>
       <c r="I102" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L102" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
@@ -5411,10 +5360,10 @@
         <v>#N/A</v>
       </c>
       <c r="I103" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L103" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
@@ -5440,10 +5389,10 @@
         <v>#N/A</v>
       </c>
       <c r="I104" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L104" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.3">
@@ -5461,7 +5410,7 @@
         <v>215</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="G105" s="2" t="str">
         <f>VLOOKUP(F105,영어!A:C,2,FALSE)</f>
@@ -5472,10 +5421,10 @@
         <v xml:space="preserve">이확영, 프린세스 메이커  </v>
       </c>
       <c r="I105" t="s">
-        <v>570</v>
+        <v>537</v>
       </c>
       <c r="L105" t="s">
-        <v>571</v>
+        <v>538</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.3">
@@ -5504,10 +5453,10 @@
         <v>#N/A</v>
       </c>
       <c r="I106" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L106" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.3">
@@ -5533,10 +5482,10 @@
         <v>#N/A</v>
       </c>
       <c r="I107" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L107" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.3">
@@ -5559,10 +5508,10 @@
         <v>#N/A</v>
       </c>
       <c r="I108" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L108" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.3">
@@ -5585,10 +5534,10 @@
         <v>#N/A</v>
       </c>
       <c r="I109" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L109" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.3">
@@ -5614,10 +5563,10 @@
         <v>#N/A</v>
       </c>
       <c r="I110" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L110" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.3">
@@ -5643,10 +5592,10 @@
         <v>#N/A</v>
       </c>
       <c r="I111" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L111" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.3">
@@ -5672,10 +5621,10 @@
         <v>#N/A</v>
       </c>
       <c r="I112" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L112" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="113" spans="2:12" x14ac:dyDescent="0.3">
@@ -5701,10 +5650,10 @@
         <v>#N/A</v>
       </c>
       <c r="I113" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L113" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="114" spans="2:12" x14ac:dyDescent="0.3">
@@ -5730,10 +5679,10 @@
         <v>#N/A</v>
       </c>
       <c r="I114" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L114" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="115" spans="2:12" x14ac:dyDescent="0.3">
@@ -5759,10 +5708,10 @@
         <v>#N/A</v>
       </c>
       <c r="I115" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L115" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="116" spans="2:12" x14ac:dyDescent="0.3">
@@ -5788,10 +5737,10 @@
         <v>#N/A</v>
       </c>
       <c r="I116" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L116" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="117" spans="2:12" x14ac:dyDescent="0.3">
@@ -5817,10 +5766,10 @@
         <v>#N/A</v>
       </c>
       <c r="I117" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L117" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="118" spans="2:12" x14ac:dyDescent="0.3">
@@ -5846,10 +5795,10 @@
         <v>#N/A</v>
       </c>
       <c r="I118" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L118" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="119" spans="2:12" x14ac:dyDescent="0.3">
@@ -5875,10 +5824,10 @@
         <v>#N/A</v>
       </c>
       <c r="I119" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L119" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="120" spans="2:12" x14ac:dyDescent="0.3">
@@ -5887,7 +5836,7 @@
         <v>dokkebi_han.py eng\ han\hmsys.han ksg\roman.ksg spc\sys.spc</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>477</v>
+        <v>447</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>86</v>
@@ -5904,10 +5853,10 @@
         <v>#N/A</v>
       </c>
       <c r="I120" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L120" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="121" spans="2:12" x14ac:dyDescent="0.3">
@@ -5933,10 +5882,10 @@
         <v>#N/A</v>
       </c>
       <c r="I121" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L121" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="122" spans="2:12" x14ac:dyDescent="0.3">
@@ -5962,10 +5911,10 @@
         <v>#N/A</v>
       </c>
       <c r="I122" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L122" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="123" spans="2:12" x14ac:dyDescent="0.3">
@@ -5991,10 +5940,10 @@
         <v>#N/A</v>
       </c>
       <c r="I123" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L123" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="124" spans="2:12" x14ac:dyDescent="0.3">
@@ -6020,10 +5969,10 @@
         <v>#N/A</v>
       </c>
       <c r="I124" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L124" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="125" spans="2:12" x14ac:dyDescent="0.3">
@@ -6049,10 +5998,10 @@
         <v>#N/A</v>
       </c>
       <c r="I125" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L125" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="126" spans="2:12" x14ac:dyDescent="0.3">
@@ -6078,10 +6027,10 @@
         <v>#N/A</v>
       </c>
       <c r="I126" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L126" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="127" spans="2:12" x14ac:dyDescent="0.3">
@@ -6107,10 +6056,10 @@
         <v>#N/A</v>
       </c>
       <c r="I127" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L127" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="128" spans="2:12" x14ac:dyDescent="0.3">
@@ -6136,10 +6085,10 @@
         <v>#N/A</v>
       </c>
       <c r="I128" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L128" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="129" spans="2:12" x14ac:dyDescent="0.3">
@@ -6165,10 +6114,10 @@
         <v>#N/A</v>
       </c>
       <c r="I129" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L129" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="130" spans="2:12" x14ac:dyDescent="0.3">
@@ -6194,10 +6143,10 @@
         <v>#N/A</v>
       </c>
       <c r="I130" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L130" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="131" spans="2:12" x14ac:dyDescent="0.3">
@@ -6223,10 +6172,10 @@
         <v>#N/A</v>
       </c>
       <c r="I131" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L131" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="132" spans="2:12" x14ac:dyDescent="0.3">
@@ -6252,10 +6201,10 @@
         <v>#N/A</v>
       </c>
       <c r="I132" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L132" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="133" spans="2:12" x14ac:dyDescent="0.3">
@@ -6281,10 +6230,10 @@
         <v>#N/A</v>
       </c>
       <c r="I133" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L133" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="134" spans="2:12" x14ac:dyDescent="0.3">
@@ -6310,10 +6259,10 @@
         <v>#N/A</v>
       </c>
       <c r="I134" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L134" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="135" spans="2:12" x14ac:dyDescent="0.3">
@@ -6339,10 +6288,10 @@
         <v>#N/A</v>
       </c>
       <c r="I135" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L135" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="136" spans="2:12" x14ac:dyDescent="0.3">
@@ -6362,10 +6311,10 @@
         <v>#N/A</v>
       </c>
       <c r="I136" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L136" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="137" spans="2:12" x14ac:dyDescent="0.3">
@@ -6385,10 +6334,10 @@
         <v>#N/A</v>
       </c>
       <c r="I137" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L137" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="138" spans="2:12" x14ac:dyDescent="0.3">
@@ -6408,10 +6357,10 @@
         <v>#N/A</v>
       </c>
       <c r="I138" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L138" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="139" spans="2:12" x14ac:dyDescent="0.3">
@@ -6431,10 +6380,10 @@
         <v>#N/A</v>
       </c>
       <c r="I139" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L139" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="140" spans="2:12" x14ac:dyDescent="0.3">
@@ -6454,10 +6403,10 @@
         <v>#N/A</v>
       </c>
       <c r="I140" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L140" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="141" spans="2:12" x14ac:dyDescent="0.3">
@@ -6477,10 +6426,10 @@
         <v>#N/A</v>
       </c>
       <c r="I141" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L141" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="142" spans="2:12" x14ac:dyDescent="0.3">
@@ -6500,10 +6449,10 @@
         <v>#N/A</v>
       </c>
       <c r="I142" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L142" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="143" spans="2:12" x14ac:dyDescent="0.3">
@@ -6523,10 +6472,10 @@
         <v>#N/A</v>
       </c>
       <c r="I143" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L143" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="144" spans="2:12" x14ac:dyDescent="0.3">
@@ -6546,10 +6495,10 @@
         <v>#N/A</v>
       </c>
       <c r="I144" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L144" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="145" spans="2:12" x14ac:dyDescent="0.3">
@@ -6569,10 +6518,10 @@
         <v>#N/A</v>
       </c>
       <c r="I145" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L145" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="146" spans="2:12" x14ac:dyDescent="0.3">
@@ -6592,10 +6541,10 @@
         <v>#N/A</v>
       </c>
       <c r="I146" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L146" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="147" spans="2:12" x14ac:dyDescent="0.3">
@@ -6615,10 +6564,10 @@
         <v>#N/A</v>
       </c>
       <c r="I147" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L147" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="148" spans="2:12" x14ac:dyDescent="0.3">
@@ -6638,10 +6587,10 @@
         <v>#N/A</v>
       </c>
       <c r="I148" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L148" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="149" spans="2:12" x14ac:dyDescent="0.3">
@@ -6661,10 +6610,10 @@
         <v>#N/A</v>
       </c>
       <c r="I149" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L149" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="150" spans="2:12" x14ac:dyDescent="0.3">
@@ -6684,10 +6633,10 @@
         <v>#N/A</v>
       </c>
       <c r="I150" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L150" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="151" spans="2:12" x14ac:dyDescent="0.3">
@@ -6707,10 +6656,10 @@
         <v>#N/A</v>
       </c>
       <c r="I151" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L151" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="152" spans="2:12" x14ac:dyDescent="0.3">
@@ -6730,10 +6679,10 @@
         <v>#N/A</v>
       </c>
       <c r="I152" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L152" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="153" spans="2:12" x14ac:dyDescent="0.3">
@@ -6753,10 +6702,10 @@
         <v>#N/A</v>
       </c>
       <c r="I153" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L153" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="154" spans="2:12" x14ac:dyDescent="0.3">
@@ -6776,10 +6725,10 @@
         <v>#N/A</v>
       </c>
       <c r="I154" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L154" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="155" spans="2:12" x14ac:dyDescent="0.3">
@@ -6799,10 +6748,10 @@
         <v>#N/A</v>
       </c>
       <c r="I155" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L155" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="156" spans="2:12" x14ac:dyDescent="0.3">
@@ -6822,10 +6771,10 @@
         <v>#N/A</v>
       </c>
       <c r="I156" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L156" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="157" spans="2:12" x14ac:dyDescent="0.3">
@@ -6845,10 +6794,10 @@
         <v>#N/A</v>
       </c>
       <c r="I157" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L157" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="158" spans="2:12" x14ac:dyDescent="0.3">
@@ -6868,10 +6817,10 @@
         <v>#N/A</v>
       </c>
       <c r="I158" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="L158" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
   </sheetData>
@@ -6894,10 +6843,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ACA197D-65FC-4B4A-A9D8-85379C7E3E11}">
-  <dimension ref="A1:D81"/>
+  <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6905,852 +6854,1603 @@
     <col min="1" max="1" width="17.75" customWidth="1"/>
     <col min="2" max="2" width="19.625" customWidth="1"/>
     <col min="3" max="3" width="16.375" customWidth="1"/>
+    <col min="8" max="8" width="29.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>516</v>
+        <v>431</v>
       </c>
       <c r="B1" t="s">
-        <v>448</v>
-      </c>
-      <c r="C1" t="s">
-        <v>449</v>
-      </c>
-      <c r="D1" t="s">
+        <v>430</v>
+      </c>
+      <c r="I1" t="str">
+        <f>"dokkebi_han.py eng\"&amp;A1&amp;" ! ! !"</f>
+        <v>dokkebi_han.py eng\(유실) ! ! !</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B2" t="s">
+        <v>458</v>
+      </c>
+      <c r="C2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D2" t="s">
+        <v>436</v>
+      </c>
+      <c r="F2" t="str">
+        <f t="shared" ref="F2:F55" si="0">"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;SUBSTITUTE(A2,".eng","")&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;SUBSTITUTE(A2,".eng","")&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr style="font-family: ad24;font-size: 16px&gt;&lt;td&gt;ad24&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="G2" t="str">
+        <f>"@font-face { font-family: "&amp;SUBSTITUTE(A2,".eng","")&amp;";src:url(./HUSan/kor/"&amp;SUBSTITUTE(A2,".eng","")&amp;".woff2) format('woff2');font-weight: normal;font-style: normal;}"</f>
+        <v>@font-face { font-family: ad24;src:url(./HUSan/kor/ad24.woff2) format('woff2');font-weight: normal;font-style: normal;}</v>
+      </c>
+      <c r="I2" t="str">
+        <f t="shared" ref="I2:I55" si="1">"dokkebi_han.py eng\"&amp;A2&amp;" ! ! !"</f>
+        <v>dokkebi_han.py eng\ad24.eng ! ! !</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>484</v>
+      </c>
+      <c r="B3" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>344</v>
-      </c>
-      <c r="B2" t="s">
-        <v>450</v>
-      </c>
-      <c r="C2" t="s">
-        <v>451</v>
-      </c>
-      <c r="D2" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>381</v>
-      </c>
-      <c r="B3" t="s">
-        <v>421</v>
-      </c>
       <c r="C3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>273</v>
+      </c>
+      <c r="D3" t="s">
+        <v>436</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr style="font-family: ad24_10;font-size: 16px&gt;&lt;td&gt;ad24_10&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G56" si="2">"@font-face { font-family: "&amp;SUBSTITUTE(A3,".eng","")&amp;";src:url(./HUSan/kor/"&amp;SUBSTITUTE(A3,".eng","")&amp;".woff2) format('woff2');font-weight: normal;font-style: normal;}"</f>
+        <v>@font-face { font-family: ad24_10;src:url(./HUSan/kor/ad24_10.woff2) format('woff2');font-weight: normal;font-style: normal;}</v>
+      </c>
+      <c r="I3" t="str">
+        <f t="shared" si="1"/>
+        <v>dokkebi_han.py eng\ad24_10.eng ! ! !</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>383</v>
+        <v>328</v>
       </c>
       <c r="B4" t="s">
-        <v>452</v>
+        <v>406</v>
       </c>
       <c r="C4" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>408</v>
+      </c>
+      <c r="D4" t="s">
+        <v>437</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr style="font-family: ascx;font-size: 16px&gt;&lt;td&gt;ascx&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="2"/>
+        <v>@font-face { font-family: ascx;src:url(./HUSan/kor/ascx.woff2) format('woff2');font-weight: normal;font-style: normal;}</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" si="1"/>
+        <v>dokkebi_han.py eng\ascx.eng ! ! !</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>397</v>
+        <v>329</v>
       </c>
       <c r="B5" t="s">
-        <v>454</v>
+        <v>407</v>
       </c>
       <c r="C5" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>409</v>
+      </c>
+      <c r="D5" t="s">
+        <v>437</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr style="font-family: ascy;font-size: 16px&gt;&lt;td&gt;ascy&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="2"/>
+        <v>@font-face { font-family: ascy;src:url(./HUSan/kor/ascy.woff2) format('woff2');font-weight: normal;font-style: normal;}</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="1"/>
+        <v>dokkebi_han.py eng\ascy.eng ! ! !</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>398</v>
+        <v>483</v>
       </c>
       <c r="B6" t="s">
-        <v>456</v>
+        <v>432</v>
       </c>
       <c r="C6" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>433</v>
+      </c>
+      <c r="D6" t="s">
+        <v>437</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr style="font-family: ativga;font-size: 16px&gt;&lt;td&gt;ativga&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="2"/>
+        <v>@font-face { font-family: ativga;src:url(./HUSan/kor/ativga.woff2) format('woff2');font-weight: normal;font-style: normal;}</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="1"/>
+        <v>dokkebi_han.py eng\ativga.eng ! ! !</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B7" t="s">
-        <v>488</v>
+        <v>460</v>
       </c>
       <c r="C7" t="s">
         <v>273</v>
       </c>
       <c r="D7" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>438</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr style="font-family: big;font-size: 16px&gt;&lt;td&gt;big&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="2"/>
+        <v>@font-face { font-family: big;src:url(./HUSan/kor/big.woff2) format('woff2');font-weight: normal;font-style: normal;}</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="1"/>
+        <v>dokkebi_han.py eng\big.eng ! ! !</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>517</v>
+        <v>331</v>
       </c>
       <c r="B8" t="s">
-        <v>489</v>
+        <v>462</v>
       </c>
       <c r="C8" t="s">
         <v>273</v>
       </c>
       <c r="D8" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>439</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr style="font-family: bold;font-size: 16px&gt;&lt;td&gt;bold&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="2"/>
+        <v>@font-face { font-family: bold;src:url(./HUSan/kor/bold.woff2) format('woff2');font-weight: normal;font-style: normal;}</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="1"/>
+        <v>dokkebi_han.py eng\bold.eng ! ! !</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B9" t="s">
-        <v>490</v>
+        <v>461</v>
       </c>
       <c r="C9" t="s">
         <v>273</v>
       </c>
       <c r="D9" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>440</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr style="font-family: boldnr;font-size: 16px&gt;&lt;td&gt;boldnr&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="2"/>
+        <v>@font-face { font-family: boldnr;src:url(./HUSan/kor/boldnr.woff2) format('woff2');font-weight: normal;font-style: normal;}</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="1"/>
+        <v>dokkebi_han.py eng\boldnr.eng ! ! !</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B10" t="s">
-        <v>492</v>
+        <v>463</v>
       </c>
       <c r="C10" t="s">
         <v>273</v>
       </c>
       <c r="D10" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>436</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr style="font-family: byte;font-size: 16px&gt;&lt;td&gt;byte&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="2"/>
+        <v>@font-face { font-family: byte;src:url(./HUSan/kor/byte.woff2) format('woff2');font-weight: normal;font-style: normal;}</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="1"/>
+        <v>dokkebi_han.py eng\byte.eng ! ! !</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B11" t="s">
-        <v>491</v>
+        <v>464</v>
       </c>
       <c r="C11" t="s">
         <v>273</v>
       </c>
       <c r="D11" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>436</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr style="font-family: byte10;font-size: 16px&gt;&lt;td&gt;byte10&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="2"/>
+        <v>@font-face { font-family: byte10;src:url(./HUSan/kor/byte10.woff2) format('woff2');font-weight: normal;font-style: normal;}</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="1"/>
+        <v>dokkebi_han.py eng\byte10.eng ! ! !</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B12" t="s">
-        <v>493</v>
+        <v>465</v>
       </c>
       <c r="C12" t="s">
         <v>273</v>
       </c>
       <c r="D12" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>436</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr style="font-family: count;font-size: 16px&gt;&lt;td&gt;count&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="2"/>
+        <v>@font-face { font-family: count;src:url(./HUSan/kor/count.woff2) format('woff2');font-weight: normal;font-style: normal;}</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="1"/>
+        <v>dokkebi_han.py eng\count.eng ! ! !</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B13" t="s">
-        <v>494</v>
+        <v>395</v>
       </c>
       <c r="C13" t="s">
-        <v>273</v>
-      </c>
-      <c r="D13" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>393</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr style="font-family: e1;font-size: 16px&gt;&lt;td&gt;e1&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="2"/>
+        <v>@font-face { font-family: e1;src:url(./HUSan/kor/e1.woff2) format('woff2');font-weight: normal;font-style: normal;}</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="1"/>
+        <v>dokkebi_han.py eng\e1.eng ! ! !</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B14" t="s">
-        <v>495</v>
+        <v>394</v>
       </c>
       <c r="C14" t="s">
-        <v>273</v>
-      </c>
-      <c r="D14" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>393</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr style="font-family: e2;font-size: 16px&gt;&lt;td&gt;e2&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="2"/>
+        <v>@font-face { font-family: e2;src:url(./HUSan/kor/e2.woff2) format('woff2');font-weight: normal;font-style: normal;}</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="1"/>
+        <v>dokkebi_han.py eng\e2.eng ! ! !</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>338</v>
+      </c>
+      <c r="B15" t="s">
+        <v>396</v>
+      </c>
+      <c r="C15" t="s">
+        <v>393</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr style="font-family: e3;font-size: 16px&gt;&lt;td&gt;e3&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="2"/>
+        <v>@font-face { font-family: e3;src:url(./HUSan/kor/e3.woff2) format('woff2');font-weight: normal;font-style: normal;}</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="1"/>
+        <v>dokkebi_han.py eng\e3.eng ! ! !</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>339</v>
+      </c>
+      <c r="B16" t="s">
+        <v>397</v>
+      </c>
+      <c r="C16" t="s">
+        <v>393</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr style="font-family: e4_2;font-size: 16px&gt;&lt;td&gt;e4_2&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="2"/>
+        <v>@font-face { font-family: e4_2;src:url(./HUSan/kor/e4_2.woff2) format('woff2');font-weight: normal;font-style: normal;}</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="1"/>
+        <v>dokkebi_han.py eng\e4_2.eng ! ! !</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>340</v>
+      </c>
+      <c r="B17" t="s">
+        <v>398</v>
+      </c>
+      <c r="C17" t="s">
+        <v>393</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr style="font-family: e4_3;font-size: 16px&gt;&lt;td&gt;e4_3&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="2"/>
+        <v>@font-face { font-family: e4_3;src:url(./HUSan/kor/e4_3.woff2) format('woff2');font-weight: normal;font-style: normal;}</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="1"/>
+        <v>dokkebi_han.py eng\e4_3.eng ! ! !</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>341</v>
+      </c>
+      <c r="B18" t="s">
+        <v>400</v>
+      </c>
+      <c r="C18" t="s">
+        <v>393</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr style="font-family: e5;font-size: 16px&gt;&lt;td&gt;e5&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="2"/>
+        <v>@font-face { font-family: e5;src:url(./HUSan/kor/e5.woff2) format('woff2');font-weight: normal;font-style: normal;}</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="1"/>
+        <v>dokkebi_han.py eng\e5.eng ! ! !</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>342</v>
+      </c>
+      <c r="B19" t="s">
+        <v>399</v>
+      </c>
+      <c r="C19" t="s">
+        <v>393</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr style="font-family: e6;font-size: 16px&gt;&lt;td&gt;e6&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="2"/>
+        <v>@font-face { font-family: e6;src:url(./HUSan/kor/e6.woff2) format('woff2');font-weight: normal;font-style: normal;}</v>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" si="1"/>
+        <v>dokkebi_han.py eng\e6.eng ! ! !</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>343</v>
+      </c>
+      <c r="B20" t="s">
+        <v>401</v>
+      </c>
+      <c r="C20" t="s">
+        <v>393</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr style="font-family: e8;font-size: 16px&gt;&lt;td&gt;e8&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="2"/>
+        <v>@font-face { font-family: e8;src:url(./HUSan/kor/e8.woff2) format('woff2');font-weight: normal;font-style: normal;}</v>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" si="1"/>
+        <v>dokkebi_han.py eng\e8.eng ! ! !</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>344</v>
+      </c>
+      <c r="B21" t="s">
+        <v>434</v>
+      </c>
+      <c r="C21" t="s">
+        <v>435</v>
+      </c>
+      <c r="D21" t="s">
+        <v>441</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr style="font-family: eagleii;font-size: 16px&gt;&lt;td&gt;eagleii&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="2"/>
+        <v>@font-face { font-family: eagleii;src:url(./HUSan/kor/eagleii.woff2) format('woff2');font-weight: normal;font-style: normal;}</v>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" si="1"/>
+        <v>dokkebi_han.py eng\eagleii.eng ! ! !</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>345</v>
       </c>
-      <c r="B15" t="s">
-        <v>496</v>
-      </c>
-      <c r="C15" t="s">
-        <v>273</v>
-      </c>
-      <c r="D15" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>346</v>
-      </c>
-      <c r="B16" t="s">
-        <v>497</v>
-      </c>
-      <c r="C16" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>359</v>
-      </c>
-      <c r="B17" t="s">
-        <v>498</v>
-      </c>
-      <c r="C17" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>360</v>
-      </c>
-      <c r="B18" t="s">
-        <v>499</v>
-      </c>
-      <c r="C18" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>374</v>
-      </c>
-      <c r="B19" t="s">
-        <v>500</v>
-      </c>
-      <c r="C19" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>377</v>
-      </c>
-      <c r="B20" t="s">
-        <v>502</v>
-      </c>
-      <c r="C20" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>378</v>
-      </c>
-      <c r="B21" t="s">
-        <v>504</v>
-      </c>
-      <c r="C21" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>379</v>
-      </c>
       <c r="B22" t="s">
-        <v>503</v>
+        <v>544</v>
       </c>
       <c r="C22" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
+        <v>442</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr style="font-family: eart;font-size: 16px&gt;&lt;td&gt;eart&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="2"/>
+        <v>@font-face { font-family: eart;src:url(./HUSan/kor/eart.woff2) format('woff2');font-weight: normal;font-style: normal;}</v>
+      </c>
+      <c r="I22" t="str">
+        <f t="shared" si="1"/>
+        <v>dokkebi_han.py eng\eart.eng ! ! !</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>386</v>
+        <v>346</v>
       </c>
       <c r="B23" t="s">
-        <v>501</v>
+        <v>466</v>
       </c>
       <c r="C23" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F23" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr style="font-family: eart10;font-size: 16px&gt;&lt;td&gt;eart10&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="2"/>
+        <v>@font-face { font-family: eart10;src:url(./HUSan/kor/eart10.woff2) format('woff2');font-weight: normal;font-style: normal;}</v>
+      </c>
+      <c r="I23" t="str">
+        <f t="shared" si="1"/>
+        <v>dokkebi_han.py eng\eart10.eng ! ! !</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>389</v>
+        <v>347</v>
       </c>
       <c r="B24" t="s">
-        <v>505</v>
+        <v>405</v>
       </c>
       <c r="C24" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+        <v>420</v>
+      </c>
+      <c r="D24" t="s">
+        <v>443</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr style="font-family: egood;font-size: 16px&gt;&lt;td&gt;egood&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="2"/>
+        <v>@font-face { font-family: egood;src:url(./HUSan/kor/egood.woff2) format('woff2');font-weight: normal;font-style: normal;}</v>
+      </c>
+      <c r="I24" t="str">
+        <f t="shared" si="1"/>
+        <v>dokkebi_han.py eng\egood.eng ! ! !</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>391</v>
+        <v>348</v>
       </c>
       <c r="B25" t="s">
-        <v>507</v>
+        <v>421</v>
       </c>
       <c r="C25" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+        <v>422</v>
+      </c>
+      <c r="D25" t="s">
+        <v>444</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr style="font-family: eprcs;font-size: 16px&gt;&lt;td&gt;eprcs&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="2"/>
+        <v>@font-face { font-family: eprcs;src:url(./HUSan/kor/eprcs.woff2) format('woff2');font-weight: normal;font-style: normal;}</v>
+      </c>
+      <c r="I25" t="str">
+        <f t="shared" si="1"/>
+        <v>dokkebi_han.py eng\eprcs.eng ! ! !</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>392</v>
+        <v>349</v>
       </c>
       <c r="B26" t="s">
-        <v>506</v>
+        <v>467</v>
       </c>
       <c r="C26" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F26" t="str">
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;SUBSTITUTE(A26,".eng","")&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;SUBSTITUTE(A26,".eng","")&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr style="font-family: flow;font-size: 16px&gt;&lt;td&gt;flow&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="2"/>
+        <v>@font-face { font-family: flow;src:url(./HUSan/kor/flow.woff2) format('woff2');font-weight: normal;font-style: normal;}</v>
+      </c>
+      <c r="I26" t="str">
+        <f t="shared" si="1"/>
+        <v>dokkebi_han.py eng\flow.eng ! ! !</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>393</v>
+        <v>350</v>
       </c>
       <c r="B27" t="s">
-        <v>508</v>
+        <v>468</v>
       </c>
       <c r="C27" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F27" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr style="font-family: flow10;font-size: 16px&gt;&lt;td&gt;flow10&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="2"/>
+        <v>@font-face { font-family: flow10;src:url(./HUSan/kor/flow10.woff2) format('woff2');font-weight: normal;font-style: normal;}</v>
+      </c>
+      <c r="I27" t="str">
+        <f t="shared" si="1"/>
+        <v>dokkebi_han.py eng\flow10.eng ! ! !</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>394</v>
+        <v>351</v>
       </c>
       <c r="B28" t="s">
+        <v>416</v>
+      </c>
+      <c r="C28" t="s">
+        <v>414</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr style="font-family: hanitl;font-size: 16px&gt;&lt;td&gt;hanitl&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="2"/>
+        <v>@font-face { font-family: hanitl;src:url(./HUSan/kor/hanitl.woff2) format('woff2');font-weight: normal;font-style: normal;}</v>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" si="1"/>
+        <v>dokkebi_han.py eng\hanitl.eng ! ! !</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>352</v>
+      </c>
+      <c r="B29" t="s">
+        <v>417</v>
+      </c>
+      <c r="C29" t="s">
+        <v>415</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr style="font-family: hansc;font-size: 16px&gt;&lt;td&gt;hansc&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="2"/>
+        <v>@font-face { font-family: hansc;src:url(./HUSan/kor/hansc.woff2) format('woff2');font-weight: normal;font-style: normal;}</v>
+      </c>
+      <c r="I29" t="str">
+        <f t="shared" si="1"/>
+        <v>dokkebi_han.py eng\hansc.eng ! ! !</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>353</v>
+      </c>
+      <c r="B30" t="s">
+        <v>418</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr style="font-family: hansc2;font-size: 16px&gt;&lt;td&gt;hansc2&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="2"/>
+        <v>@font-face { font-family: hansc2;src:url(./HUSan/kor/hansc2.woff2) format('woff2');font-weight: normal;font-style: normal;}</v>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" si="1"/>
+        <v>dokkebi_han.py eng\hansc2.eng ! ! !</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>354</v>
+      </c>
+      <c r="B31" t="s">
+        <v>419</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr style="font-family: hansc2t;font-size: 16px&gt;&lt;td&gt;hansc2t&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="2"/>
+        <v>@font-face { font-family: hansc2t;src:url(./HUSan/kor/hansc2t.woff2) format('woff2');font-weight: normal;font-style: normal;}</v>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" si="1"/>
+        <v>dokkebi_han.py eng\hansc2t.eng ! ! !</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>363</v>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr style="font-family: hm_y;font-size: 16px&gt;&lt;td&gt;hm_y&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="2"/>
+        <v>@font-face { font-family: hm_y;src:url(./HUSan/kor/hm_y.woff2) format('woff2');font-weight: normal;font-style: normal;}</v>
+      </c>
+      <c r="I32" t="str">
+        <f t="shared" si="1"/>
+        <v>dokkebi_han.py eng\hm_y.eng ! ! !</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>355</v>
+      </c>
+      <c r="B33" t="s">
+        <v>423</v>
+      </c>
+      <c r="C33" t="s">
+        <v>427</v>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr style="font-family: hmcount;font-size: 16px&gt;&lt;td&gt;hmcount&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="2"/>
+        <v>@font-face { font-family: hmcount;src:url(./HUSan/kor/hmcount.woff2) format('woff2');font-weight: normal;font-style: normal;}</v>
+      </c>
+      <c r="I33" t="str">
+        <f t="shared" si="1"/>
+        <v>dokkebi_han.py eng\hmcount.eng ! ! !</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>356</v>
+      </c>
+      <c r="B34" t="s">
+        <v>428</v>
+      </c>
+      <c r="C34" t="s">
+        <v>427</v>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr style="font-family: hmdef;font-size: 16px&gt;&lt;td&gt;hmdef&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="2"/>
+        <v>@font-face { font-family: hmdef;src:url(./HUSan/kor/hmdef.woff2) format('woff2');font-weight: normal;font-style: normal;}</v>
+      </c>
+      <c r="I34" t="str">
+        <f t="shared" si="1"/>
+        <v>dokkebi_han.py eng\hmdef.eng ! ! !</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>357</v>
+      </c>
+      <c r="B35" t="s">
+        <v>424</v>
+      </c>
+      <c r="C35" t="s">
+        <v>427</v>
+      </c>
+      <c r="F35" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr style="font-family: hmmcr;font-size: 16px&gt;&lt;td&gt;hmmcr&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="2"/>
+        <v>@font-face { font-family: hmmcr;src:url(./HUSan/kor/hmmcr.woff2) format('woff2');font-weight: normal;font-style: normal;}</v>
+      </c>
+      <c r="I35" t="str">
+        <f t="shared" si="1"/>
+        <v>dokkebi_han.py eng\hmmcr.eng ! ! !</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>358</v>
+      </c>
+      <c r="B36" t="s">
+        <v>429</v>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr style="font-family: hmmcr_y;font-size: 16px&gt;&lt;td&gt;hmmcr_y&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="2"/>
+        <v>@font-face { font-family: hmmcr_y;src:url(./HUSan/kor/hmmcr_y.woff2) format('woff2');font-weight: normal;font-style: normal;}</v>
+      </c>
+      <c r="I36" t="str">
+        <f t="shared" si="1"/>
+        <v>dokkebi_han.py eng\hmmcr_y.eng ! ! !</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>359</v>
+      </c>
+      <c r="B37" t="s">
         <v>425</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C37" t="s">
+        <v>427</v>
+      </c>
+      <c r="F37" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr style="font-family: hmscr;font-size: 16px&gt;&lt;td&gt;hmscr&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="2"/>
+        <v>@font-face { font-family: hmscr;src:url(./HUSan/kor/hmscr.woff2) format('woff2');font-weight: normal;font-style: normal;}</v>
+      </c>
+      <c r="I37" t="str">
+        <f t="shared" si="1"/>
+        <v>dokkebi_han.py eng\hmscr.eng ! ! !</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>360</v>
+      </c>
+      <c r="B38" t="s">
+        <v>545</v>
+      </c>
+      <c r="C38" t="s">
+        <v>427</v>
+      </c>
+      <c r="F38" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr style="font-family: hmstd1;font-size: 16px&gt;&lt;td&gt;hmstd1&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="2"/>
+        <v>@font-face { font-family: hmstd1;src:url(./HUSan/kor/hmstd1.woff2) format('woff2');font-weight: normal;font-style: normal;}</v>
+      </c>
+      <c r="I38" t="str">
+        <f t="shared" si="1"/>
+        <v>dokkebi_han.py eng\hmstd1.eng ! ! !</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>361</v>
+      </c>
+      <c r="B39" t="s">
+        <v>427</v>
+      </c>
+      <c r="F39" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr style="font-family: hmstd1y;font-size: 16px&gt;&lt;td&gt;hmstd1y&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="2"/>
+        <v>@font-face { font-family: hmstd1y;src:url(./HUSan/kor/hmstd1y.woff2) format('woff2');font-weight: normal;font-style: normal;}</v>
+      </c>
+      <c r="I39" t="str">
+        <f t="shared" si="1"/>
+        <v>dokkebi_han.py eng\hmstd1y.eng ! ! !</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>362</v>
+      </c>
+      <c r="B40" t="s">
+        <v>426</v>
+      </c>
+      <c r="C40" t="s">
+        <v>427</v>
+      </c>
+      <c r="F40" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr style="font-family: hmstd2;font-size: 16px&gt;&lt;td&gt;hmstd2&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="2"/>
+        <v>@font-face { font-family: hmstd2;src:url(./HUSan/kor/hmstd2.woff2) format('woff2');font-weight: normal;font-style: normal;}</v>
+      </c>
+      <c r="I40" t="str">
+        <f t="shared" si="1"/>
+        <v>dokkebi_han.py eng\hmstd2.eng ! ! !</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>364</v>
+      </c>
+      <c r="B41" t="s">
+        <v>469</v>
+      </c>
+      <c r="C41" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>396</v>
-      </c>
-      <c r="B29" t="s">
-        <v>509</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="F41" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr style="font-family: inbold;font-size: 16px&gt;&lt;td&gt;inbold&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="2"/>
+        <v>@font-face { font-family: inbold;src:url(./HUSan/kor/inbold.woff2) format('woff2');font-weight: normal;font-style: normal;}</v>
+      </c>
+      <c r="I41" t="str">
+        <f t="shared" si="1"/>
+        <v>dokkebi_han.py eng\inbold.eng ! ! !</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>365</v>
+      </c>
+      <c r="B42" t="s">
+        <v>546</v>
+      </c>
+      <c r="C42" t="s">
+        <v>285</v>
+      </c>
+      <c r="F42" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr style="font-family: iygggo;font-size: 16px&gt;&lt;td&gt;iygggo&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="2"/>
+        <v>@font-face { font-family: iygggo;src:url(./HUSan/kor/iygggo.woff2) format('woff2');font-weight: normal;font-style: normal;}</v>
+      </c>
+      <c r="I42" t="str">
+        <f t="shared" si="1"/>
+        <v>dokkebi_han.py eng\iygggo.eng ! ! !</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>366</v>
+      </c>
+      <c r="B43" t="s">
+        <v>547</v>
+      </c>
+      <c r="C43" t="s">
+        <v>285</v>
+      </c>
+      <c r="F43" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr style="font-family: iygjrom;font-size: 16px&gt;&lt;td&gt;iygjrom&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="2"/>
+        <v>@font-face { font-family: iygjrom;src:url(./HUSan/kor/iygjrom.woff2) format('woff2');font-weight: normal;font-style: normal;}</v>
+      </c>
+      <c r="I43" t="str">
+        <f t="shared" si="1"/>
+        <v>dokkebi_han.py eng\iygjrom.eng ! ! !</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>367</v>
+      </c>
+      <c r="B44" t="s">
+        <v>470</v>
+      </c>
+      <c r="C44" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>399</v>
-      </c>
-      <c r="B30" t="s">
-        <v>426</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="F44" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr style="font-family: little;font-size: 16px&gt;&lt;td&gt;little&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="2"/>
+        <v>@font-face { font-family: little;src:url(./HUSan/kor/little.woff2) format('woff2');font-weight: normal;font-style: normal;}</v>
+      </c>
+      <c r="I44" t="str">
+        <f t="shared" si="1"/>
+        <v>dokkebi_han.py eng\little.eng ! ! !</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>368</v>
+      </c>
+      <c r="B45" t="s">
+        <v>472</v>
+      </c>
+      <c r="C45" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>400</v>
-      </c>
-      <c r="B31" t="s">
-        <v>510</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="F45" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr style="font-family: middle;font-size: 16px&gt;&lt;td&gt;middle&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" si="2"/>
+        <v>@font-face { font-family: middle;src:url(./HUSan/kor/middle.woff2) format('woff2');font-weight: normal;font-style: normal;}</v>
+      </c>
+      <c r="I45" t="str">
+        <f t="shared" si="1"/>
+        <v>dokkebi_han.py eng\middle.eng ! ! !</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>369</v>
+      </c>
+      <c r="B46" t="s">
+        <v>471</v>
+      </c>
+      <c r="C46" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>401</v>
-      </c>
-      <c r="B32" t="s">
-        <v>511</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="F46" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr style="font-family: mini;font-size: 16px&gt;&lt;td&gt;mini&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="G46" t="str">
+        <f t="shared" si="2"/>
+        <v>@font-face { font-family: mini;src:url(./HUSan/kor/mini.woff2) format('woff2');font-weight: normal;font-style: normal;}</v>
+      </c>
+      <c r="I46" t="str">
+        <f t="shared" si="1"/>
+        <v>dokkebi_han.py eng\mini.eng ! ! !</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>370</v>
+      </c>
+      <c r="B47" t="s">
+        <v>403</v>
+      </c>
+      <c r="C47" t="s">
+        <v>402</v>
+      </c>
+      <c r="F47" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr style="font-family: mini1;font-size: 16px&gt;&lt;td&gt;mini1&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="G47" t="str">
+        <f t="shared" si="2"/>
+        <v>@font-face { font-family: mini1;src:url(./HUSan/kor/mini1.woff2) format('woff2');font-weight: normal;font-style: normal;}</v>
+      </c>
+      <c r="I47" t="str">
+        <f t="shared" si="1"/>
+        <v>dokkebi_han.py eng\mini1.eng ! ! !</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>371</v>
+      </c>
+      <c r="B48" t="s">
+        <v>548</v>
+      </c>
+      <c r="C48" t="s">
+        <v>549</v>
+      </c>
+      <c r="F48" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr style="font-family: mrol;font-size: 16px&gt;&lt;td&gt;mrol&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="G48" t="str">
+        <f t="shared" si="2"/>
+        <v>@font-face { font-family: mrol;src:url(./HUSan/kor/mrol.woff2) format('woff2');font-weight: normal;font-style: normal;}</v>
+      </c>
+      <c r="I48" t="str">
+        <f t="shared" si="1"/>
+        <v>dokkebi_han.py eng\mrol.eng ! ! !</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>372</v>
+      </c>
+      <c r="F49" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr style="font-family: normal;font-size: 16px&gt;&lt;td&gt;normal&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="G49" t="str">
+        <f t="shared" si="2"/>
+        <v>@font-face { font-family: normal;src:url(./HUSan/kor/normal.woff2) format('woff2');font-weight: normal;font-style: normal;}</v>
+      </c>
+      <c r="I49" t="str">
+        <f t="shared" si="1"/>
+        <v>dokkebi_han.py eng\normal.eng ! ! !</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>373</v>
+      </c>
+      <c r="B50" t="s">
+        <v>550</v>
+      </c>
+      <c r="C50" t="s">
+        <v>551</v>
+      </c>
+      <c r="F50" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr style="font-family: oak;font-size: 16px&gt;&lt;td&gt;oak&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="G50" t="str">
+        <f t="shared" si="2"/>
+        <v>@font-face { font-family: oak;src:url(./HUSan/kor/oak.woff2) format('woff2');font-weight: normal;font-style: normal;}</v>
+      </c>
+      <c r="I50" t="str">
+        <f t="shared" si="1"/>
+        <v>dokkebi_han.py eng\oak.eng ! ! !</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>374</v>
+      </c>
+      <c r="F51" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr style="font-family: robo;font-size: 16px&gt;&lt;td&gt;robo&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="G51" t="str">
+        <f t="shared" si="2"/>
+        <v>@font-face { font-family: robo;src:url(./HUSan/kor/robo.woff2) format('woff2');font-weight: normal;font-style: normal;}</v>
+      </c>
+      <c r="I51" t="str">
+        <f t="shared" si="1"/>
+        <v>dokkebi_han.py eng\robo.eng ! ! !</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>375</v>
+      </c>
+      <c r="F52" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr style="font-family: robo00;font-size: 16px&gt;&lt;td&gt;robo00&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="G52" t="str">
+        <f t="shared" si="2"/>
+        <v>@font-face { font-family: robo00;src:url(./HUSan/kor/robo00.woff2) format('woff2');font-weight: normal;font-style: normal;}</v>
+      </c>
+      <c r="I52" t="str">
+        <f t="shared" si="1"/>
+        <v>dokkebi_han.py eng\robo00.eng ! ! !</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>376</v>
+      </c>
+      <c r="B53" t="s">
+        <v>552</v>
+      </c>
+      <c r="C53" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+      <c r="F53" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr style="font-family: roman_l;font-size: 16px&gt;&lt;td&gt;roman_l&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="G53" t="str">
+        <f t="shared" si="2"/>
+        <v>@font-face { font-family: roman_l;src:url(./HUSan/kor/roman_l.woff2) format('woff2');font-weight: normal;font-style: normal;}</v>
+      </c>
+      <c r="I53" t="str">
+        <f t="shared" si="1"/>
+        <v>dokkebi_han.py eng\roman_l.eng ! ! !</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>377</v>
+      </c>
+      <c r="F54" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr style="font-family: ronr00;font-size: 16px&gt;&lt;td&gt;ronr00&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="G54" t="str">
+        <f t="shared" si="2"/>
+        <v>@font-face { font-family: ronr00;src:url(./HUSan/kor/ronr00.woff2) format('woff2');font-weight: normal;font-style: normal;}</v>
+      </c>
+      <c r="I54" t="str">
+        <f t="shared" si="1"/>
+        <v>dokkebi_han.py eng\ronr00.eng ! ! !</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>378</v>
+      </c>
+      <c r="F55" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr style="font-family: roth00;font-size: 16px&gt;&lt;td&gt;roth00&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="G55" t="str">
+        <f t="shared" si="2"/>
+        <v>@font-face { font-family: roth00;src:url(./HUSan/kor/roth00.woff2) format('woff2');font-weight: normal;font-style: normal;}</v>
+      </c>
+      <c r="I55" t="str">
+        <f t="shared" si="1"/>
+        <v>dokkebi_han.py eng\roth00.eng ! ! !</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>379</v>
+      </c>
+      <c r="B56" t="s">
+        <v>553</v>
+      </c>
+      <c r="C56" t="s">
+        <v>273</v>
+      </c>
+      <c r="F56" t="str">
+        <f t="shared" ref="F56:F70" si="3">"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;SUBSTITUTE(A56,".eng","")&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;SUBSTITUTE(A56,".eng","")&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr style="font-family: royal;font-size: 16px&gt;&lt;td&gt;royal&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="G56" t="str">
+        <f t="shared" si="2"/>
+        <v>@font-face { font-family: royal;src:url(./HUSan/kor/royal.woff2) format('woff2');font-weight: normal;font-style: normal;}</v>
+      </c>
+      <c r="I56" t="str">
+        <f t="shared" ref="I56:I70" si="4">"dokkebi_han.py eng\"&amp;A56&amp;" ! ! !"</f>
+        <v>dokkebi_han.py eng\royal.eng ! ! !</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>380</v>
+      </c>
+      <c r="B57" t="s">
+        <v>411</v>
+      </c>
+      <c r="C57" t="s">
+        <v>410</v>
+      </c>
+      <c r="F57" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;tr style="font-family: san;font-size: 16px&gt;&lt;td&gt;san&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="G57" t="str">
+        <f t="shared" ref="G57:G70" si="5">"@font-face { font-family: "&amp;SUBSTITUTE(A57,".eng","")&amp;";src:url(./HUSan/kor/"&amp;SUBSTITUTE(A57,".eng","")&amp;".woff2) format('woff2');font-weight: normal;font-style: normal;}"</f>
+        <v>@font-face { font-family: san;src:url(./HUSan/kor/san.woff2) format('woff2');font-weight: normal;font-style: normal;}</v>
+      </c>
+      <c r="I57" t="str">
+        <f t="shared" si="4"/>
+        <v>dokkebi_han.py eng\san.eng ! ! !</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>381</v>
+      </c>
+      <c r="B58" t="s">
+        <v>474</v>
+      </c>
+      <c r="C58" t="s">
+        <v>273</v>
+      </c>
+      <c r="F58" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;tr style="font-family: scr;font-size: 16px&gt;&lt;td&gt;scr&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="G58" t="str">
+        <f t="shared" si="5"/>
+        <v>@font-face { font-family: scr;src:url(./HUSan/kor/scr.woff2) format('woff2');font-weight: normal;font-style: normal;}</v>
+      </c>
+      <c r="I58" t="str">
+        <f t="shared" si="4"/>
+        <v>dokkebi_han.py eng\scr.eng ! ! !</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>382</v>
+      </c>
+      <c r="B59" t="s">
+        <v>473</v>
+      </c>
+      <c r="C59" t="s">
+        <v>273</v>
+      </c>
+      <c r="F59" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;tr style="font-family: scrbold;font-size: 16px&gt;&lt;td&gt;scrbold&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="G59" t="str">
+        <f t="shared" si="5"/>
+        <v>@font-face { font-family: scrbold;src:url(./HUSan/kor/scrbold.woff2) format('woff2');font-weight: normal;font-style: normal;}</v>
+      </c>
+      <c r="I59" t="str">
+        <f t="shared" si="4"/>
+        <v>dokkebi_han.py eng\scrbold.eng ! ! !</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>383</v>
+      </c>
+      <c r="B60" t="s">
+        <v>475</v>
+      </c>
+      <c r="C60" t="s">
+        <v>273</v>
+      </c>
+      <c r="F60" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;tr style="font-family: semirom;font-size: 16px&gt;&lt;td&gt;semirom&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="G60" t="str">
+        <f t="shared" si="5"/>
+        <v>@font-face { font-family: semirom;src:url(./HUSan/kor/semirom.woff2) format('woff2');font-weight: normal;font-style: normal;}</v>
+      </c>
+      <c r="I60" t="str">
+        <f t="shared" si="4"/>
+        <v>dokkebi_han.py eng\semirom.eng ! ! !</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>384</v>
+      </c>
+      <c r="B61" t="s">
+        <v>412</v>
+      </c>
+      <c r="C61" t="s">
+        <v>273</v>
+      </c>
+      <c r="F61" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;tr style="font-family: slant;font-size: 16px&gt;&lt;td&gt;slant&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="G61" t="str">
+        <f t="shared" si="5"/>
+        <v>@font-face { font-family: slant;src:url(./HUSan/kor/slant.woff2) format('woff2');font-weight: normal;font-style: normal;}</v>
+      </c>
+      <c r="I61" t="str">
+        <f t="shared" si="4"/>
+        <v>dokkebi_han.py eng\slant.eng ! ! !</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>385</v>
+      </c>
+      <c r="B62" t="s">
+        <v>404</v>
+      </c>
+      <c r="C62" t="s">
         <v>402</v>
       </c>
-      <c r="B33" t="s">
-        <v>512</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="F62" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;tr style="font-family: small;font-size: 16px&gt;&lt;td&gt;small&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="G62" t="str">
+        <f t="shared" si="5"/>
+        <v>@font-face { font-family: small;src:url(./HUSan/kor/small.woff2) format('woff2');font-weight: normal;font-style: normal;}</v>
+      </c>
+      <c r="I62" t="str">
+        <f t="shared" si="4"/>
+        <v>dokkebi_han.py eng\small.eng ! ! !</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>386</v>
+      </c>
+      <c r="B63" t="s">
+        <v>476</v>
+      </c>
+      <c r="C63" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>336</v>
-      </c>
-      <c r="B34" t="s">
-        <v>406</v>
-      </c>
-      <c r="C34" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>337</v>
-      </c>
-      <c r="B35" t="s">
-        <v>405</v>
-      </c>
-      <c r="C35" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>338</v>
-      </c>
-      <c r="B36" t="s">
-        <v>407</v>
-      </c>
-      <c r="C36" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>339</v>
-      </c>
-      <c r="B37" t="s">
-        <v>408</v>
-      </c>
-      <c r="C37" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>340</v>
-      </c>
-      <c r="B38" t="s">
-        <v>409</v>
-      </c>
-      <c r="C38" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>341</v>
-      </c>
-      <c r="B39" t="s">
-        <v>411</v>
-      </c>
-      <c r="C39" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>342</v>
-      </c>
-      <c r="B40" t="s">
-        <v>410</v>
-      </c>
-      <c r="C40" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>343</v>
-      </c>
-      <c r="B41" t="s">
-        <v>412</v>
-      </c>
-      <c r="C41" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>380</v>
-      </c>
-      <c r="B42" t="s">
-        <v>414</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="F63" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;tr style="font-family: sys;font-size: 16px&gt;&lt;td&gt;sys&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="G63" t="str">
+        <f t="shared" si="5"/>
+        <v>@font-face { font-family: sys;src:url(./HUSan/kor/sys.woff2) format('woff2');font-weight: normal;font-style: normal;}</v>
+      </c>
+      <c r="I63" t="str">
+        <f t="shared" si="4"/>
+        <v>dokkebi_han.py eng\sys.eng ! ! !</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>387</v>
+      </c>
+      <c r="B64" t="s">
+        <v>554</v>
+      </c>
+      <c r="C64" t="s">
+        <v>555</v>
+      </c>
+      <c r="F64" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;tr style="font-family: trident;font-size: 16px&gt;&lt;td&gt;trident&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="G64" t="str">
+        <f t="shared" si="5"/>
+        <v>@font-face { font-family: trident;src:url(./HUSan/kor/trident.woff2) format('woff2');font-weight: normal;font-style: normal;}</v>
+      </c>
+      <c r="I64" t="str">
+        <f t="shared" si="4"/>
+        <v>dokkebi_han.py eng\trident.eng ! ! !</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>388</v>
+      </c>
+      <c r="B65" t="s">
+        <v>557</v>
+      </c>
+      <c r="C65" t="s">
+        <v>556</v>
+      </c>
+      <c r="F65" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;tr style="font-family: tsenghi;font-size: 16px&gt;&lt;td&gt;tsenghi&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="G65" t="str">
+        <f t="shared" si="5"/>
+        <v>@font-face { font-family: tsenghi;src:url(./HUSan/kor/tsenghi.woff2) format('woff2');font-weight: normal;font-style: normal;}</v>
+      </c>
+      <c r="I65" t="str">
+        <f t="shared" si="4"/>
+        <v>dokkebi_han.py eng\tsenghi.eng ! ! !</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>389</v>
+      </c>
+      <c r="B66" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>395</v>
-      </c>
-      <c r="B43" t="s">
-        <v>415</v>
-      </c>
-      <c r="C43" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>329</v>
-      </c>
-      <c r="B44" t="s">
-        <v>418</v>
-      </c>
-      <c r="C44" t="s">
-        <v>420</v>
-      </c>
-      <c r="D44" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>328</v>
-      </c>
-      <c r="B45" t="s">
-        <v>417</v>
-      </c>
-      <c r="C45" t="s">
-        <v>419</v>
-      </c>
-      <c r="D45" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+      <c r="C66" t="s">
+        <v>273</v>
+      </c>
+      <c r="F66" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;tr style="font-family: utopia;font-size: 16px&gt;&lt;td&gt;utopia&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="G66" t="str">
+        <f t="shared" si="5"/>
+        <v>@font-face { font-family: utopia;src:url(./HUSan/kor/utopia.woff2) format('woff2');font-weight: normal;font-style: normal;}</v>
+      </c>
+      <c r="I66" t="str">
+        <f t="shared" si="4"/>
+        <v>dokkebi_han.py eng\utopia.eng ! ! !</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
         <v>390</v>
       </c>
-      <c r="B46" t="s">
-        <v>424</v>
-      </c>
-      <c r="C46" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>362</v>
-      </c>
-      <c r="B47" t="s">
-        <v>430</v>
-      </c>
-      <c r="C47" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>361</v>
-      </c>
-      <c r="B48" t="s">
-        <v>429</v>
-      </c>
-      <c r="C48" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>375</v>
-      </c>
-      <c r="B49" t="s">
-        <v>433</v>
-      </c>
-      <c r="C49" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>376</v>
-      </c>
-      <c r="B50" t="s">
-        <v>434</v>
-      </c>
-      <c r="C50" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>347</v>
-      </c>
-      <c r="B51" t="s">
-        <v>416</v>
-      </c>
-      <c r="C51" t="s">
-        <v>435</v>
-      </c>
-      <c r="D51" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>358</v>
-      </c>
-      <c r="B52" t="s">
-        <v>436</v>
-      </c>
-      <c r="C52" t="s">
-        <v>437</v>
-      </c>
-      <c r="D52" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>365</v>
-      </c>
-      <c r="B53" t="s">
-        <v>438</v>
-      </c>
-      <c r="C53" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>366</v>
-      </c>
-      <c r="B54" t="s">
-        <v>444</v>
-      </c>
-      <c r="C54" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>367</v>
-      </c>
-      <c r="B55" t="s">
-        <v>439</v>
-      </c>
-      <c r="C55" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>369</v>
-      </c>
-      <c r="B56" t="s">
-        <v>440</v>
-      </c>
-      <c r="C56" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>370</v>
-      </c>
-      <c r="B57" t="s">
-        <v>441</v>
-      </c>
-      <c r="C57" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>372</v>
-      </c>
-      <c r="B58" t="s">
-        <v>442</v>
-      </c>
-      <c r="C58" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>348</v>
-      </c>
-      <c r="D60" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>349</v>
-      </c>
-      <c r="D61" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>350</v>
-      </c>
-      <c r="D62" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>351</v>
-      </c>
-      <c r="D63" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>352</v>
-      </c>
-      <c r="D64" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>353</v>
-      </c>
-      <c r="D65" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>354</v>
-      </c>
-      <c r="D66" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>355</v>
-      </c>
-      <c r="D67" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
+        <v>477</v>
+      </c>
+      <c r="C67" t="s">
+        <v>273</v>
+      </c>
+      <c r="F67" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;tr style="font-family: xsmall;font-size: 16px&gt;&lt;td&gt;xsmall&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="G67" t="str">
+        <f t="shared" si="5"/>
+        <v>@font-face { font-family: xsmall;src:url(./HUSan/kor/xsmall.woff2) format('woff2');font-weight: normal;font-style: normal;}</v>
+      </c>
+      <c r="I67" t="str">
+        <f t="shared" si="4"/>
+        <v>dokkebi_han.py eng\xsmall.eng ! ! !</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>356</v>
-      </c>
-      <c r="D68" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+        <v>391</v>
+      </c>
+      <c r="B68" t="s">
+        <v>478</v>
+      </c>
+      <c r="C68" t="s">
+        <v>273</v>
+      </c>
+      <c r="F68" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;tr style="font-family: zeo;font-size: 16px&gt;&lt;td&gt;zeo&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="G68" t="str">
+        <f t="shared" si="5"/>
+        <v>@font-face { font-family: zeo;src:url(./HUSan/kor/zeo.woff2) format('woff2');font-weight: normal;font-style: normal;}</v>
+      </c>
+      <c r="I68" t="str">
+        <f t="shared" si="4"/>
+        <v>dokkebi_han.py eng\zeo.eng ! ! !</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>357</v>
-      </c>
-      <c r="D69" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>363</v>
-      </c>
-      <c r="B70" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>364</v>
-      </c>
-      <c r="B71" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>368</v>
-      </c>
-      <c r="B72" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>371</v>
-      </c>
-      <c r="B73" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>447</v>
-      </c>
-      <c r="B74" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>403</v>
+        <v>392</v>
+      </c>
+      <c r="B69" t="s">
+        <v>479</v>
+      </c>
+      <c r="C69" t="s">
+        <v>273</v>
+      </c>
+      <c r="F69" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;tr style="font-family: zorro;font-size: 16px&gt;&lt;td&gt;zorro&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="G69" t="str">
+        <f t="shared" si="5"/>
+        <v>@font-face { font-family: zorro;src:url(./HUSan/kor/zorro.woff2) format('woff2');font-weight: normal;font-style: normal;}</v>
+      </c>
+      <c r="I69" t="str">
+        <f t="shared" si="4"/>
+        <v>dokkebi_han.py eng\zorro.eng ! ! !</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F70" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;tr style="font-family: ;font-size: 16px&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="G70" t="str">
+        <f t="shared" si="5"/>
+        <v>@font-face { font-family: ;src:url(./HUSan/kor/.woff2) format('woff2');font-weight: normal;font-style: normal;}</v>
+      </c>
+      <c r="I70" t="str">
+        <f t="shared" si="4"/>
+        <v>dokkebi_han.py eng\ ! ! !</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:D81">
-    <sortCondition ref="C1:C81"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:I71">
+    <sortCondition ref="A1:A71"/>
   </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7766,10 +8466,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>519</v>
+        <v>486</v>
       </c>
       <c r="B1" t="s">
-        <v>443</v>
+        <v>427</v>
       </c>
       <c r="C1" t="s">
         <v>306</v>
@@ -7777,7 +8477,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>520</v>
+        <v>487</v>
       </c>
       <c r="B2" t="s">
         <v>286</v>
@@ -7788,21 +8488,21 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>521</v>
+        <v>488</v>
       </c>
       <c r="B3" t="s">
-        <v>529</v>
+        <v>496</v>
       </c>
       <c r="C3" t="s">
-        <v>537</v>
+        <v>504</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="B4" t="s">
-        <v>532</v>
+        <v>499</v>
       </c>
       <c r="C4" t="s">
         <v>273</v>
@@ -7810,10 +8510,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>523</v>
+        <v>490</v>
       </c>
       <c r="B5" t="s">
-        <v>533</v>
+        <v>500</v>
       </c>
       <c r="C5" t="s">
         <v>273</v>
@@ -7821,10 +8521,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>524</v>
+        <v>491</v>
       </c>
       <c r="B6" t="s">
-        <v>534</v>
+        <v>501</v>
       </c>
       <c r="C6" t="s">
         <v>273</v>
@@ -7832,21 +8532,21 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>525</v>
+        <v>492</v>
       </c>
       <c r="B7" t="s">
-        <v>531</v>
+        <v>498</v>
       </c>
       <c r="C7" t="s">
-        <v>531</v>
+        <v>498</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>526</v>
+        <v>493</v>
       </c>
       <c r="B8" t="s">
-        <v>535</v>
+        <v>502</v>
       </c>
       <c r="C8" t="s">
         <v>273</v>
@@ -7854,21 +8554,21 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>527</v>
+        <v>494</v>
       </c>
       <c r="B9" t="s">
-        <v>530</v>
+        <v>497</v>
       </c>
       <c r="C9" t="s">
-        <v>538</v>
+        <v>505</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>528</v>
+        <v>495</v>
       </c>
       <c r="B10" t="s">
-        <v>536</v>
+        <v>503</v>
       </c>
       <c r="C10" t="s">
         <v>273</v>
@@ -7892,72 +8592,72 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>539</v>
+        <v>506</v>
       </c>
       <c r="B1" t="s">
-        <v>554</v>
+        <v>521</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>540</v>
+        <v>507</v>
       </c>
       <c r="B2" t="s">
-        <v>555</v>
+        <v>522</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>541</v>
+        <v>508</v>
       </c>
       <c r="B3" t="s">
-        <v>556</v>
+        <v>523</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>542</v>
+        <v>509</v>
       </c>
       <c r="B4" t="s">
-        <v>567</v>
+        <v>534</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>543</v>
+        <v>510</v>
       </c>
       <c r="B5" t="s">
-        <v>568</v>
+        <v>535</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>544</v>
+        <v>511</v>
       </c>
       <c r="B6" t="s">
-        <v>561</v>
+        <v>528</v>
       </c>
       <c r="C6" t="s">
-        <v>562</v>
+        <v>529</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>545</v>
+        <v>512</v>
       </c>
       <c r="B7" t="s">
-        <v>443</v>
+        <v>427</v>
       </c>
       <c r="C7" t="s">
         <v>306</v>
       </c>
       <c r="F7" t="s">
-        <v>575</v>
+        <v>542</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>546</v>
+        <v>513</v>
       </c>
       <c r="B8" t="s">
         <v>286</v>
@@ -7968,59 +8668,59 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>547</v>
+        <v>514</v>
       </c>
       <c r="B9" t="s">
-        <v>559</v>
+        <v>526</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>548</v>
+        <v>515</v>
       </c>
       <c r="B10" t="s">
-        <v>557</v>
+        <v>524</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>549</v>
+        <v>516</v>
       </c>
       <c r="B11" t="s">
-        <v>560</v>
+        <v>527</v>
       </c>
       <c r="F11" t="s">
-        <v>574</v>
+        <v>541</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>550</v>
+        <v>517</v>
       </c>
       <c r="B12" t="s">
-        <v>564</v>
+        <v>531</v>
       </c>
       <c r="C12" t="s">
-        <v>565</v>
+        <v>532</v>
       </c>
       <c r="F12" t="s">
-        <v>572</v>
+        <v>539</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
       <c r="B13" t="s">
-        <v>558</v>
+        <v>525</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>552</v>
+        <v>519</v>
       </c>
       <c r="B14" t="s">
-        <v>563</v>
+        <v>530</v>
       </c>
       <c r="C14" t="s">
         <v>222</v>
@@ -8028,13 +8728,13 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>553</v>
+        <v>520</v>
       </c>
       <c r="B15" t="s">
-        <v>566</v>
+        <v>533</v>
       </c>
       <c r="F15" t="s">
-        <v>573</v>
+        <v>540</v>
       </c>
     </row>
   </sheetData>

--- a/HITEL/list.xlsx
+++ b/HITEL/list.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\Silhoua_font\HITEL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\Viola15_font\HITEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3377DE25-BFF9-4422-8554-F98893E7A6E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D2C2433-1123-43BD-B7C7-E14FC1033D04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16170" yWindow="675" windowWidth="14550" windowHeight="19725" activeTab="1" xr2:uid="{ECBBBA91-6ACC-4411-8119-0B98102DD867}"/>
+    <workbookView xWindow="13050" yWindow="4215" windowWidth="14040" windowHeight="11385" activeTab="1" xr2:uid="{ECBBBA91-6ACC-4411-8119-0B98102DD867}"/>
   </bookViews>
   <sheets>
     <sheet name="한글" sheetId="1" r:id="rId1"/>
@@ -6843,10 +6843,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ACA197D-65FC-4B4A-A9D8-85379C7E3E11}">
-  <dimension ref="A1:I70"/>
+  <dimension ref="A1:I69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="C61" workbookViewId="0">
+      <selection activeCell="C70" sqref="A70:XFD70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8428,20 +8428,6 @@
       <c r="I69" t="str">
         <f t="shared" si="4"/>
         <v>dokkebi_han.py eng\zorro.eng ! ! !</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F70" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;tr style="font-family: ;font-size: 16px&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-      <c r="G70" t="str">
-        <f t="shared" si="5"/>
-        <v>@font-face { font-family: ;src:url(./HUSan/kor/.woff2) format('woff2');font-weight: normal;font-style: normal;}</v>
-      </c>
-      <c r="I70" t="str">
-        <f t="shared" si="4"/>
-        <v>dokkebi_han.py eng\ ! ! !</v>
       </c>
     </row>
   </sheetData>

--- a/HITEL/list.xlsx
+++ b/HITEL/list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\Viola15_font\HITEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9416CAA9-484E-42F7-B11F-348B7E4C5002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AADD9D3-F257-401C-BABE-15E785486521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{ECBBBA91-6ACC-4411-8119-0B98102DD867}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="573">
   <si>
     <t>Han1.han</t>
   </si>
@@ -2119,6 +2119,14 @@
   </si>
   <si>
     <t>임시이름(중복)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ascxx</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>불명</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2556,8 +2564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7EE061E-4DF6-4129-B2C9-943A90EE26B5}">
   <dimension ref="A1:M156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8240,10 +8248,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ACA197D-65FC-4B4A-A9D8-85379C7E3E11}">
-  <dimension ref="A1:I69"/>
+  <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9825,6 +9833,17 @@
       <c r="I69" t="str">
         <f t="shared" si="4"/>
         <v>dokkebi_han.py eng\zorro.eng ! ! !</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>571</v>
+      </c>
+      <c r="B70" t="s">
+        <v>571</v>
+      </c>
+      <c r="C70" t="s">
+        <v>572</v>
       </c>
     </row>
   </sheetData>

--- a/HITEL/list.xlsx
+++ b/HITEL/list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\Viola15_font\HITEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AADD9D3-F257-401C-BABE-15E785486521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA061BB2-3F8C-499C-AB0B-40BF2DCA5D16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{ECBBBA91-6ACC-4411-8119-0B98102DD867}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="573">
   <si>
     <t>Han1.han</t>
   </si>
@@ -2241,7 +2241,27 @@
     <cellStyle name="좋음" xfId="1" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2564,8 +2584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7EE061E-4DF6-4129-B2C9-943A90EE26B5}">
   <dimension ref="A1:M156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="D80" sqref="D80"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="D133" sqref="D133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7556,691 +7576,802 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB1FA3D1-FE62-4D08-A993-FB58677ACD1D}">
-  <dimension ref="A1:A134"/>
+  <dimension ref="A1:A156"/>
   <sheetViews>
-    <sheetView topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="A100" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.25" customWidth="1"/>
+    <col min="1" max="1" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>148</v>
+        <v>480</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>149</v>
+        <v>481</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>142</v>
+        <v>476</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>88</v>
+        <v>477</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>143</v>
+        <v>478</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>147</v>
+        <v>479</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>145</v>
+        <v>398</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>150</v>
+        <v>482</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>408</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>410</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>411</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>409</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>412</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>415</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>416</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>164</v>
+        <v>531</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>159</v>
+        <v>527</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>161</v>
+        <v>528</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>162</v>
+        <v>529</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>171</v>
+        <v>541</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>166</v>
+        <v>533</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>112</v>
+        <v>534</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>156</v>
+        <v>524</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>122</v>
+        <v>535</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>123</v>
+        <v>536</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>124</v>
+        <v>537</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>170</v>
+        <v>540</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>169</v>
+        <v>539</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>167</v>
+        <v>538</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>163</v>
+        <v>530</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>165</v>
+        <v>532</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>157</v>
+        <v>525</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>158</v>
+        <v>526</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>151</v>
+        <v>490</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>133</v>
+        <v>547</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>138</v>
+        <v>542</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>139</v>
+        <v>543</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>145</v>
+        <v>548</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>146</v>
+        <v>567</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>544</v>
+        <v>566</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>296</v>
+        <v>485</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>115</v>
+        <v>486</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>487</v>
+        <v>421</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>37</v>
+        <v>420</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>38</v>
+        <v>422</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>42</v>
+        <v>423</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>40</v>
+        <v>424</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>47</v>
+        <v>425</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>41</v>
+        <v>426</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>48</v>
+        <v>427</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>46</v>
+        <v>428</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>43</v>
+        <v>429</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>49</v>
+        <v>430</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>44</v>
+        <v>431</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>45</v>
+        <v>432</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>51</v>
+        <v>433</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>39</v>
+        <v>434</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>50</v>
+        <v>435</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>53</v>
+        <v>399</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>55</v>
+        <v>550</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>293</v>
+        <v>438</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>118</v>
+        <v>549</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>172</v>
+        <v>555</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>121</v>
+        <v>557</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>127</v>
+        <v>558</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>128</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>129</v>
+        <v>439</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>62</v>
+        <v>442</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>63</v>
+        <v>443</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>65</v>
+        <v>445</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>68</v>
+        <v>446</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>69</v>
+        <v>444</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>131</v>
+        <v>403</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>406</v>
+        <v>523</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>132</v>
+        <v>447</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>70</v>
+        <v>448</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>72</v>
+        <v>449</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>73</v>
+        <v>450</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>74</v>
+        <v>452</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>77</v>
+        <v>451</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>76</v>
+        <v>559</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>134</v>
+        <v>561</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>113</v>
+        <v>560</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>31</v>
+        <v>562</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>135</v>
+        <v>563</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>140</v>
+        <v>564</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>141</v>
+        <v>453</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>78</v>
+        <v>455</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>80</v>
+        <v>457</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>82</v>
+        <v>456</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>81</v>
+        <v>462</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>35</v>
+        <v>463</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>83</v>
+        <v>467</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>86</v>
+        <v>470</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>120</v>
+        <v>568</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>89</v>
+        <v>494</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>93</v>
+        <v>495</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>91</v>
+        <v>496</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>92</v>
+        <v>499</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>94</v>
+        <v>500</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>152</v>
+        <v>503</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>154</v>
+        <v>502</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>295</v>
+        <v>501</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>153</v>
+        <v>507</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>101</v>
+        <v>505</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>98</v>
+        <v>514</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>105</v>
+        <v>517</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>109</v>
+        <v>522</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>111</v>
+        <v>518</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>106</v>
+        <v>506</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>100</v>
+        <v>516</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>108</v>
+        <v>504</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>96</v>
+        <v>512</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>103</v>
+        <v>521</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>110</v>
+        <v>508</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>102</v>
+        <v>513</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>104</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/HITEL/list.xlsx
+++ b/HITEL/list.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\Viola15_font\HITEL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\Silhoua_font\HITEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA061BB2-3F8C-499C-AB0B-40BF2DCA5D16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4228ACCF-22BD-42EE-8D4E-CA28F9EA0FBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{ECBBBA91-6ACC-4411-8119-0B98102DD867}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{ECBBBA91-6ACC-4411-8119-0B98102DD867}"/>
   </bookViews>
   <sheets>
     <sheet name="한글" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="spc" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">한글!$C$1:$E$156</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">한글!$A$1:$M$156</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1337" uniqueCount="575">
   <si>
     <t>Han1.han</t>
   </si>
@@ -1346,14 +1346,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>san.ksg</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>hm.spc</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>명조같은 느낌</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1370,10 +1362,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>yun.ksg</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">Eart    </t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -2127,6 +2115,25 @@
   </si>
   <si>
     <t>불명</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad24_10.eng</t>
+  </si>
+  <si>
+    <t>!</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PED.KSG</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mini.eng</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2241,17 +2248,7 @@
     <cellStyle name="좋음" xfId="1" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2584,8 +2581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7EE061E-4DF6-4129-B2C9-943A90EE26B5}">
   <dimension ref="A1:M156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="D133" sqref="D133"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="F73" sqref="F73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2602,8 +2599,8 @@
         <v>300</v>
       </c>
       <c r="B1" t="str">
-        <f t="shared" ref="B1" si="0">"dokkebi_han.py eng\"&amp;F1&amp;" han\"&amp;D1&amp;" ksg\"&amp;I1&amp;" spc\"&amp;L1</f>
-        <v>dokkebi_han.py eng\영어폰트 han\한글폰트 ksg\KSG spc\</v>
+        <f t="shared" ref="B1:B64" si="0">"dokkebi_han.py eng\"&amp;F1&amp;" han\"&amp;D1&amp;" ksg\"&amp;I1&amp;" spc\"&amp;L1</f>
+        <v>dokkebi_han.py eng\영어폰트 han\한글폰트 ksg\KSG spc\SPC</v>
       </c>
       <c r="C1" t="s">
         <v>298</v>
@@ -2620,21 +2617,27 @@
       <c r="I1" t="s">
         <v>376</v>
       </c>
+      <c r="L1" t="s">
+        <v>572</v>
+      </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B2" t="str">
-        <f>"dokkebi_han.py ! han\"&amp;D2&amp;" ! ! "&amp;C2</f>
-        <v>dokkebi_han.py ! han\GMBO00.han ! ! 굵은장식고딕체</v>
+        <f t="shared" ref="B2:B65" si="1">"dokkebi_han.py eng\"&amp;F2&amp;" han\"&amp;D2&amp;" ksg\"&amp;I2&amp;" spc\"&amp;L2&amp;" "&amp;C2</f>
+        <v>dokkebi_han.py eng\! han\GMBO00.han ksg\! spc\! 굵은장식고딕체</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>148</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>144</v>
       </c>
+      <c r="F2" t="s">
+        <v>571</v>
+      </c>
       <c r="G2" t="e">
         <f>VLOOKUP(F2,영어!A:C,2,FALSE)</f>
         <v>#N/A</v>
@@ -2644,10 +2647,10 @@
         <v>#N/A</v>
       </c>
       <c r="I2" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L2" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M2" t="str">
         <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C2&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C2&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E2&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -2656,18 +2659,21 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B64" si="1">"dokkebi_han.py ! han\"&amp;D3&amp;" ! ! "&amp;C3</f>
-        <v>dokkebi_han.py ! han\GMTH00.han ! ! 가는장식고딕체</v>
+        <f t="shared" si="1"/>
+        <v>dokkebi_han.py eng\! han\GMTH00.han ksg\! spc\! 가는장식고딕체</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>149</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>87</v>
       </c>
+      <c r="F3" t="s">
+        <v>571</v>
+      </c>
       <c r="G3" t="e">
         <f>VLOOKUP(F3,영어!A:C,2,FALSE)</f>
         <v>#N/A</v>
@@ -2677,10 +2683,10 @@
         <v>#N/A</v>
       </c>
       <c r="I3" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L3" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M3" t="str">
         <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C3&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C3&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E3&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -2690,17 +2696,20 @@
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B4" t="str">
         <f t="shared" si="1"/>
-        <v>dokkebi_han.py ! han\GOBO00.han ! ! 굵은고딕체</v>
+        <v>dokkebi_han.py eng\! han\GOBO00.han ksg\! spc\! 굵은고딕체</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>142</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>87</v>
       </c>
+      <c r="F4" t="s">
+        <v>571</v>
+      </c>
       <c r="G4" t="e">
         <f>VLOOKUP(F4,영어!A:C,2,FALSE)</f>
         <v>#N/A</v>
@@ -2710,30 +2719,33 @@
         <v>#N/A</v>
       </c>
       <c r="I4" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L4" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M4" t="str">
-        <f t="shared" ref="M4:M67" si="2">"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C4&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C4&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E4&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C4&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C4&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E4&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
         <v>&lt;tr style="font-family: 굵은고딕체;font-size: 16px&gt;&lt;td&gt;굵은고딕체&lt;/td&gt;&lt;td&gt;TESTCOMM&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B5" t="str">
         <f t="shared" si="1"/>
-        <v>dokkebi_han.py ! han\GOBO03.han ! ! 굵은둥근고딕체</v>
+        <v>dokkebi_han.py eng\! han\GOBO03.han ksg\! spc\! 굵은둥근고딕체</v>
       </c>
       <c r="C5" t="s">
         <v>88</v>
       </c>
       <c r="D5" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="E5" t="s">
         <v>87</v>
       </c>
+      <c r="F5" t="s">
+        <v>571</v>
+      </c>
       <c r="G5" t="e">
         <f>VLOOKUP(F5,영어!A:C,2,FALSE)</f>
         <v>#N/A</v>
@@ -2743,30 +2755,33 @@
         <v>#N/A</v>
       </c>
       <c r="I5" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L5" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M5" t="str">
-        <f t="shared" si="2"/>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C5&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C5&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E5&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
         <v>&lt;tr style="font-family: 굵은둥근고딕체;font-size: 16px&gt;&lt;td&gt;굵은둥근고딕체&lt;/td&gt;&lt;td&gt;TESTCOMM&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B6" t="str">
         <f t="shared" si="1"/>
-        <v>dokkebi_han.py ! han\GOTH00.han ! ! 가는고딕체</v>
+        <v>dokkebi_han.py eng\! han\GOTH00.han ksg\! spc\! 가는고딕체</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>143</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>144</v>
       </c>
+      <c r="F6" t="s">
+        <v>571</v>
+      </c>
       <c r="G6" t="e">
         <f>VLOOKUP(F6,영어!A:C,2,FALSE)</f>
         <v>#N/A</v>
@@ -2776,30 +2791,33 @@
         <v>#N/A</v>
       </c>
       <c r="I6" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L6" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M6" t="str">
-        <f t="shared" si="2"/>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C6&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C6&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E6&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
         <v>&lt;tr style="font-family: 가는고딕체;font-size: 16px&gt;&lt;td&gt;가는고딕체&lt;/td&gt;&lt;td&gt;TESTCOMM&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B7" t="str">
         <f t="shared" si="1"/>
-        <v>dokkebi_han.py ! han\MYNR00.han ! ! 반명조체</v>
+        <v>dokkebi_han.py eng\! han\MYNR00.han ksg\! spc\! 반명조체</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>147</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>144</v>
       </c>
+      <c r="F7" t="s">
+        <v>571</v>
+      </c>
       <c r="G7" t="e">
         <f>VLOOKUP(F7,영어!A:C,2,FALSE)</f>
         <v>#N/A</v>
@@ -2809,30 +2827,33 @@
         <v>#N/A</v>
       </c>
       <c r="I7" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L7" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M7" t="str">
-        <f t="shared" si="2"/>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C7&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C7&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E7&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
         <v>&lt;tr style="font-family: 반명조체;font-size: 16px&gt;&lt;td&gt;반명조체&lt;/td&gt;&lt;td&gt;TESTCOMM&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B8" t="str">
         <f t="shared" si="1"/>
-        <v>dokkebi_han.py ! han\NORMAL.han ! ! 보통체</v>
+        <v>dokkebi_han.py eng\! han\NORMAL.han ksg\! spc\! 보통체</v>
       </c>
       <c r="C8" t="s">
         <v>145</v>
       </c>
       <c r="D8" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="E8" t="s">
         <v>144</v>
       </c>
+      <c r="F8" t="s">
+        <v>571</v>
+      </c>
       <c r="G8" t="e">
         <f>VLOOKUP(F8,영어!A:C,2,FALSE)</f>
         <v>#N/A</v>
@@ -2842,30 +2863,33 @@
         <v>#N/A</v>
       </c>
       <c r="I8" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L8" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M8" t="str">
-        <f t="shared" si="2"/>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C8&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C8&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E8&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
         <v>&lt;tr style="font-family: 보통체;font-size: 16px&gt;&lt;td&gt;보통체&lt;/td&gt;&lt;td&gt;TESTCOMM&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B9" t="str">
         <f t="shared" si="1"/>
-        <v>dokkebi_han.py ! han\SABO00.han ! ! 굵은샘물체</v>
+        <v>dokkebi_han.py eng\! han\SABO00.han ksg\! spc\! 굵은샘물체</v>
       </c>
       <c r="C9" t="s">
         <v>150</v>
       </c>
       <c r="D9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="E9" t="s">
         <v>144</v>
       </c>
+      <c r="F9" t="s">
+        <v>571</v>
+      </c>
       <c r="G9" t="e">
         <f>VLOOKUP(F9,영어!A:C,2,FALSE)</f>
         <v>#N/A</v>
@@ -2875,30 +2899,33 @@
         <v>#N/A</v>
       </c>
       <c r="I9" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L9" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M9" t="str">
-        <f t="shared" si="2"/>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C9&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C9&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E9&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
         <v>&lt;tr style="font-family: 굵은샘물체;font-size: 16px&gt;&lt;td&gt;굵은샘물체&lt;/td&gt;&lt;td&gt;TESTCOMM&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B10" t="str">
         <f t="shared" si="1"/>
-        <v>dokkebi_han.py ! han\SATH00.han ! ! 가는샘물체</v>
+        <v>dokkebi_han.py eng\! han\SATH00.han ksg\! spc\! 가는샘물체</v>
       </c>
       <c r="C10" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D10" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="E10" t="s">
         <v>144</v>
       </c>
+      <c r="F10" t="s">
+        <v>571</v>
+      </c>
       <c r="G10" t="e">
         <f>VLOOKUP(F10,영어!A:C,2,FALSE)</f>
         <v>#N/A</v>
@@ -2908,32 +2935,32 @@
         <v>#N/A</v>
       </c>
       <c r="I10" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L10" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M10" t="str">
-        <f t="shared" si="2"/>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C10&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C10&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E10&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
         <v>&lt;tr style="font-family: 가는샘물체;font-size: 16px&gt;&lt;td&gt;가는샘물체&lt;/td&gt;&lt;td&gt;TESTCOMM&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>418</v>
-      </c>
       <c r="B11" t="str">
         <f t="shared" si="1"/>
-        <v>dokkebi_han.py ! han\APPLE00.han ! ! 이병도사과체</v>
-      </c>
-      <c r="C11" t="s">
-        <v>475</v>
-      </c>
-      <c r="D11" t="s">
-        <v>474</v>
-      </c>
-      <c r="E11" t="s">
-        <v>473</v>
+        <v>dokkebi_han.py eng\! han\NORMAL2.han ksg\! spc\! 보통체2</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F11" t="s">
+        <v>571</v>
       </c>
       <c r="G11" t="e">
         <f>VLOOKUP(F11,영어!A:C,2,FALSE)</f>
@@ -2944,29 +2971,35 @@
         <v>#N/A</v>
       </c>
       <c r="I11" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L11" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M11" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;tr style="font-family: 이병도사과체;font-size: 16px&gt;&lt;td&gt;이병도사과체&lt;/td&gt;&lt;td&gt;TESTCOMM, 이병도&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C11&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C11&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E11&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr style="font-family: 보통체2;font-size: 16px&gt;&lt;td&gt;보통체2&lt;/td&gt;&lt;td&gt;TESTCOMM&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>415</v>
+      </c>
       <c r="B12" t="str">
         <f t="shared" si="1"/>
-        <v>dokkebi_han.py ! han\PED.han ! ! 강명조체</v>
+        <v>dokkebi_han.py eng\! han\APPLE00.han ksg\! spc\! 이병도사과체</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>472</v>
       </c>
       <c r="D12" t="s">
-        <v>408</v>
+        <v>471</v>
       </c>
       <c r="E12" t="s">
-        <v>407</v>
+        <v>470</v>
+      </c>
+      <c r="F12" t="s">
+        <v>571</v>
       </c>
       <c r="G12" t="e">
         <f>VLOOKUP(F12,영어!A:C,2,FALSE)</f>
@@ -2977,29 +3010,32 @@
         <v>#N/A</v>
       </c>
       <c r="I12" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L12" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M12" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;tr style="font-family: 강명조체;font-size: 16px&gt;&lt;td&gt;강명조체&lt;/td&gt;&lt;td&gt;강에디터/박호용&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C12&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C12&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E12&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr style="font-family: 이병도사과체;font-size: 16px&gt;&lt;td&gt;이병도사과체&lt;/td&gt;&lt;td&gt;TESTCOMM, 이병도&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B13" t="str">
-        <f t="shared" si="1"/>
-        <v>dokkebi_han.py ! han\HANFROG.han ! ! 청개구리체</v>
+        <f>"dokkebi_han.py eng\"&amp;F13&amp;" han\"&amp;D13&amp;" ksg\"&amp;I13&amp;" spc\"&amp;L13&amp;" "&amp;C13</f>
+        <v>dokkebi_han.py eng\! han\PED.han ksg\PED.KSG spc\! 강명조체</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="E13" t="s">
-        <v>26</v>
+        <v>404</v>
+      </c>
+      <c r="F13" t="s">
+        <v>571</v>
       </c>
       <c r="G13" t="e">
         <f>VLOOKUP(F13,영어!A:C,2,FALSE)</f>
@@ -3010,30 +3046,33 @@
         <v>#N/A</v>
       </c>
       <c r="I13" t="s">
-        <v>329</v>
+        <v>573</v>
       </c>
       <c r="L13" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M13" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;tr style="font-family: 청개구리체;font-size: 16px&gt;&lt;td&gt;청개구리체&lt;/td&gt;&lt;td&gt;곽택종&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C13&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C13&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E13&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr style="font-family: 강명조체;font-size: 16px&gt;&lt;td&gt;강명조체&lt;/td&gt;&lt;td&gt;강에디터/박호용&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B14" t="str">
         <f t="shared" si="1"/>
-        <v>dokkebi_han.py ! han\HANKDR.han ! ! 키다리체</v>
+        <v>dokkebi_han.py eng\! han\HANFROG.han ksg\! spc\! 청개구리체</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="E14" t="s">
         <v>26</v>
       </c>
+      <c r="F14" t="s">
+        <v>571</v>
+      </c>
       <c r="G14" t="e">
         <f>VLOOKUP(F14,영어!A:C,2,FALSE)</f>
         <v>#N/A</v>
@@ -3043,30 +3082,33 @@
         <v>#N/A</v>
       </c>
       <c r="I14" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L14" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M14" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;tr style="font-family: 키다리체;font-size: 16px&gt;&lt;td&gt;키다리체&lt;/td&gt;&lt;td&gt;곽택종&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C14&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C14&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E14&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr style="font-family: 청개구리체;font-size: 16px&gt;&lt;td&gt;청개구리체&lt;/td&gt;&lt;td&gt;곽택종&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B15" t="str">
         <f t="shared" si="1"/>
-        <v>dokkebi_han.py ! han\HANSHY.han ! ! 수줍음체</v>
+        <v>dokkebi_han.py eng\! han\HANKDR.han ksg\! spc\! 키다리체</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D15" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E15" t="s">
         <v>26</v>
       </c>
+      <c r="F15" t="s">
+        <v>571</v>
+      </c>
       <c r="G15" t="e">
         <f>VLOOKUP(F15,영어!A:C,2,FALSE)</f>
         <v>#N/A</v>
@@ -3076,29 +3118,32 @@
         <v>#N/A</v>
       </c>
       <c r="I15" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L15" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M15" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;tr style="font-family: 수줍음체;font-size: 16px&gt;&lt;td&gt;수줍음체&lt;/td&gt;&lt;td&gt;곽택종&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C15&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C15&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E15&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr style="font-family: 키다리체;font-size: 16px&gt;&lt;td&gt;키다리체&lt;/td&gt;&lt;td&gt;곽택종&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B16" t="str">
         <f t="shared" si="1"/>
-        <v>dokkebi_han.py ! han\HANHO.han ! ! 빨래체</v>
+        <v>dokkebi_han.py eng\! han\HANSHY.han ksg\! spc\! 수줍음체</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="E16" t="s">
-        <v>30</v>
+        <v>26</v>
+      </c>
+      <c r="F16" t="s">
+        <v>571</v>
       </c>
       <c r="G16" t="e">
         <f>VLOOKUP(F16,영어!A:C,2,FALSE)</f>
@@ -3109,30 +3154,33 @@
         <v>#N/A</v>
       </c>
       <c r="I16" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L16" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M16" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;tr style="font-family: 빨래체;font-size: 16px&gt;&lt;td&gt;빨래체&lt;/td&gt;&lt;td&gt;김기정&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C16&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C16&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E16&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr style="font-family: 수줍음체;font-size: 16px&gt;&lt;td&gt;수줍음체&lt;/td&gt;&lt;td&gt;곽택종&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B17" t="str">
         <f t="shared" si="1"/>
-        <v>dokkebi_han.py ! han\HANJS1.han ! ! 전서체</v>
+        <v>dokkebi_han.py eng\! han\HANHO.han ksg\! spc\! 빨래체</v>
       </c>
       <c r="C17" t="s">
-        <v>413</v>
+        <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="E17" t="s">
         <v>30</v>
       </c>
+      <c r="F17" t="s">
+        <v>571</v>
+      </c>
       <c r="G17" t="e">
         <f>VLOOKUP(F17,영어!A:C,2,FALSE)</f>
         <v>#N/A</v>
@@ -3142,29 +3190,32 @@
         <v>#N/A</v>
       </c>
       <c r="I17" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L17" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M17" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;tr style="font-family: 전서체;font-size: 16px&gt;&lt;td&gt;전서체&lt;/td&gt;&lt;td&gt;김기정&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C17&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C17&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E17&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr style="font-family: 빨래체;font-size: 16px&gt;&lt;td&gt;빨래체&lt;/td&gt;&lt;td&gt;김기정&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B18" t="str">
         <f t="shared" si="1"/>
-        <v>dokkebi_han.py ! han\HANCH.han ! ! 흘림체</v>
+        <v>dokkebi_han.py eng\! han\HANJS1.han ksg\! spc\! 전서체</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>410</v>
       </c>
       <c r="D18" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="E18" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="F18" t="s">
+        <v>571</v>
       </c>
       <c r="G18" t="e">
         <f>VLOOKUP(F18,영어!A:C,2,FALSE)</f>
@@ -3175,29 +3226,32 @@
         <v>#N/A</v>
       </c>
       <c r="I18" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L18" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M18" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;tr style="font-family: 흘림체;font-size: 16px&gt;&lt;td&gt;흘림체&lt;/td&gt;&lt;td&gt;김수구&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C18&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C18&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E18&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr style="font-family: 전서체;font-size: 16px&gt;&lt;td&gt;전서체&lt;/td&gt;&lt;td&gt;김기정&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B19" t="str">
         <f t="shared" si="1"/>
-        <v>dokkebi_han.py ! han\HPADO.han ! ! 파도체</v>
+        <v>dokkebi_han.py eng\! han\HANCH.han ksg\! spc\! 흘림체</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D19" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="E19" t="s">
-        <v>34</v>
+        <v>32</v>
+      </c>
+      <c r="F19" t="s">
+        <v>571</v>
       </c>
       <c r="G19" t="e">
         <f>VLOOKUP(F19,영어!A:C,2,FALSE)</f>
@@ -3208,32 +3262,32 @@
         <v>#N/A</v>
       </c>
       <c r="I19" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L19" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M19" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;tr style="font-family: 파도체;font-size: 16px&gt;&lt;td&gt;파도체&lt;/td&gt;&lt;td&gt;김영석&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C19&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C19&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E19&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr style="font-family: 흘림체;font-size: 16px&gt;&lt;td&gt;흘림체&lt;/td&gt;&lt;td&gt;김수구&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>418</v>
-      </c>
       <c r="B20" t="str">
         <f t="shared" si="1"/>
-        <v>dokkebi_han.py ! han\HANKYH.han ! ! 김영화체</v>
+        <v>dokkebi_han.py eng\! han\HPADO.han ksg\! spc\! 파도체</v>
       </c>
       <c r="C20" t="s">
-        <v>417</v>
+        <v>33</v>
       </c>
       <c r="D20" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="E20" t="s">
-        <v>36</v>
+        <v>34</v>
+      </c>
+      <c r="F20" t="s">
+        <v>571</v>
       </c>
       <c r="G20" t="e">
         <f>VLOOKUP(F20,영어!A:C,2,FALSE)</f>
@@ -3244,102 +3298,111 @@
         <v>#N/A</v>
       </c>
       <c r="I20" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L20" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M20" t="str">
-        <f t="shared" si="2"/>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C20&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C20&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E20&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr style="font-family: 파도체;font-size: 16px&gt;&lt;td&gt;파도체&lt;/td&gt;&lt;td&gt;김영석&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="B21" t="str">
+        <f t="shared" si="1"/>
+        <v>dokkebi_han.py eng\! han\HANKYH.han ksg\! spc\! 김영화체</v>
+      </c>
+      <c r="C21" t="s">
+        <v>414</v>
+      </c>
+      <c r="D21" t="s">
+        <v>416</v>
+      </c>
+      <c r="E21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" t="s">
+        <v>571</v>
+      </c>
+      <c r="G21" t="e">
+        <f>VLOOKUP(F21,영어!A:C,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H21" t="e">
+        <f>VLOOKUP(F21,영어!A:C,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I21" t="s">
+        <v>571</v>
+      </c>
+      <c r="L21" t="s">
+        <v>571</v>
+      </c>
+      <c r="M21" t="str">
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C21&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C21&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E21&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
         <v>&lt;tr style="font-family: 김영화체;font-size: 16px&gt;&lt;td&gt;김영화체&lt;/td&gt;&lt;td&gt;김영화&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B21" t="str">
-        <f t="shared" si="1"/>
-        <v>dokkebi_han.py ! han\AD24.han ! ! 서기2400체</v>
-      </c>
-      <c r="C21" s="1" t="s">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B22" t="str">
+        <f t="shared" si="1"/>
+        <v>dokkebi_han.py eng\ad24_10.eng han\AD24.han ksg\! spc\! 서기2400체</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F21" t="s">
-        <v>175</v>
-      </c>
-      <c r="G21" t="str">
-        <f>VLOOKUP(F21,영어!A:C,2,FALSE)</f>
-        <v xml:space="preserve">AD 2400 </v>
-      </c>
-      <c r="H21" t="str">
-        <f>VLOOKUP(F21,영어!A:C,3,FALSE)</f>
-        <v>김윤수</v>
-      </c>
-      <c r="I21" t="s">
-        <v>383</v>
-      </c>
-      <c r="L21" t="s">
-        <v>358</v>
-      </c>
-      <c r="M21" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;tr style="font-family: 서기2400체;font-size: 16px&gt;&lt;td&gt;서기2400체&lt;/td&gt;&lt;td&gt;김윤수&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>160</v>
-      </c>
-      <c r="B22" t="str">
-        <f t="shared" si="1"/>
-        <v>dokkebi_han.py ! han\DALLY.han ! ! 달리만듦체</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>159</v>
-      </c>
       <c r="D22" s="1" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="G22" t="e">
+      <c r="F22" t="s">
+        <v>570</v>
+      </c>
+      <c r="G22" t="str">
         <f>VLOOKUP(F22,영어!A:C,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H22" t="e">
+        <v>AD 2400.10</v>
+      </c>
+      <c r="H22" t="str">
         <f>VLOOKUP(F22,영어!A:C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>김윤수</v>
       </c>
       <c r="I22" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L22" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M22" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;tr style="font-family: 달리만듦체;font-size: 16px&gt;&lt;td&gt;달리만듦체&lt;/td&gt;&lt;td&gt;김윤수&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C22&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C22&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E22&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr style="font-family: 서기2400체;font-size: 16px&gt;&lt;td&gt;서기2400체&lt;/td&gt;&lt;td&gt;김윤수&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>160</v>
+      </c>
       <c r="B23" t="str">
         <f t="shared" si="1"/>
-        <v>dokkebi_han.py ! han\DINARU.han ! ! 디나루체</v>
+        <v>dokkebi_han.py eng\! han\DALLY.han ksg\! spc\! 달리만듦체</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>125</v>
       </c>
+      <c r="F23" t="s">
+        <v>571</v>
+      </c>
       <c r="G23" t="e">
         <f>VLOOKUP(F23,영어!A:C,2,FALSE)</f>
         <v>#N/A</v>
@@ -3349,33 +3412,33 @@
         <v>#N/A</v>
       </c>
       <c r="I23" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L23" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M23" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;tr style="font-family: 디나루체;font-size: 16px&gt;&lt;td&gt;디나루체&lt;/td&gt;&lt;td&gt;김윤수&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C23&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C23&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E23&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr style="font-family: 달리만듦체;font-size: 16px&gt;&lt;td&gt;달리만듦체&lt;/td&gt;&lt;td&gt;김윤수&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>294</v>
-      </c>
       <c r="B24" t="str">
         <f t="shared" si="1"/>
-        <v>dokkebi_han.py ! han\HAN.han ! ! 명조체</v>
+        <v>dokkebi_han.py eng\! han\DINARU.han ksg\! spc\! 디나루체</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>125</v>
       </c>
+      <c r="F24" t="s">
+        <v>571</v>
+      </c>
       <c r="G24" t="e">
         <f>VLOOKUP(F24,영어!A:C,2,FALSE)</f>
         <v>#N/A</v>
@@ -3385,30 +3448,36 @@
         <v>#N/A</v>
       </c>
       <c r="I24" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L24" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M24" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;tr style="font-family: 명조체;font-size: 16px&gt;&lt;td&gt;명조체&lt;/td&gt;&lt;td&gt;김윤수&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C24&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C24&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E24&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr style="font-family: 디나루체;font-size: 16px&gt;&lt;td&gt;디나루체&lt;/td&gt;&lt;td&gt;김윤수&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>294</v>
+      </c>
       <c r="B25" t="str">
         <f t="shared" si="1"/>
-        <v>dokkebi_han.py ! han\LOW.han ! ! 키작은체</v>
+        <v>dokkebi_han.py eng\! han\HAN.han ksg\! spc\! 명조체</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>541</v>
+        <v>526</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>125</v>
       </c>
+      <c r="F25" t="s">
+        <v>571</v>
+      </c>
       <c r="G25" t="e">
         <f>VLOOKUP(F25,영어!A:C,2,FALSE)</f>
         <v>#N/A</v>
@@ -3418,30 +3487,33 @@
         <v>#N/A</v>
       </c>
       <c r="I25" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L25" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M25" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;tr style="font-family: 키작은체;font-size: 16px&gt;&lt;td&gt;키작은체&lt;/td&gt;&lt;td&gt;김윤수&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C25&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C25&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E25&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr style="font-family: 명조체;font-size: 16px&gt;&lt;td&gt;명조체&lt;/td&gt;&lt;td&gt;김윤수&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B26" t="str">
         <f t="shared" si="1"/>
-        <v>dokkebi_han.py ! han\MIDDLE.han ! ! 중간고딕체</v>
+        <v>dokkebi_han.py eng\! han\LOW.han ksg\! spc\! 키작은체</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>125</v>
       </c>
+      <c r="F26" t="s">
+        <v>571</v>
+      </c>
       <c r="G26" t="e">
         <f>VLOOKUP(F26,영어!A:C,2,FALSE)</f>
         <v>#N/A</v>
@@ -3451,29 +3523,32 @@
         <v>#N/A</v>
       </c>
       <c r="I26" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L26" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M26" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;tr style="font-family: 중간고딕체;font-size: 16px&gt;&lt;td&gt;중간고딕체&lt;/td&gt;&lt;td&gt;김윤수&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C26&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C26&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E26&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr style="font-family: 키작은체;font-size: 16px&gt;&lt;td&gt;키작은체&lt;/td&gt;&lt;td&gt;김윤수&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B27" t="str">
         <f t="shared" si="1"/>
-        <v>dokkebi_han.py ! han\MIDDLE2.han ! ! 중간고딕체2</v>
-      </c>
-      <c r="C27" t="s">
-        <v>112</v>
-      </c>
-      <c r="D27" t="s">
-        <v>534</v>
-      </c>
-      <c r="E27" t="s">
+        <v>dokkebi_han.py eng\! han\MIDDLE.han ksg\! spc\! 중간고딕체</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>125</v>
+      </c>
+      <c r="F27" t="s">
+        <v>571</v>
       </c>
       <c r="G27" t="e">
         <f>VLOOKUP(F27,영어!A:C,2,FALSE)</f>
@@ -3484,29 +3559,32 @@
         <v>#N/A</v>
       </c>
       <c r="I27" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L27" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M27" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;tr style="font-family: 중간고딕체2;font-size: 16px&gt;&lt;td&gt;중간고딕체2&lt;/td&gt;&lt;td&gt;김윤수&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C27&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C27&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E27&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr style="font-family: 중간고딕체;font-size: 16px&gt;&lt;td&gt;중간고딕체&lt;/td&gt;&lt;td&gt;김윤수&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B28" t="str">
         <f t="shared" si="1"/>
-        <v>dokkebi_han.py ! han\MINI.han ! ! 꼬마체</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="E28" s="1" t="s">
+        <v>dokkebi_han.py eng\! han\MIDDLE2.han ksg\! spc\! 중간고딕체2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>112</v>
+      </c>
+      <c r="D28" t="s">
+        <v>531</v>
+      </c>
+      <c r="E28" t="s">
         <v>125</v>
+      </c>
+      <c r="F28" t="s">
+        <v>571</v>
       </c>
       <c r="G28" t="e">
         <f>VLOOKUP(F28,영어!A:C,2,FALSE)</f>
@@ -3517,64 +3595,70 @@
         <v>#N/A</v>
       </c>
       <c r="I28" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L28" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M28" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;tr style="font-family: 꼬마체;font-size: 16px&gt;&lt;td&gt;꼬마체&lt;/td&gt;&lt;td&gt;김윤수&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C28&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C28&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E28&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr style="font-family: 중간고딕체2;font-size: 16px&gt;&lt;td&gt;중간고딕체2&lt;/td&gt;&lt;td&gt;김윤수&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
       <c r="B29" t="str">
         <f t="shared" si="1"/>
-        <v>dokkebi_han.py ! han\PANBON.han ! ! 신판본체</v>
+        <v>dokkebi_han.py eng\mini.eng han\MINI.han ksg\! spc\! 꼬마체</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>122</v>
+        <v>156</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="G29" t="e">
+      <c r="F29" t="s">
+        <v>574</v>
+      </c>
+      <c r="G29" t="str">
         <f>VLOOKUP(F29,영어!A:C,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H29" t="e">
+        <v>Mini</v>
+      </c>
+      <c r="H29" t="str">
         <f>VLOOKUP(F29,영어!A:C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>김윤수</v>
       </c>
       <c r="I29" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L29" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M29" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;tr style="font-family: 신판본체;font-size: 16px&gt;&lt;td&gt;신판본체&lt;/td&gt;&lt;td&gt;김윤수&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C29&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C29&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E29&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr style="font-family: 꼬마체;font-size: 16px&gt;&lt;td&gt;꼬마체&lt;/td&gt;&lt;td&gt;김윤수&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
       <c r="B30" t="str">
         <f t="shared" si="1"/>
-        <v>dokkebi_han.py ! han\PANBON2.han ! ! 신판본체2</v>
+        <v>dokkebi_han.py eng\! han\PANBON.han ksg\! spc\! 신판본체</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>125</v>
       </c>
+      <c r="F30" t="s">
+        <v>571</v>
+      </c>
       <c r="G30" t="e">
         <f>VLOOKUP(F30,영어!A:C,2,FALSE)</f>
         <v>#N/A</v>
@@ -3584,30 +3668,33 @@
         <v>#N/A</v>
       </c>
       <c r="I30" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L30" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M30" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;tr style="font-family: 신판본체2;font-size: 16px&gt;&lt;td&gt;신판본체2&lt;/td&gt;&lt;td&gt;김윤수&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C30&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C30&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E30&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr style="font-family: 신판본체;font-size: 16px&gt;&lt;td&gt;신판본체&lt;/td&gt;&lt;td&gt;김윤수&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B31" t="str">
         <f t="shared" si="1"/>
-        <v>dokkebi_han.py ! han\PANBON3.han ! ! 신판본체3</v>
+        <v>dokkebi_han.py eng\! han\PANBON2.han ksg\! spc\! 신판본체2</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>125</v>
       </c>
+      <c r="F31" t="s">
+        <v>571</v>
+      </c>
       <c r="G31" t="e">
         <f>VLOOKUP(F31,영어!A:C,2,FALSE)</f>
         <v>#N/A</v>
@@ -3617,30 +3704,33 @@
         <v>#N/A</v>
       </c>
       <c r="I31" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L31" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M31" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;tr style="font-family: 신판본체3;font-size: 16px&gt;&lt;td&gt;신판본체3&lt;/td&gt;&lt;td&gt;김윤수&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C31&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C31&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E31&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr style="font-family: 신판본체2;font-size: 16px&gt;&lt;td&gt;신판본체2&lt;/td&gt;&lt;td&gt;김윤수&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B32" t="str">
         <f t="shared" si="1"/>
-        <v>dokkebi_han.py ! han\PAUL.han ! ! 폴체</v>
+        <v>dokkebi_han.py eng\! han\PANBON3.han ksg\! spc\! 신판본체3</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>170</v>
+        <v>124</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>125</v>
       </c>
+      <c r="F32" t="s">
+        <v>571</v>
+      </c>
       <c r="G32" t="e">
         <f>VLOOKUP(F32,영어!A:C,2,FALSE)</f>
         <v>#N/A</v>
@@ -3650,30 +3740,33 @@
         <v>#N/A</v>
       </c>
       <c r="I32" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L32" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M32" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;tr style="font-family: 폴체;font-size: 16px&gt;&lt;td&gt;폴체&lt;/td&gt;&lt;td&gt;김윤수&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C32&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C32&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E32&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr style="font-family: 신판본체3;font-size: 16px&gt;&lt;td&gt;신판본체3&lt;/td&gt;&lt;td&gt;김윤수&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B33" t="str">
         <f t="shared" si="1"/>
-        <v>dokkebi_han.py ! han\PAULUS.han ! ! 파울루스체</v>
+        <v>dokkebi_han.py eng\! han\PAUL.han ksg\! spc\! 폴체</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>125</v>
       </c>
+      <c r="F33" t="s">
+        <v>571</v>
+      </c>
       <c r="G33" t="e">
         <f>VLOOKUP(F33,영어!A:C,2,FALSE)</f>
         <v>#N/A</v>
@@ -3683,33 +3776,33 @@
         <v>#N/A</v>
       </c>
       <c r="I33" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L33" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M33" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;tr style="font-family: 파울루스체;font-size: 16px&gt;&lt;td&gt;파울루스체&lt;/td&gt;&lt;td&gt;김윤수&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C33&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C33&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E33&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr style="font-family: 폴체;font-size: 16px&gt;&lt;td&gt;폴체&lt;/td&gt;&lt;td&gt;김윤수&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>168</v>
-      </c>
       <c r="B34" t="str">
         <f t="shared" si="1"/>
-        <v>dokkebi_han.py ! han\PC.han ! ! PC체</v>
+        <v>dokkebi_han.py eng\! han\PAULUS.han ksg\! spc\! 파울루스체</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>125</v>
       </c>
+      <c r="F34" t="s">
+        <v>571</v>
+      </c>
       <c r="G34" t="e">
         <f>VLOOKUP(F34,영어!A:C,2,FALSE)</f>
         <v>#N/A</v>
@@ -3719,29 +3812,35 @@
         <v>#N/A</v>
       </c>
       <c r="I34" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L34" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M34" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;tr style="font-family: PC체;font-size: 16px&gt;&lt;td&gt;PC체&lt;/td&gt;&lt;td&gt;김윤수&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C34&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C34&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E34&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr style="font-family: 파울루스체;font-size: 16px&gt;&lt;td&gt;파울루스체&lt;/td&gt;&lt;td&gt;김윤수&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>168</v>
+      </c>
       <c r="B35" t="str">
         <f t="shared" si="1"/>
-        <v>dokkebi_han.py ! han\SAMM.han ! ! 샘명조체</v>
-      </c>
-      <c r="C35" t="s">
-        <v>163</v>
-      </c>
-      <c r="D35" t="s">
-        <v>530</v>
-      </c>
-      <c r="E35" t="s">
+        <v>dokkebi_han.py eng\! han\PC.han ksg\! spc\! PC체</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>125</v>
+      </c>
+      <c r="F35" t="s">
+        <v>571</v>
       </c>
       <c r="G35" t="e">
         <f>VLOOKUP(F35,영어!A:C,2,FALSE)</f>
@@ -3752,29 +3851,32 @@
         <v>#N/A</v>
       </c>
       <c r="I35" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L35" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M35" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;tr style="font-family: 샘명조체;font-size: 16px&gt;&lt;td&gt;샘명조체&lt;/td&gt;&lt;td&gt;김윤수&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C35&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C35&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E35&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr style="font-family: PC체;font-size: 16px&gt;&lt;td&gt;PC체&lt;/td&gt;&lt;td&gt;김윤수&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B36" t="str">
         <f t="shared" si="1"/>
-        <v>dokkebi_han.py ! han\SLANT.han ! ! 스러짐체</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="E36" s="1" t="s">
+        <v>dokkebi_han.py eng\! han\SAMM.han ksg\! spc\! 샘명조체</v>
+      </c>
+      <c r="C36" t="s">
+        <v>163</v>
+      </c>
+      <c r="D36" t="s">
+        <v>527</v>
+      </c>
+      <c r="E36" t="s">
         <v>125</v>
+      </c>
+      <c r="F36" t="s">
+        <v>571</v>
       </c>
       <c r="G36" t="e">
         <f>VLOOKUP(F36,영어!A:C,2,FALSE)</f>
@@ -3785,63 +3887,69 @@
         <v>#N/A</v>
       </c>
       <c r="I36" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L36" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M36" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;tr style="font-family: 스러짐체;font-size: 16px&gt;&lt;td&gt;스러짐체&lt;/td&gt;&lt;td&gt;김윤수&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C36&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C36&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E36&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr style="font-family: 샘명조체;font-size: 16px&gt;&lt;td&gt;샘명조체&lt;/td&gt;&lt;td&gt;김윤수&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B37" t="str">
         <f t="shared" si="1"/>
-        <v>dokkebi_han.py ! han\SLEEP.han ! ! 기울임체</v>
+        <v>dokkebi_han.py eng\slant.eng han\SLANT.han ksg\! spc\! 스러짐체</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="G37" t="e">
+      <c r="F37" t="s">
+        <v>232</v>
+      </c>
+      <c r="G37" t="str">
         <f>VLOOKUP(F37,영어!A:C,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H37" t="e">
+        <v>Slant</v>
+      </c>
+      <c r="H37" t="str">
         <f>VLOOKUP(F37,영어!A:C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>김윤수</v>
       </c>
       <c r="I37" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L37" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M37" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;tr style="font-family: 기울임체;font-size: 16px&gt;&lt;td&gt;기울임체&lt;/td&gt;&lt;td&gt;김윤수&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C37&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C37&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E37&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr style="font-family: 스러짐체;font-size: 16px&gt;&lt;td&gt;스러짐체&lt;/td&gt;&lt;td&gt;김윤수&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B38" t="str">
         <f t="shared" si="1"/>
-        <v>dokkebi_han.py ! han\SLEEP2.han ! ! 기울임체2</v>
+        <v>dokkebi_han.py eng\! han\SLEEP.han ksg\! spc\! 기울임체</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>125</v>
       </c>
+      <c r="F38" t="s">
+        <v>571</v>
+      </c>
       <c r="G38" t="e">
         <f>VLOOKUP(F38,영어!A:C,2,FALSE)</f>
         <v>#N/A</v>
@@ -3851,29 +3959,32 @@
         <v>#N/A</v>
       </c>
       <c r="I38" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L38" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M38" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;tr style="font-family: 기울임체2;font-size: 16px&gt;&lt;td&gt;기울임체2&lt;/td&gt;&lt;td&gt;김윤수&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C38&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C38&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E38&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr style="font-family: 기울임체;font-size: 16px&gt;&lt;td&gt;기울임체&lt;/td&gt;&lt;td&gt;김윤수&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B39" t="str">
         <f t="shared" si="1"/>
-        <v>dokkebi_han.py ! han\GAM.han ! ! 장식고딕체</v>
+        <v>dokkebi_han.py eng\! han\SLEEP2.han ksg\! spc\! 기울임체2</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>490</v>
+        <v>523</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>491</v>
+        <v>125</v>
+      </c>
+      <c r="F39" t="s">
+        <v>571</v>
       </c>
       <c r="G39" t="e">
         <f>VLOOKUP(F39,영어!A:C,2,FALSE)</f>
@@ -3884,30 +3995,33 @@
         <v>#N/A</v>
       </c>
       <c r="I39" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L39" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M39" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;tr style="font-family: 장식고딕체;font-size: 16px&gt;&lt;td&gt;장식고딕체&lt;/td&gt;&lt;td&gt;김윤수(굵은장식고딕체 기반)&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C39&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C39&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E39&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr style="font-family: 기울임체2;font-size: 16px&gt;&lt;td&gt;기울임체2&lt;/td&gt;&lt;td&gt;김윤수&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B40" t="str">
         <f t="shared" si="1"/>
-        <v>dokkebi_han.py ! han\HANPL2.han ! ! 손글씨체</v>
+        <v>dokkebi_han.py eng\! han\HANPL2.han ksg\! spc\! 손글씨체</v>
       </c>
       <c r="C40" t="s">
         <v>133</v>
       </c>
       <c r="D40" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>125</v>
       </c>
+      <c r="F40" t="s">
+        <v>571</v>
+      </c>
       <c r="G40" t="e">
         <f>VLOOKUP(F40,영어!A:C,2,FALSE)</f>
         <v>#N/A</v>
@@ -3917,29 +4031,32 @@
         <v>#N/A</v>
       </c>
       <c r="I40" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L40" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M40" t="str">
-        <f t="shared" si="2"/>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C40&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C40&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E40&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
         <v>&lt;tr style="font-family: 손글씨체;font-size: 16px&gt;&lt;td&gt;손글씨체&lt;/td&gt;&lt;td&gt;김윤수&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B41" t="str">
         <f t="shared" si="1"/>
-        <v>dokkebi_han.py ! han\HANPL.han ! ! 필기체</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>546</v>
+        <v>dokkebi_han.py eng\! han\IYG2.han ksg\! spc\! 이야기굵은체2</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>539</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>488</v>
+        <v>125</v>
+      </c>
+      <c r="F41" t="s">
+        <v>571</v>
       </c>
       <c r="G41" t="e">
         <f>VLOOKUP(F41,영어!A:C,2,FALSE)</f>
@@ -3950,30 +4067,33 @@
         <v>#N/A</v>
       </c>
       <c r="I41" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L41" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M41" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;tr style="font-family: 필기체;font-size: 16px&gt;&lt;td&gt;필기체&lt;/td&gt;&lt;td&gt;불명&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C41&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C41&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E41&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr style="font-family: 이야기굵은체2;font-size: 16px&gt;&lt;td&gt;이야기굵은체2&lt;/td&gt;&lt;td&gt;김윤수&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B42" t="str">
         <f t="shared" si="1"/>
-        <v>dokkebi_han.py ! han\IYG2.han ! ! 이야기굵은체2</v>
+        <v>dokkebi_han.py eng\! han\IYG_Y.han ksg\! spc\! 이야기굵은체3</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>125</v>
       </c>
+      <c r="F42" t="s">
+        <v>571</v>
+      </c>
       <c r="G42" t="e">
         <f>VLOOKUP(F42,영어!A:C,2,FALSE)</f>
         <v>#N/A</v>
@@ -3983,29 +4103,32 @@
         <v>#N/A</v>
       </c>
       <c r="I42" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L42" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M42" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;tr style="font-family: 이야기굵은체2;font-size: 16px&gt;&lt;td&gt;이야기굵은체2&lt;/td&gt;&lt;td&gt;김윤수&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C42&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C42&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E42&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr style="font-family: 이야기굵은체3;font-size: 16px&gt;&lt;td&gt;이야기굵은체3&lt;/td&gt;&lt;td&gt;김윤수&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B43" t="str">
         <f t="shared" si="1"/>
-        <v>dokkebi_han.py ! han\IYG_Y.han ! ! 이야기굵은체3</v>
+        <v>dokkebi_han.py eng\! han\GAM.han ksg\! spc\! 장식고딕체</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>543</v>
+        <v>487</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>125</v>
+        <v>488</v>
+      </c>
+      <c r="F43" t="s">
+        <v>571</v>
       </c>
       <c r="G43" t="e">
         <f>VLOOKUP(F43,영어!A:C,2,FALSE)</f>
@@ -4016,29 +4139,35 @@
         <v>#N/A</v>
       </c>
       <c r="I43" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L43" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M43" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;tr style="font-family: 이야기굵은체3;font-size: 16px&gt;&lt;td&gt;이야기굵은체3&lt;/td&gt;&lt;td&gt;김윤수&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C43&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C43&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E43&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr style="font-family: 장식고딕체;font-size: 16px&gt;&lt;td&gt;장식고딕체&lt;/td&gt;&lt;td&gt;김윤수(굵은장식고딕체 기반)&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>117</v>
+      </c>
       <c r="B44" t="str">
         <f t="shared" si="1"/>
-        <v>dokkebi_han.py ! han\NORMAL2.han ! ! 보통체2</v>
+        <v>dokkebi_han.py eng\! han\KIC2.han ksg\! spc\! 김인철체2</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>146</v>
+        <v>484</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>548</v>
+        <v>483</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>87</v>
+        <v>486</v>
+      </c>
+      <c r="F44" t="s">
+        <v>571</v>
       </c>
       <c r="G44" t="e">
         <f>VLOOKUP(F44,영어!A:C,2,FALSE)</f>
@@ -4049,29 +4178,32 @@
         <v>#N/A</v>
       </c>
       <c r="I44" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L44" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M44" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;tr style="font-family: 보통체2;font-size: 16px&gt;&lt;td&gt;보통체2&lt;/td&gt;&lt;td&gt;TESTCOMM&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C44&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C44&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E44&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr style="font-family: 김인철체2;font-size: 16px&gt;&lt;td&gt;김인철체2&lt;/td&gt;&lt;td&gt;김윤수(김인철체기반)&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B45" t="str">
         <f t="shared" si="1"/>
-        <v>dokkebi_han.py ! han\CSWP.han ! ! 포항공대</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>544</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>567</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>488</v>
+        <v>dokkebi_han.py eng\! han\HANKBC2.han ksg\! spc\! 도깨비디나루3</v>
+      </c>
+      <c r="C45" t="s">
+        <v>293</v>
+      </c>
+      <c r="D45" t="s">
+        <v>547</v>
+      </c>
+      <c r="E45" t="s">
+        <v>548</v>
+      </c>
+      <c r="F45" t="s">
+        <v>571</v>
       </c>
       <c r="G45" t="e">
         <f>VLOOKUP(F45,영어!A:C,2,FALSE)</f>
@@ -4082,29 +4214,32 @@
         <v>#N/A</v>
       </c>
       <c r="I45" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L45" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M45" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;tr style="font-family: 포항공대;font-size: 16px&gt;&lt;td&gt;포항공대&lt;/td&gt;&lt;td&gt;불명&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C45&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C45&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E45&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr style="font-family: 도깨비디나루3;font-size: 16px&gt;&lt;td&gt;도깨비디나루3&lt;/td&gt;&lt;td&gt;김윤수(도깨비디나루 변형)&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B46" t="str">
         <f t="shared" si="1"/>
-        <v>dokkebi_han.py ! han\HANSOFT.han ! ! 부드러운</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>566</v>
+        <v>dokkebi_han.py eng\! han\TBPIL2.han ksg\! spc\! 태백필기체2</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>549</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>488</v>
+        <v>550</v>
+      </c>
+      <c r="F46" t="s">
+        <v>571</v>
       </c>
       <c r="G46" t="e">
         <f>VLOOKUP(F46,영어!A:C,2,FALSE)</f>
@@ -4115,32 +4250,32 @@
         <v>#N/A</v>
       </c>
       <c r="I46" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L46" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M46" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;tr style="font-family: 부드러운;font-size: 16px&gt;&lt;td&gt;부드러운&lt;/td&gt;&lt;td&gt;불명&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C46&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C46&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E46&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr style="font-family: 태백필기체2;font-size: 16px&gt;&lt;td&gt;태백필기체2&lt;/td&gt;&lt;td&gt;김윤수(태백필기체 변형)&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>116</v>
-      </c>
       <c r="B47" t="str">
         <f t="shared" si="1"/>
-        <v>dokkebi_han.py ! han\KIC.han ! ! 김인철체</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>488</v>
+        <v>dokkebi_han.py eng\! han\H01.han ksg\! spc\! 굵은달꼴</v>
+      </c>
+      <c r="C47" t="s">
+        <v>37</v>
+      </c>
+      <c r="D47" t="s">
+        <v>418</v>
+      </c>
+      <c r="E47" t="s">
+        <v>52</v>
+      </c>
+      <c r="F47" t="s">
+        <v>571</v>
       </c>
       <c r="G47" t="e">
         <f>VLOOKUP(F47,영어!A:C,2,FALSE)</f>
@@ -4151,32 +4286,32 @@
         <v>#N/A</v>
       </c>
       <c r="I47" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L47" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M47" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;tr style="font-family: 김인철체;font-size: 16px&gt;&lt;td&gt;김인철체&lt;/td&gt;&lt;td&gt;불명&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C47&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C47&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E47&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr style="font-family: 굵은달꼴;font-size: 16px&gt;&lt;td&gt;굵은달꼴&lt;/td&gt;&lt;td&gt;김중태&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>117</v>
-      </c>
       <c r="B48" t="str">
         <f t="shared" si="1"/>
-        <v>dokkebi_han.py ! han\KIC2.han ! ! 김인철체2</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>489</v>
+        <v>dokkebi_han.py eng\! han\H02.han ksg\! spc\! 가는달꼴</v>
+      </c>
+      <c r="C48" t="s">
+        <v>38</v>
+      </c>
+      <c r="D48" t="s">
+        <v>417</v>
+      </c>
+      <c r="E48" t="s">
+        <v>52</v>
+      </c>
+      <c r="F48" t="s">
+        <v>571</v>
       </c>
       <c r="G48" t="e">
         <f>VLOOKUP(F48,영어!A:C,2,FALSE)</f>
@@ -4187,30 +4322,33 @@
         <v>#N/A</v>
       </c>
       <c r="I48" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L48" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M48" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;tr style="font-family: 김인철체2;font-size: 16px&gt;&lt;td&gt;김인철체2&lt;/td&gt;&lt;td&gt;김윤수(김인철체기반)&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C48&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C48&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E48&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr style="font-family: 가는달꼴;font-size: 16px&gt;&lt;td&gt;가는달꼴&lt;/td&gt;&lt;td&gt;김중태&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B49" t="str">
         <f t="shared" si="1"/>
-        <v>dokkebi_han.py ! han\H01.han ! ! 굵은달꼴</v>
+        <v>dokkebi_han.py eng\! han\H03.han ksg\! spc\! 버금달꼴</v>
       </c>
       <c r="C49" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D49" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E49" t="s">
         <v>52</v>
       </c>
+      <c r="F49" t="s">
+        <v>571</v>
+      </c>
       <c r="G49" t="e">
         <f>VLOOKUP(F49,영어!A:C,2,FALSE)</f>
         <v>#N/A</v>
@@ -4220,23 +4358,23 @@
         <v>#N/A</v>
       </c>
       <c r="I49" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L49" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M49" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;tr style="font-family: 굵은달꼴;font-size: 16px&gt;&lt;td&gt;굵은달꼴&lt;/td&gt;&lt;td&gt;김중태&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C49&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C49&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E49&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr style="font-family: 버금달꼴;font-size: 16px&gt;&lt;td&gt;버금달꼴&lt;/td&gt;&lt;td&gt;김중태&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B50" t="str">
         <f t="shared" si="1"/>
-        <v>dokkebi_han.py ! han\H02.han ! ! 가는달꼴</v>
+        <v>dokkebi_han.py eng\e2.eng han\H04.han ksg\! spc\! 둥근모꼴</v>
       </c>
       <c r="C50" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D50" t="s">
         <v>420</v>
@@ -4244,108 +4382,117 @@
       <c r="E50" t="s">
         <v>52</v>
       </c>
-      <c r="G50" t="e">
+      <c r="F50" t="s">
+        <v>185</v>
+      </c>
+      <c r="G50" t="str">
         <f>VLOOKUP(F50,영어!A:C,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H50" t="e">
+        <v>영문둥근모꼴</v>
+      </c>
+      <c r="H50" t="str">
         <f>VLOOKUP(F50,영어!A:C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>김중태</v>
       </c>
       <c r="I50" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L50" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M50" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;tr style="font-family: 가는달꼴;font-size: 16px&gt;&lt;td&gt;가는달꼴&lt;/td&gt;&lt;td&gt;김중태&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C50&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C50&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E50&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr style="font-family: 둥근모꼴;font-size: 16px&gt;&lt;td&gt;둥근모꼴&lt;/td&gt;&lt;td&gt;김중태&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B51" t="str">
         <f t="shared" si="1"/>
-        <v>dokkebi_han.py ! han\H03.han ! ! 버금달꼴</v>
+        <v>dokkebi_han.py eng\e2.eng han\H05.han ksg\! spc\! 짧은둥근모꼴</v>
       </c>
       <c r="C51" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D51" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E51" t="s">
         <v>52</v>
       </c>
-      <c r="G51" t="e">
+      <c r="F51" t="s">
+        <v>185</v>
+      </c>
+      <c r="G51" t="str">
         <f>VLOOKUP(F51,영어!A:C,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H51" t="e">
+        <v>영문둥근모꼴</v>
+      </c>
+      <c r="H51" t="str">
         <f>VLOOKUP(F51,영어!A:C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>김중태</v>
       </c>
       <c r="I51" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L51" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M51" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;tr style="font-family: 버금달꼴;font-size: 16px&gt;&lt;td&gt;버금달꼴&lt;/td&gt;&lt;td&gt;김중태&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C51&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C51&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E51&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr style="font-family: 짧은둥근모꼴;font-size: 16px&gt;&lt;td&gt;짧은둥근모꼴&lt;/td&gt;&lt;td&gt;김중태&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B52" t="str">
         <f t="shared" si="1"/>
-        <v>dokkebi_han.py ! han\H04.han ! ! 둥근모꼴</v>
+        <v>dokkebi_han.py eng\! han\H06.han ksg\! spc\! 뫼꼴</v>
       </c>
       <c r="C52" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D52" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E52" t="s">
         <v>52</v>
       </c>
       <c r="F52" t="s">
-        <v>185</v>
-      </c>
-      <c r="G52" t="str">
+        <v>571</v>
+      </c>
+      <c r="G52" t="e">
         <f>VLOOKUP(F52,영어!A:C,2,FALSE)</f>
-        <v>영문둥근모꼴</v>
-      </c>
-      <c r="H52" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="H52" t="e">
         <f>VLOOKUP(F52,영어!A:C,3,FALSE)</f>
-        <v>김중태</v>
+        <v>#N/A</v>
       </c>
       <c r="I52" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L52" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M52" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;tr style="font-family: 둥근모꼴;font-size: 16px&gt;&lt;td&gt;둥근모꼴&lt;/td&gt;&lt;td&gt;김중태&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C52&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C52&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E52&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr style="font-family: 뫼꼴;font-size: 16px&gt;&lt;td&gt;뫼꼴&lt;/td&gt;&lt;td&gt;김중태&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B53" t="str">
         <f t="shared" si="1"/>
-        <v>dokkebi_han.py ! han\H05.han ! ! 짧은둥근모꼴</v>
+        <v>dokkebi_han.py eng\! han\H07.han ksg\! spc\! 짧은뫼꼴</v>
       </c>
       <c r="C53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D53" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E53" t="s">
         <v>52</v>
       </c>
+      <c r="F53" t="s">
+        <v>571</v>
+      </c>
       <c r="G53" t="e">
         <f>VLOOKUP(F53,영어!A:C,2,FALSE)</f>
         <v>#N/A</v>
@@ -4355,63 +4502,69 @@
         <v>#N/A</v>
       </c>
       <c r="I53" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L53" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M53" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;tr style="font-family: 짧은둥근모꼴;font-size: 16px&gt;&lt;td&gt;짧은둥근모꼴&lt;/td&gt;&lt;td&gt;김중태&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C53&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C53&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E53&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr style="font-family: 짧은뫼꼴;font-size: 16px&gt;&lt;td&gt;짧은뫼꼴&lt;/td&gt;&lt;td&gt;김중태&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B54" t="str">
         <f t="shared" si="1"/>
-        <v>dokkebi_han.py ! han\H06.han ! ! 뫼꼴</v>
+        <v>dokkebi_han.py eng\e8.eng han\H08.han ksg\! spc\! 중태세모꼴</v>
       </c>
       <c r="C54" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D54" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E54" t="s">
         <v>52</v>
       </c>
-      <c r="G54" t="e">
+      <c r="F54" t="s">
+        <v>191</v>
+      </c>
+      <c r="G54" t="str">
         <f>VLOOKUP(F54,영어!A:C,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H54" t="e">
+        <v>영문중태세모꼴</v>
+      </c>
+      <c r="H54" t="str">
         <f>VLOOKUP(F54,영어!A:C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>김중태</v>
       </c>
       <c r="I54" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L54" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M54" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;tr style="font-family: 뫼꼴;font-size: 16px&gt;&lt;td&gt;뫼꼴&lt;/td&gt;&lt;td&gt;김중태&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C54&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C54&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E54&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr style="font-family: 중태세모꼴;font-size: 16px&gt;&lt;td&gt;중태세모꼴&lt;/td&gt;&lt;td&gt;김중태&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B55" t="str">
         <f t="shared" si="1"/>
-        <v>dokkebi_han.py ! han\H07.han ! ! 짧은뫼꼴</v>
+        <v xml:space="preserve">dokkebi_han.py eng\! han\H09.han ksg\! spc\! 뻗음꼴 </v>
       </c>
       <c r="C55" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D55" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E55" t="s">
         <v>52</v>
       </c>
+      <c r="F55" t="s">
+        <v>571</v>
+      </c>
       <c r="G55" t="e">
         <f>VLOOKUP(F55,영어!A:C,2,FALSE)</f>
         <v>#N/A</v>
@@ -4421,30 +4574,33 @@
         <v>#N/A</v>
       </c>
       <c r="I55" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L55" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M55" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;tr style="font-family: 짧은뫼꼴;font-size: 16px&gt;&lt;td&gt;짧은뫼꼴&lt;/td&gt;&lt;td&gt;김중태&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C55&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C55&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E55&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr style="font-family: 뻗음꼴 ;font-size: 16px&gt;&lt;td&gt;뻗음꼴 &lt;/td&gt;&lt;td&gt;김중태&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B56" t="str">
         <f t="shared" si="1"/>
-        <v>dokkebi_han.py ! han\H08.han ! ! 중태세모꼴</v>
+        <v>dokkebi_han.py eng\! han\H10.han ksg\! spc\! 짧은뻗음꼴</v>
       </c>
       <c r="C56" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D56" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E56" t="s">
         <v>52</v>
       </c>
+      <c r="F56" t="s">
+        <v>571</v>
+      </c>
       <c r="G56" t="e">
         <f>VLOOKUP(F56,영어!A:C,2,FALSE)</f>
         <v>#N/A</v>
@@ -4454,30 +4610,33 @@
         <v>#N/A</v>
       </c>
       <c r="I56" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L56" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M56" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;tr style="font-family: 중태세모꼴;font-size: 16px&gt;&lt;td&gt;중태세모꼴&lt;/td&gt;&lt;td&gt;김중태&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C56&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C56&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E56&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr style="font-family: 짧은뻗음꼴;font-size: 16px&gt;&lt;td&gt;짧은뻗음꼴&lt;/td&gt;&lt;td&gt;김중태&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="57" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B57" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">dokkebi_han.py ! han\H09.han ! ! 뻗음꼴 </v>
+        <v>dokkebi_han.py eng\! han\H11.han ksg\! spc\! 삐침꼴</v>
       </c>
       <c r="C57" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D57" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E57" t="s">
         <v>52</v>
       </c>
+      <c r="F57" t="s">
+        <v>571</v>
+      </c>
       <c r="G57" t="e">
         <f>VLOOKUP(F57,영어!A:C,2,FALSE)</f>
         <v>#N/A</v>
@@ -4487,30 +4646,33 @@
         <v>#N/A</v>
       </c>
       <c r="I57" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L57" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M57" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;tr style="font-family: 뻗음꼴 ;font-size: 16px&gt;&lt;td&gt;뻗음꼴 &lt;/td&gt;&lt;td&gt;김중태&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C57&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C57&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E57&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr style="font-family: 삐침꼴;font-size: 16px&gt;&lt;td&gt;삐침꼴&lt;/td&gt;&lt;td&gt;김중태&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="58" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B58" t="str">
         <f t="shared" si="1"/>
-        <v>dokkebi_han.py ! han\H10.han ! ! 짧은뻗음꼴</v>
+        <v>dokkebi_han.py eng\! han\H12.han ksg\! spc\! 작은삐침꼴</v>
       </c>
       <c r="C58" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D58" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E58" t="s">
         <v>52</v>
       </c>
+      <c r="F58" t="s">
+        <v>571</v>
+      </c>
       <c r="G58" t="e">
         <f>VLOOKUP(F58,영어!A:C,2,FALSE)</f>
         <v>#N/A</v>
@@ -4520,30 +4682,33 @@
         <v>#N/A</v>
       </c>
       <c r="I58" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L58" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M58" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;tr style="font-family: 짧은뻗음꼴;font-size: 16px&gt;&lt;td&gt;짧은뻗음꼴&lt;/td&gt;&lt;td&gt;김중태&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C58&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C58&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E58&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr style="font-family: 작은삐침꼴;font-size: 16px&gt;&lt;td&gt;작은삐침꼴&lt;/td&gt;&lt;td&gt;김중태&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="59" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B59" t="str">
         <f t="shared" si="1"/>
-        <v>dokkebi_han.py ! han\H11.han ! ! 삐침꼴</v>
+        <v>dokkebi_han.py eng\! han\H13.han ksg\! spc\! 풀잎꼴</v>
       </c>
       <c r="C59" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D59" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E59" t="s">
         <v>52</v>
       </c>
+      <c r="F59" t="s">
+        <v>571</v>
+      </c>
       <c r="G59" t="e">
         <f>VLOOKUP(F59,영어!A:C,2,FALSE)</f>
         <v>#N/A</v>
@@ -4553,30 +4718,33 @@
         <v>#N/A</v>
       </c>
       <c r="I59" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L59" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M59" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;tr style="font-family: 삐침꼴;font-size: 16px&gt;&lt;td&gt;삐침꼴&lt;/td&gt;&lt;td&gt;김중태&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C59&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C59&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E59&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr style="font-family: 풀잎꼴;font-size: 16px&gt;&lt;td&gt;풀잎꼴&lt;/td&gt;&lt;td&gt;김중태&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="60" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B60" t="str">
         <f t="shared" si="1"/>
-        <v>dokkebi_han.py ! han\H12.han ! ! 작은삐침꼴</v>
+        <v>dokkebi_han.py eng\! han\H14.han ksg\! spc\! 대나무꼴</v>
       </c>
       <c r="C60" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D60" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E60" t="s">
         <v>52</v>
       </c>
+      <c r="F60" t="s">
+        <v>571</v>
+      </c>
       <c r="G60" t="e">
         <f>VLOOKUP(F60,영어!A:C,2,FALSE)</f>
         <v>#N/A</v>
@@ -4586,30 +4754,33 @@
         <v>#N/A</v>
       </c>
       <c r="I60" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L60" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M60" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;tr style="font-family: 작은삐침꼴;font-size: 16px&gt;&lt;td&gt;작은삐침꼴&lt;/td&gt;&lt;td&gt;김중태&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C60&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C60&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E60&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr style="font-family: 대나무꼴;font-size: 16px&gt;&lt;td&gt;대나무꼴&lt;/td&gt;&lt;td&gt;김중태&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="61" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B61" t="str">
         <f t="shared" si="1"/>
-        <v>dokkebi_han.py ! han\H13.han ! ! 풀잎꼴</v>
+        <v>dokkebi_han.py eng\! han\H15.han ksg\! spc\! 포갬꼴</v>
       </c>
       <c r="C61" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D61" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E61" t="s">
         <v>52</v>
       </c>
+      <c r="F61" t="s">
+        <v>571</v>
+      </c>
       <c r="G61" t="e">
         <f>VLOOKUP(F61,영어!A:C,2,FALSE)</f>
         <v>#N/A</v>
@@ -4619,29 +4790,32 @@
         <v>#N/A</v>
       </c>
       <c r="I61" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L61" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M61" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;tr style="font-family: 풀잎꼴;font-size: 16px&gt;&lt;td&gt;풀잎꼴&lt;/td&gt;&lt;td&gt;김중태&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C61&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C61&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E61&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr style="font-family: 포갬꼴;font-size: 16px&gt;&lt;td&gt;포갬꼴&lt;/td&gt;&lt;td&gt;김중태&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="62" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B62" t="str">
         <f t="shared" si="1"/>
-        <v>dokkebi_han.py ! han\H14.han ! ! 대나무꼴</v>
+        <v>dokkebi_han.py eng\! han\HANSORA.han ksg\! spc\! 소라체</v>
       </c>
       <c r="C62" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="D62" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E62" t="s">
-        <v>52</v>
+        <v>54</v>
+      </c>
+      <c r="F62" t="s">
+        <v>571</v>
       </c>
       <c r="G62" t="e">
         <f>VLOOKUP(F62,영어!A:C,2,FALSE)</f>
@@ -4652,29 +4826,32 @@
         <v>#N/A</v>
       </c>
       <c r="I62" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L62" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M62" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;tr style="font-family: 대나무꼴;font-size: 16px&gt;&lt;td&gt;대나무꼴&lt;/td&gt;&lt;td&gt;김중태&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C62&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C62&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E62&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr style="font-family: 소라체;font-size: 16px&gt;&lt;td&gt;소라체&lt;/td&gt;&lt;td&gt;남정우&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="63" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B63" t="str">
         <f t="shared" si="1"/>
-        <v>dokkebi_han.py ! han\H15.han ! ! 포갬꼴</v>
-      </c>
-      <c r="C63" t="s">
-        <v>50</v>
-      </c>
-      <c r="D63" t="s">
+        <v>dokkebi_han.py eng\! han\DKBDINA.han ksg\! spc\! 도깨비디나루</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="E63" t="s">
-        <v>52</v>
+      <c r="F63" t="s">
+        <v>571</v>
       </c>
       <c r="G63" t="e">
         <f>VLOOKUP(F63,영어!A:C,2,FALSE)</f>
@@ -4685,29 +4862,32 @@
         <v>#N/A</v>
       </c>
       <c r="I63" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L63" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M63" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;tr style="font-family: 포갬꼴;font-size: 16px&gt;&lt;td&gt;포갬꼴&lt;/td&gt;&lt;td&gt;김중태&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C63&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C63&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E63&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr style="font-family: 도깨비디나루;font-size: 16px&gt;&lt;td&gt;도깨비디나루&lt;/td&gt;&lt;td&gt;도깨비 한글&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="64" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B64" t="str">
         <f t="shared" si="1"/>
-        <v>dokkebi_han.py ! han\HANSORA.han ! ! 소라체</v>
-      </c>
-      <c r="C64" t="s">
-        <v>53</v>
-      </c>
-      <c r="D64" t="s">
-        <v>435</v>
-      </c>
-      <c r="E64" t="s">
-        <v>54</v>
+        <v>dokkebi_han.py eng\! han\DKBGOTH.han ksg\! spc\! 도깨비고딕</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="F64" t="s">
+        <v>571</v>
       </c>
       <c r="G64" t="e">
         <f>VLOOKUP(F64,영어!A:C,2,FALSE)</f>
@@ -4718,29 +4898,35 @@
         <v>#N/A</v>
       </c>
       <c r="I64" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L64" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M64" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;tr style="font-family: 소라체;font-size: 16px&gt;&lt;td&gt;소라체&lt;/td&gt;&lt;td&gt;남정우&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C64&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C64&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E64&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr style="font-family: 도깨비고딕;font-size: 16px&gt;&lt;td&gt;도깨비고딕&lt;/td&gt;&lt;td&gt;도깨비 한글&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>119</v>
+      </c>
       <c r="B65" t="str">
-        <f t="shared" ref="B65:B128" si="3">"dokkebi_han.py ! han\"&amp;D65&amp;" ! ! "&amp;C65</f>
-        <v>dokkebi_han.py ! han\DKBDINA.han ! ! 도깨비디나루</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>437</v>
+        <f t="shared" si="1"/>
+        <v>dokkebi_han.py eng\! han\HANKBC.han ksg\! spc\! 도깨비디나루2</v>
+      </c>
+      <c r="C65" t="s">
+        <v>118</v>
+      </c>
+      <c r="D65" t="s">
+        <v>435</v>
+      </c>
+      <c r="E65" t="s">
+        <v>433</v>
+      </c>
+      <c r="F65" t="s">
+        <v>571</v>
       </c>
       <c r="G65" t="e">
         <f>VLOOKUP(F65,영어!A:C,2,FALSE)</f>
@@ -4751,29 +4937,35 @@
         <v>#N/A</v>
       </c>
       <c r="I65" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L65" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M65" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;tr style="font-family: 도깨비디나루;font-size: 16px&gt;&lt;td&gt;도깨비디나루&lt;/td&gt;&lt;td&gt;도깨비 한글&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C65&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C65&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E65&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr style="font-family: 도깨비디나루2;font-size: 16px&gt;&lt;td&gt;도깨비디나루2&lt;/td&gt;&lt;td&gt;도깨비 한글 3.30, 조춘형&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
+        <v>415</v>
+      </c>
       <c r="B66" t="str">
-        <f t="shared" si="3"/>
-        <v>dokkebi_han.py ! han\HANKBC2.han ! ! 도깨비디나루3</v>
-      </c>
-      <c r="C66" t="s">
-        <v>293</v>
-      </c>
-      <c r="D66" t="s">
-        <v>550</v>
-      </c>
-      <c r="E66" t="s">
+        <f t="shared" ref="B66:B129" si="2">"dokkebi_han.py eng\"&amp;F66&amp;" han\"&amp;D66&amp;" ksg\"&amp;I66&amp;" spc\"&amp;L66&amp;" "&amp;C66</f>
+        <v>dokkebi_han.py eng\! han\HANSAM.han ksg\! spc\! 바람체</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>551</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F66" t="s">
+        <v>571</v>
       </c>
       <c r="G66" t="e">
         <f>VLOOKUP(F66,영어!A:C,2,FALSE)</f>
@@ -4784,32 +4976,32 @@
         <v>#N/A</v>
       </c>
       <c r="I66" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L66" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M66" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;tr style="font-family: 도깨비디나루3;font-size: 16px&gt;&lt;td&gt;도깨비디나루3&lt;/td&gt;&lt;td&gt;김윤수(도깨비디나루 변형)&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C66&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C66&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E66&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr style="font-family: 바람체;font-size: 16px&gt;&lt;td&gt;바람체&lt;/td&gt;&lt;td&gt;바람&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>119</v>
-      </c>
       <c r="B67" t="str">
-        <f t="shared" si="3"/>
-        <v>dokkebi_han.py ! han\HANKBC.han ! ! 도깨비디나루2</v>
+        <f t="shared" si="2"/>
+        <v>dokkebi_han.py eng\! han\haniron.han ksg\! spc\! 강철체</v>
       </c>
       <c r="C67" t="s">
-        <v>118</v>
+        <v>56</v>
       </c>
       <c r="D67" t="s">
-        <v>438</v>
+        <v>8</v>
       </c>
       <c r="E67" t="s">
-        <v>436</v>
+        <v>59</v>
+      </c>
+      <c r="F67" t="s">
+        <v>571</v>
       </c>
       <c r="G67" t="e">
         <f>VLOOKUP(F67,영어!A:C,2,FALSE)</f>
@@ -4820,29 +5012,32 @@
         <v>#N/A</v>
       </c>
       <c r="I67" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L67" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;tr style="font-family: 도깨비디나루2;font-size: 16px&gt;&lt;td&gt;도깨비디나루2&lt;/td&gt;&lt;td&gt;도깨비 한글 3.30, 조춘형&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C67&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C67&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E67&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr style="font-family: 강철체;font-size: 16px&gt;&lt;td&gt;강철체&lt;/td&gt;&lt;td&gt;박호성&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B68" t="str">
-        <f t="shared" si="3"/>
-        <v>dokkebi_han.py ! han\DKBGOTH.han ! ! 도깨비고딕</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>437</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">dokkebi_han.py eng\! han\haniron1.han ksg\! spc\! 강철체1 </v>
+      </c>
+      <c r="C68" t="s">
+        <v>57</v>
+      </c>
+      <c r="D68" t="s">
+        <v>21</v>
+      </c>
+      <c r="E68" t="s">
+        <v>59</v>
+      </c>
+      <c r="F68" t="s">
+        <v>571</v>
       </c>
       <c r="G68" t="e">
         <f>VLOOKUP(F68,영어!A:C,2,FALSE)</f>
@@ -4853,32 +5048,32 @@
         <v>#N/A</v>
       </c>
       <c r="I68" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L68" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M68" t="str">
-        <f t="shared" ref="M68:M131" si="4">"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C68&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C68&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E68&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;tr style="font-family: 도깨비고딕;font-size: 16px&gt;&lt;td&gt;도깨비고딕&lt;/td&gt;&lt;td&gt;도깨비 한글&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C68&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C68&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E68&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr style="font-family: 강철체1 ;font-size: 16px&gt;&lt;td&gt;강철체1 &lt;/td&gt;&lt;td&gt;박호성&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A69" s="3" t="s">
-        <v>418</v>
-      </c>
       <c r="B69" t="str">
-        <f t="shared" si="3"/>
-        <v>dokkebi_han.py ! han\HANSAM.han ! ! 바람체</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>126</v>
+        <f t="shared" si="2"/>
+        <v>dokkebi_han.py eng\! han\haniron2.han ksg\! spc\! 강철체2</v>
+      </c>
+      <c r="C69" t="s">
+        <v>58</v>
+      </c>
+      <c r="D69" t="s">
+        <v>22</v>
+      </c>
+      <c r="E69" t="s">
+        <v>59</v>
+      </c>
+      <c r="F69" t="s">
+        <v>571</v>
       </c>
       <c r="G69" t="e">
         <f>VLOOKUP(F69,영어!A:C,2,FALSE)</f>
@@ -4889,29 +5084,32 @@
         <v>#N/A</v>
       </c>
       <c r="I69" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L69" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M69" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;tr style="font-family: 바람체;font-size: 16px&gt;&lt;td&gt;바람체&lt;/td&gt;&lt;td&gt;바람&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C69&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C69&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E69&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr style="font-family: 강철체2;font-size: 16px&gt;&lt;td&gt;강철체2&lt;/td&gt;&lt;td&gt;박호성&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B70" t="str">
-        <f t="shared" si="3"/>
-        <v>dokkebi_han.py ! han\TBPIL2.han ! ! 태백필기체2</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>552</v>
+        <f t="shared" si="2"/>
+        <v>dokkebi_han.py eng\! han\HANPL.han ksg\! spc\! 필기체</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>543</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>553</v>
+        <v>485</v>
+      </c>
+      <c r="F70" t="s">
+        <v>571</v>
       </c>
       <c r="G70" t="e">
         <f>VLOOKUP(F70,영어!A:C,2,FALSE)</f>
@@ -4922,29 +5120,32 @@
         <v>#N/A</v>
       </c>
       <c r="I70" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L70" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M70" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;tr style="font-family: 태백필기체2;font-size: 16px&gt;&lt;td&gt;태백필기체2&lt;/td&gt;&lt;td&gt;김윤수(태백필기체 변형)&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C70&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C70&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E70&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr style="font-family: 필기체;font-size: 16px&gt;&lt;td&gt;필기체&lt;/td&gt;&lt;td&gt;불명&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B71" t="str">
-        <f t="shared" si="3"/>
-        <v>dokkebi_han.py ! han\SANHSB.han ! ! 한석봉체</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>557</v>
+        <f t="shared" si="2"/>
+        <v>dokkebi_han.py eng\! han\CSWP.han ksg\! spc\! 포항공대</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>564</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>556</v>
+        <v>485</v>
+      </c>
+      <c r="F71" t="s">
+        <v>571</v>
       </c>
       <c r="G71" t="e">
         <f>VLOOKUP(F71,영어!A:C,2,FALSE)</f>
@@ -4955,29 +5156,32 @@
         <v>#N/A</v>
       </c>
       <c r="I71" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L71" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M71" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;tr style="font-family: 한석봉체;font-size: 16px&gt;&lt;td&gt;한석봉체&lt;/td&gt;&lt;td&gt;한글에디터 산 1.x/박규현&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C71&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C71&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E71&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr style="font-family: 포항공대;font-size: 16px&gt;&lt;td&gt;포항공대&lt;/td&gt;&lt;td&gt;불명&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B72" t="str">
-        <f t="shared" si="3"/>
-        <v>dokkebi_han.py ! han\SANIGJ.han ! ! 임꺽정체</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>558</v>
+        <f t="shared" si="2"/>
+        <v>dokkebi_han.py eng\! han\HANSOFT.han ksg\! spc\! 부드러운</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>563</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>556</v>
+        <v>485</v>
+      </c>
+      <c r="F72" t="s">
+        <v>571</v>
       </c>
       <c r="G72" t="e">
         <f>VLOOKUP(F72,영어!A:C,2,FALSE)</f>
@@ -4988,62 +5192,74 @@
         <v>#N/A</v>
       </c>
       <c r="I72" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L72" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M72" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;tr style="font-family: 임꺽정체;font-size: 16px&gt;&lt;td&gt;임꺽정체&lt;/td&gt;&lt;td&gt;한글에디터 산 1.x/박규현&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C72&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C72&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E72&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr style="font-family: 부드러운;font-size: 16px&gt;&lt;td&gt;부드러운&lt;/td&gt;&lt;td&gt;불명&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>116</v>
+      </c>
       <c r="B73" t="str">
-        <f t="shared" si="3"/>
-        <v>dokkebi_han.py ! han\haniron.han ! ! 강철체</v>
-      </c>
-      <c r="C73" t="s">
-        <v>56</v>
-      </c>
-      <c r="D73" t="s">
-        <v>8</v>
-      </c>
-      <c r="E73" t="s">
-        <v>59</v>
-      </c>
-      <c r="G73" t="e">
+        <f t="shared" si="2"/>
+        <v>dokkebi_han.py eng\robo.eng han\KIC.han ksg\! spc\! 김인철체</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="F73" t="s">
+        <v>222</v>
+      </c>
+      <c r="G73">
         <f>VLOOKUP(F73,영어!A:C,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H73" t="e">
+        <v>0</v>
+      </c>
+      <c r="H73">
         <f>VLOOKUP(F73,영어!A:C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="I73" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L73" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M73" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;tr style="font-family: 강철체;font-size: 16px&gt;&lt;td&gt;강철체&lt;/td&gt;&lt;td&gt;박호성&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C73&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C73&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E73&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr style="font-family: 김인철체;font-size: 16px&gt;&lt;td&gt;김인철체&lt;/td&gt;&lt;td&gt;불명&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A74" s="3" t="s">
+        <v>469</v>
+      </c>
       <c r="B74" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">dokkebi_han.py ! han\haniron1.han ! ! 강철체1 </v>
+        <f t="shared" si="2"/>
+        <v>dokkebi_han.py eng\! han\TBG2.han ksg\! spc\! 태백명조체개조</v>
       </c>
       <c r="C74" t="s">
-        <v>57</v>
+        <v>468</v>
       </c>
       <c r="D74" t="s">
-        <v>21</v>
+        <v>464</v>
       </c>
       <c r="E74" t="s">
-        <v>59</v>
+        <v>463</v>
+      </c>
+      <c r="F74" t="s">
+        <v>571</v>
       </c>
       <c r="G74" t="e">
         <f>VLOOKUP(F74,영어!A:C,2,FALSE)</f>
@@ -5054,29 +5270,32 @@
         <v>#N/A</v>
       </c>
       <c r="I74" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L74" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M74" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;tr style="font-family: 강철체1 ;font-size: 16px&gt;&lt;td&gt;강철체1 &lt;/td&gt;&lt;td&gt;박호성&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C74&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C74&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E74&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr style="font-family: 태백명조체개조;font-size: 16px&gt;&lt;td&gt;태백명조체개조&lt;/td&gt;&lt;td&gt;불명(태백명조체 기반)&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B75" t="str">
-        <f t="shared" si="3"/>
-        <v>dokkebi_han.py ! han\haniron2.han ! ! 강철체2</v>
-      </c>
-      <c r="C75" t="s">
-        <v>58</v>
-      </c>
-      <c r="D75" t="s">
-        <v>22</v>
-      </c>
-      <c r="E75" t="s">
-        <v>59</v>
+        <f t="shared" si="2"/>
+        <v>dokkebi_han.py eng\! han\tggoth.han ksg\! spc\! 삼보고딕체</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F75" t="s">
+        <v>571</v>
       </c>
       <c r="G75" t="e">
         <f>VLOOKUP(F75,영어!A:C,2,FALSE)</f>
@@ -5087,29 +5306,35 @@
         <v>#N/A</v>
       </c>
       <c r="I75" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L75" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M75" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;tr style="font-family: 강철체2;font-size: 16px&gt;&lt;td&gt;강철체2&lt;/td&gt;&lt;td&gt;박호성&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C75&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C75&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E75&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr style="font-family: 삼보고딕체;font-size: 16px&gt;&lt;td&gt;삼보고딕체&lt;/td&gt;&lt;td&gt;삼보 한글 카드&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A76" s="3" t="s">
+        <v>415</v>
+      </c>
       <c r="B76" t="str">
-        <f t="shared" si="3"/>
-        <v>dokkebi_han.py ! han\tggoth.han ! ! 삼보고딕체</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>130</v>
+        <f t="shared" si="2"/>
+        <v>dokkebi_han.py eng\! han\A_FONT.han ksg\! spc\! 서용원체</v>
+      </c>
+      <c r="C76" t="s">
+        <v>437</v>
+      </c>
+      <c r="D76" t="s">
+        <v>436</v>
+      </c>
+      <c r="E76" t="s">
+        <v>60</v>
+      </c>
+      <c r="F76" t="s">
+        <v>571</v>
       </c>
       <c r="G76" t="e">
         <f>VLOOKUP(F76,영어!A:C,2,FALSE)</f>
@@ -5120,32 +5345,32 @@
         <v>#N/A</v>
       </c>
       <c r="I76" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L76" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M76" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;tr style="font-family: 삼보고딕체;font-size: 16px&gt;&lt;td&gt;삼보고딕체&lt;/td&gt;&lt;td&gt;삼보 한글 카드&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C76&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C76&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E76&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr style="font-family: 서용원체;font-size: 16px&gt;&lt;td&gt;서용원체&lt;/td&gt;&lt;td&gt;서용원&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A77" s="3" t="s">
-        <v>418</v>
-      </c>
       <c r="B77" t="str">
-        <f t="shared" si="3"/>
-        <v>dokkebi_han.py ! han\A_FONT.han ! ! 서용원체</v>
+        <f t="shared" si="2"/>
+        <v>dokkebi_han.py eng\! han\HANGRIM.han ksg\! spc\! 그림체</v>
       </c>
       <c r="C77" t="s">
-        <v>440</v>
+        <v>62</v>
       </c>
       <c r="D77" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E77" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="F77" t="s">
+        <v>571</v>
       </c>
       <c r="G77" t="e">
         <f>VLOOKUP(F77,영어!A:C,2,FALSE)</f>
@@ -5156,29 +5381,32 @@
         <v>#N/A</v>
       </c>
       <c r="I77" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L77" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M77" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;tr style="font-family: 서용원체;font-size: 16px&gt;&lt;td&gt;서용원체&lt;/td&gt;&lt;td&gt;서용원&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C77&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C77&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E77&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr style="font-family: 그림체;font-size: 16px&gt;&lt;td&gt;그림체&lt;/td&gt;&lt;td&gt;서정호&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B78" t="str">
-        <f t="shared" si="3"/>
-        <v>dokkebi_han.py ! han\HANGRIM.han ! ! 그림체</v>
+        <f t="shared" si="2"/>
+        <v>dokkebi_han.py eng\! han\HANMORAN.han ksg\! spc\! 모란체</v>
       </c>
       <c r="C78" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D78" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E78" t="s">
-        <v>61</v>
+        <v>64</v>
+      </c>
+      <c r="F78" t="s">
+        <v>571</v>
       </c>
       <c r="G78" t="e">
         <f>VLOOKUP(F78,영어!A:C,2,FALSE)</f>
@@ -5189,29 +5417,32 @@
         <v>#N/A</v>
       </c>
       <c r="I78" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L78" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M78" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;tr style="font-family: 그림체;font-size: 16px&gt;&lt;td&gt;그림체&lt;/td&gt;&lt;td&gt;서정호&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C78&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C78&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E78&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr style="font-family: 모란체;font-size: 16px&gt;&lt;td&gt;모란체&lt;/td&gt;&lt;td&gt;선동술&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B79" t="str">
-        <f t="shared" si="3"/>
-        <v>dokkebi_han.py ! han\HANMORAN.han ! ! 모란체</v>
+        <f t="shared" si="2"/>
+        <v>dokkebi_han.py eng\! han\HANANSAM.han ksg\! spc\! 안샘체</v>
       </c>
       <c r="C79" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D79" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E79" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="F79" t="s">
+        <v>571</v>
       </c>
       <c r="G79" t="e">
         <f>VLOOKUP(F79,영어!A:C,2,FALSE)</f>
@@ -5222,29 +5453,32 @@
         <v>#N/A</v>
       </c>
       <c r="I79" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L79" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M79" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;tr style="font-family: 모란체;font-size: 16px&gt;&lt;td&gt;모란체&lt;/td&gt;&lt;td&gt;선동술&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C79&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C79&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E79&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr style="font-family: 안샘체;font-size: 16px&gt;&lt;td&gt;안샘체&lt;/td&gt;&lt;td&gt;송성훈&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B80" t="str">
-        <f t="shared" si="3"/>
-        <v>dokkebi_han.py ! han\HANANSAM.han ! ! 안샘체</v>
+        <f t="shared" si="2"/>
+        <v>dokkebi_han.py eng\! han\HANDINA.han ksg\! spc\! 신동선디나루체</v>
       </c>
       <c r="C80" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D80" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E80" t="s">
-        <v>66</v>
+        <v>67</v>
+      </c>
+      <c r="F80" t="s">
+        <v>571</v>
       </c>
       <c r="G80" t="e">
         <f>VLOOKUP(F80,영어!A:C,2,FALSE)</f>
@@ -5255,30 +5489,33 @@
         <v>#N/A</v>
       </c>
       <c r="I80" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L80" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M80" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;tr style="font-family: 안샘체;font-size: 16px&gt;&lt;td&gt;안샘체&lt;/td&gt;&lt;td&gt;송성훈&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C80&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C80&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E80&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr style="font-family: 신동선디나루체;font-size: 16px&gt;&lt;td&gt;신동선디나루체&lt;/td&gt;&lt;td&gt;신동선&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B81" t="str">
-        <f t="shared" si="3"/>
-        <v>dokkebi_han.py ! han\HANDINA.han ! ! 신동선디나루체</v>
+        <f t="shared" si="2"/>
+        <v>dokkebi_han.py eng\! han\HANSENA.han ksg\! spc\! 신동선세나루체</v>
       </c>
       <c r="C81" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D81" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E81" t="s">
         <v>67</v>
       </c>
+      <c r="F81" t="s">
+        <v>571</v>
+      </c>
       <c r="G81" t="e">
         <f>VLOOKUP(F81,영어!A:C,2,FALSE)</f>
         <v>#N/A</v>
@@ -5288,30 +5525,33 @@
         <v>#N/A</v>
       </c>
       <c r="I81" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L81" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M81" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;tr style="font-family: 신동선디나루체;font-size: 16px&gt;&lt;td&gt;신동선디나루체&lt;/td&gt;&lt;td&gt;신동선&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C81&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C81&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E81&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr style="font-family: 신동선세나루체;font-size: 16px&gt;&lt;td&gt;신동선세나루체&lt;/td&gt;&lt;td&gt;신동선&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B82" t="str">
-        <f t="shared" si="3"/>
-        <v>dokkebi_han.py ! han\HANSENA.han ! ! 신동선세나루체</v>
+        <f t="shared" si="2"/>
+        <v>dokkebi_han.py eng\! han\HANSSMJ.han ksg\! spc\! 신선명조체</v>
       </c>
       <c r="C82" t="s">
-        <v>69</v>
+        <v>131</v>
       </c>
       <c r="D82" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="E82" t="s">
         <v>67</v>
       </c>
+      <c r="F82" t="s">
+        <v>571</v>
+      </c>
       <c r="G82" t="e">
         <f>VLOOKUP(F82,영어!A:C,2,FALSE)</f>
         <v>#N/A</v>
@@ -5321,29 +5561,32 @@
         <v>#N/A</v>
       </c>
       <c r="I82" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L82" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M82" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;tr style="font-family: 신동선세나루체;font-size: 16px&gt;&lt;td&gt;신동선세나루체&lt;/td&gt;&lt;td&gt;신동선&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C82&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C82&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E82&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr style="font-family: 신선명조체;font-size: 16px&gt;&lt;td&gt;신선명조체&lt;/td&gt;&lt;td&gt;신동선&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B83" t="str">
-        <f t="shared" si="3"/>
-        <v>dokkebi_han.py ! han\HANSSMJ.han ! ! 신선명조체</v>
+        <f t="shared" si="2"/>
+        <v>dokkebi_han.py eng\! han\HANGNSM.han ksg\! spc\! 가는샘물</v>
       </c>
       <c r="C83" t="s">
-        <v>131</v>
+        <v>70</v>
       </c>
       <c r="D83" t="s">
         <v>444</v>
       </c>
       <c r="E83" t="s">
-        <v>67</v>
+        <v>71</v>
+      </c>
+      <c r="F83" t="s">
+        <v>571</v>
       </c>
       <c r="G83" t="e">
         <f>VLOOKUP(F83,영어!A:C,2,FALSE)</f>
@@ -5354,29 +5597,32 @@
         <v>#N/A</v>
       </c>
       <c r="I83" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L83" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M83" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;tr style="font-family: 신선명조체;font-size: 16px&gt;&lt;td&gt;신선명조체&lt;/td&gt;&lt;td&gt;신동선&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C83&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C83&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E83&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr style="font-family: 가는샘물;font-size: 16px&gt;&lt;td&gt;가는샘물&lt;/td&gt;&lt;td&gt;유승무&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B84" t="str">
-        <f t="shared" si="3"/>
-        <v>dokkebi_han.py ! han\HANDG.han ! ! 한글디자인체</v>
+        <f t="shared" si="2"/>
+        <v>dokkebi_han.py eng\! han\HANGSM.han ksg\! spc\! 굵은샘물</v>
       </c>
       <c r="C84" t="s">
-        <v>405</v>
+        <v>72</v>
       </c>
       <c r="D84" t="s">
-        <v>403</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>401</v>
+        <v>445</v>
+      </c>
+      <c r="E84" t="s">
+        <v>71</v>
+      </c>
+      <c r="F84" t="s">
+        <v>571</v>
       </c>
       <c r="G84" t="e">
         <f>VLOOKUP(F84,영어!A:C,2,FALSE)</f>
@@ -5387,29 +5633,32 @@
         <v>#N/A</v>
       </c>
       <c r="I84" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L84" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M84" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;tr style="font-family: 한글디자인체;font-size: 16px&gt;&lt;td&gt;한글디자인체&lt;/td&gt;&lt;td&gt;한글/한글과컴퓨터&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C84&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C84&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E84&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr style="font-family: 굵은샘물;font-size: 16px&gt;&lt;td&gt;굵은샘물&lt;/td&gt;&lt;td&gt;유승무&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B85" t="str">
-        <f t="shared" si="3"/>
-        <v>dokkebi_han.py ! han\HANGS.han ! ! 한글궁서체</v>
+        <f t="shared" si="2"/>
+        <v>dokkebi_han.py eng\! han\HANSG.han ksg\! spc\! 큰새고딕체</v>
       </c>
       <c r="C85" t="s">
-        <v>402</v>
+        <v>73</v>
       </c>
       <c r="D85" t="s">
-        <v>404</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>401</v>
+        <v>446</v>
+      </c>
+      <c r="E85" t="s">
+        <v>71</v>
+      </c>
+      <c r="F85" t="s">
+        <v>571</v>
       </c>
       <c r="G85" t="e">
         <f>VLOOKUP(F85,영어!A:C,2,FALSE)</f>
@@ -5420,29 +5669,32 @@
         <v>#N/A</v>
       </c>
       <c r="I85" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L85" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M85" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;tr style="font-family: 한글궁서체;font-size: 16px&gt;&lt;td&gt;한글궁서체&lt;/td&gt;&lt;td&gt;한글/한글과컴퓨터&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C85&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C85&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E85&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr style="font-family: 큰새고딕체;font-size: 16px&gt;&lt;td&gt;큰새고딕체&lt;/td&gt;&lt;td&gt;유승무&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B86" t="str">
-        <f t="shared" si="3"/>
-        <v>dokkebi_han.py ! han\HANGSMGO.han ! ! 한글견샘물고딕체</v>
+        <f t="shared" si="2"/>
+        <v>dokkebi_han.py eng\! han\GG.han ksg\! spc\! 긴고딕체</v>
       </c>
       <c r="C86" t="s">
-        <v>406</v>
+        <v>74</v>
       </c>
       <c r="D86" t="s">
-        <v>400</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>401</v>
+        <v>447</v>
+      </c>
+      <c r="E86" t="s">
+        <v>75</v>
+      </c>
+      <c r="F86" t="s">
+        <v>571</v>
       </c>
       <c r="G86" t="e">
         <f>VLOOKUP(F86,영어!A:C,2,FALSE)</f>
@@ -5453,29 +5705,32 @@
         <v>#N/A</v>
       </c>
       <c r="I86" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L86" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M86" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;tr style="font-family: 한글견샘물고딕체;font-size: 16px&gt;&lt;td&gt;한글견샘물고딕체&lt;/td&gt;&lt;td&gt;한글/한글과컴퓨터&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C86&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C86&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E86&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr style="font-family: 긴고딕체;font-size: 16px&gt;&lt;td&gt;긴고딕체&lt;/td&gt;&lt;td&gt;윤희옥&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B87" t="str">
-        <f t="shared" si="3"/>
-        <v>dokkebi_han.py ! han\HANMY.han ! ! 한글명조체</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>401</v>
+        <f t="shared" si="2"/>
+        <v>dokkebi_han.py eng\! han\HEEMANG.han ksg\! spc\! 희망체</v>
+      </c>
+      <c r="C87" t="s">
+        <v>77</v>
+      </c>
+      <c r="D87" t="s">
+        <v>449</v>
+      </c>
+      <c r="E87" t="s">
+        <v>75</v>
+      </c>
+      <c r="F87" t="s">
+        <v>571</v>
       </c>
       <c r="G87" t="e">
         <f>VLOOKUP(F87,영어!A:C,2,FALSE)</f>
@@ -5486,29 +5741,32 @@
         <v>#N/A</v>
       </c>
       <c r="I87" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L87" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M87" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;tr style="font-family: 한글명조체;font-size: 16px&gt;&lt;td&gt;한글명조체&lt;/td&gt;&lt;td&gt;한글/한글과컴퓨터&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C87&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C87&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E87&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr style="font-family: 희망체;font-size: 16px&gt;&lt;td&gt;희망체&lt;/td&gt;&lt;td&gt;윤희옥&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B88" t="str">
-        <f t="shared" si="3"/>
-        <v>dokkebi_han.py ! han\HANGNSM.han ! ! 가는샘물</v>
+        <f t="shared" si="2"/>
+        <v>dokkebi_han.py eng\! han\SOMANG.han ksg\! spc\! 소망체</v>
       </c>
       <c r="C88" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D88" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E88" t="s">
-        <v>71</v>
+        <v>75</v>
+      </c>
+      <c r="F88" t="s">
+        <v>571</v>
       </c>
       <c r="G88" t="e">
         <f>VLOOKUP(F88,영어!A:C,2,FALSE)</f>
@@ -5519,29 +5777,32 @@
         <v>#N/A</v>
       </c>
       <c r="I88" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L88" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M88" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;tr style="font-family: 가는샘물;font-size: 16px&gt;&lt;td&gt;가는샘물&lt;/td&gt;&lt;td&gt;유승무&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C88&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C88&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E88&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr style="font-family: 소망체;font-size: 16px&gt;&lt;td&gt;소망체&lt;/td&gt;&lt;td&gt;윤희옥&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B89" t="str">
-        <f t="shared" si="3"/>
-        <v>dokkebi_han.py ! han\HANGSM.han ! ! 굵은샘물</v>
-      </c>
-      <c r="C89" t="s">
-        <v>72</v>
-      </c>
-      <c r="D89" t="s">
-        <v>448</v>
-      </c>
-      <c r="E89" t="s">
-        <v>71</v>
+        <f t="shared" si="2"/>
+        <v>dokkebi_han.py eng\! han\APPLE.han ksg\! spc\! 사과체</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F89" t="s">
+        <v>571</v>
       </c>
       <c r="G89" t="e">
         <f>VLOOKUP(F89,영어!A:C,2,FALSE)</f>
@@ -5552,29 +5813,32 @@
         <v>#N/A</v>
       </c>
       <c r="I89" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L89" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M89" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;tr style="font-family: 굵은샘물;font-size: 16px&gt;&lt;td&gt;굵은샘물&lt;/td&gt;&lt;td&gt;유승무&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C89&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C89&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E89&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr style="font-family: 사과체;font-size: 16px&gt;&lt;td&gt;사과체&lt;/td&gt;&lt;td&gt;이병도&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B90" t="str">
-        <f t="shared" si="3"/>
-        <v>dokkebi_han.py ! han\HANSG.han ! ! 큰새고딕체</v>
-      </c>
-      <c r="C90" t="s">
-        <v>73</v>
-      </c>
-      <c r="D90" t="s">
-        <v>449</v>
-      </c>
-      <c r="E90" t="s">
-        <v>71</v>
+        <f t="shared" si="2"/>
+        <v>dokkebi_han.py eng\! han\PADO_B.han ksg\! spc\! 굵은파도체</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F90" t="s">
+        <v>571</v>
       </c>
       <c r="G90" t="e">
         <f>VLOOKUP(F90,영어!A:C,2,FALSE)</f>
@@ -5585,29 +5849,35 @@
         <v>#N/A</v>
       </c>
       <c r="I90" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L90" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M90" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;tr style="font-family: 큰새고딕체;font-size: 16px&gt;&lt;td&gt;큰새고딕체&lt;/td&gt;&lt;td&gt;유승무&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C90&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C90&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E90&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr style="font-family: 굵은파도체;font-size: 16px&gt;&lt;td&gt;굵은파도체&lt;/td&gt;&lt;td&gt;이병도&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A91" s="3" t="s">
+        <v>567</v>
+      </c>
       <c r="B91" t="str">
-        <f t="shared" si="3"/>
-        <v>dokkebi_han.py ! han\GG.han ! ! 긴고딕체</v>
-      </c>
-      <c r="C91" t="s">
-        <v>74</v>
-      </c>
-      <c r="D91" t="s">
-        <v>450</v>
-      </c>
-      <c r="E91" t="s">
-        <v>75</v>
+        <f t="shared" si="2"/>
+        <v>dokkebi_han.py eng\! han\SON3.han ksg\! spc\! 이병도흘림체</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F91" t="s">
+        <v>571</v>
       </c>
       <c r="G91" t="e">
         <f>VLOOKUP(F91,영어!A:C,2,FALSE)</f>
@@ -5618,62 +5888,68 @@
         <v>#N/A</v>
       </c>
       <c r="I91" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L91" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M91" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;tr style="font-family: 긴고딕체;font-size: 16px&gt;&lt;td&gt;긴고딕체&lt;/td&gt;&lt;td&gt;윤희옥&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C91&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C91&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E91&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr style="font-family: 이병도흘림체;font-size: 16px&gt;&lt;td&gt;이병도흘림체&lt;/td&gt;&lt;td&gt;이병도&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B92" t="str">
-        <f t="shared" si="3"/>
-        <v>dokkebi_han.py ! han\HEEMANG.han ! ! 희망체</v>
-      </c>
-      <c r="C92" t="s">
-        <v>77</v>
-      </c>
-      <c r="D92" t="s">
-        <v>452</v>
-      </c>
-      <c r="E92" t="s">
-        <v>75</v>
-      </c>
-      <c r="G92" t="e">
+        <f t="shared" si="2"/>
+        <v>dokkebi_han.py eng\iygjrom.eng han\IYG.han ksg\! spc\! 이야기굵은체</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F92" t="s">
+        <v>214</v>
+      </c>
+      <c r="G92" t="str">
         <f>VLOOKUP(F92,영어!A:C,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H92" t="e">
+        <v>이야기 진로만체</v>
+      </c>
+      <c r="H92" t="str">
         <f>VLOOKUP(F92,영어!A:C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>이야기</v>
       </c>
       <c r="I92" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L92" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M92" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;tr style="font-family: 희망체;font-size: 16px&gt;&lt;td&gt;희망체&lt;/td&gt;&lt;td&gt;윤희옥&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C92&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C92&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E92&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr style="font-family: 이야기굵은체;font-size: 16px&gt;&lt;td&gt;이야기굵은체&lt;/td&gt;&lt;td&gt;이야기&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B93" t="str">
-        <f t="shared" si="3"/>
-        <v>dokkebi_han.py ! han\SOMANG.han ! ! 소망체</v>
-      </c>
-      <c r="C93" t="s">
-        <v>76</v>
-      </c>
-      <c r="D93" t="s">
-        <v>451</v>
-      </c>
-      <c r="E93" t="s">
-        <v>75</v>
+        <f t="shared" si="2"/>
+        <v>dokkebi_han.py eng\! han\IYGASS.han ksg\! spc\! 이야기안상수체</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F93" t="s">
+        <v>571</v>
       </c>
       <c r="G93" t="e">
         <f>VLOOKUP(F93,영어!A:C,2,FALSE)</f>
@@ -5684,29 +5960,32 @@
         <v>#N/A</v>
       </c>
       <c r="I93" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L93" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M93" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;tr style="font-family: 소망체;font-size: 16px&gt;&lt;td&gt;소망체&lt;/td&gt;&lt;td&gt;윤희옥&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C93&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C93&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E93&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr style="font-family: 이야기안상수체;font-size: 16px&gt;&lt;td&gt;이야기안상수체&lt;/td&gt;&lt;td&gt;이야기&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B94" t="str">
-        <f t="shared" si="3"/>
-        <v>dokkebi_han.py ! han\APPLE.han ! ! 사과체</v>
+        <f t="shared" si="2"/>
+        <v>dokkebi_han.py eng\! han\IYGSBS.han ksg\! spc\! 이야기삼벌식</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>114</v>
+        <v>137</v>
+      </c>
+      <c r="F94" t="s">
+        <v>571</v>
       </c>
       <c r="G94" t="e">
         <f>VLOOKUP(F94,영어!A:C,2,FALSE)</f>
@@ -5717,29 +5996,32 @@
         <v>#N/A</v>
       </c>
       <c r="I94" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L94" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M94" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;tr style="font-family: 사과체;font-size: 16px&gt;&lt;td&gt;사과체&lt;/td&gt;&lt;td&gt;이병도&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C94&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C94&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E94&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr style="font-family: 이야기삼벌식;font-size: 16px&gt;&lt;td&gt;이야기삼벌식&lt;/td&gt;&lt;td&gt;이야기&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B95" t="str">
-        <f t="shared" si="3"/>
-        <v>dokkebi_han.py ! han\PADO_B.han ! ! 굵은파도체</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>114</v>
+        <f t="shared" si="2"/>
+        <v>dokkebi_han.py eng\! han\HANGINSM.han ksg\! spc\! 긴샘체</v>
+      </c>
+      <c r="C95" t="s">
+        <v>78</v>
+      </c>
+      <c r="D95" t="s">
+        <v>450</v>
+      </c>
+      <c r="E95" t="s">
+        <v>79</v>
+      </c>
+      <c r="F95" t="s">
+        <v>571</v>
       </c>
       <c r="G95" t="e">
         <f>VLOOKUP(F95,영어!A:C,2,FALSE)</f>
@@ -5750,32 +6032,32 @@
         <v>#N/A</v>
       </c>
       <c r="I95" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L95" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M95" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;tr style="font-family: 굵은파도체;font-size: 16px&gt;&lt;td&gt;굵은파도체&lt;/td&gt;&lt;td&gt;이병도&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C95&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C95&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E95&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr style="font-family: 긴샘체;font-size: 16px&gt;&lt;td&gt;긴샘체&lt;/td&gt;&lt;td&gt;이종훈&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A96" s="3" t="s">
-        <v>570</v>
-      </c>
       <c r="B96" t="str">
-        <f t="shared" si="3"/>
-        <v>dokkebi_han.py ! han\SON3.han ! ! 이병도흘림체</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>114</v>
+        <f t="shared" si="2"/>
+        <v>dokkebi_han.py eng\! han\HIYGGD2.han ksg\! spc\! 이야기고딕체</v>
+      </c>
+      <c r="C96" t="s">
+        <v>82</v>
+      </c>
+      <c r="D96" t="s">
+        <v>454</v>
+      </c>
+      <c r="E96" t="s">
+        <v>455</v>
+      </c>
+      <c r="F96" t="s">
+        <v>571</v>
       </c>
       <c r="G96" t="e">
         <f>VLOOKUP(F96,영어!A:C,2,FALSE)</f>
@@ -5786,29 +6068,35 @@
         <v>#N/A</v>
       </c>
       <c r="I96" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L96" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M96" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;tr style="font-family: 이병도흘림체;font-size: 16px&gt;&lt;td&gt;이병도흘림체&lt;/td&gt;&lt;td&gt;이병도&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C96&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C96&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E96&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr style="font-family: 이야기고딕체;font-size: 16px&gt;&lt;td&gt;이야기고딕체&lt;/td&gt;&lt;td&gt;이확영(이야기굵은체 기반)&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>457</v>
+      </c>
       <c r="B97" t="str">
-        <f t="shared" si="3"/>
-        <v>dokkebi_han.py ! han\IYG.han ! ! 이야기굵은체</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>137</v>
+        <f t="shared" si="2"/>
+        <v>dokkebi_han.py eng\! han\HANYH.han ksg\! spc\! 영화체</v>
+      </c>
+      <c r="C97" t="s">
+        <v>35</v>
+      </c>
+      <c r="D97" t="s">
+        <v>459</v>
+      </c>
+      <c r="E97" t="s">
+        <v>458</v>
+      </c>
+      <c r="F97" t="s">
+        <v>571</v>
       </c>
       <c r="G97" t="e">
         <f>VLOOKUP(F97,영어!A:C,2,FALSE)</f>
@@ -5819,29 +6107,32 @@
         <v>#N/A</v>
       </c>
       <c r="I97" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L97" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M97" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;tr style="font-family: 이야기굵은체;font-size: 16px&gt;&lt;td&gt;이야기굵은체&lt;/td&gt;&lt;td&gt;이야기&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C97&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C97&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E97&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr style="font-family: 영화체;font-size: 16px&gt;&lt;td&gt;영화체&lt;/td&gt;&lt;td&gt;장영화/과학기술원 시스템공학연구소 폰트개발보급센터&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B98" t="str">
-        <f t="shared" si="3"/>
-        <v>dokkebi_han.py ! han\IYGASS.han ! ! 이야기안상수체</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>137</v>
+        <f t="shared" si="2"/>
+        <v>dokkebi_han.py eng\! han\HANGRS.han ksg\! spc\! 가로수체</v>
+      </c>
+      <c r="C98" t="s">
+        <v>83</v>
+      </c>
+      <c r="D98" t="s">
+        <v>460</v>
+      </c>
+      <c r="E98" t="s">
+        <v>84</v>
+      </c>
+      <c r="F98" t="s">
+        <v>571</v>
       </c>
       <c r="G98" t="e">
         <f>VLOOKUP(F98,영어!A:C,2,FALSE)</f>
@@ -5852,29 +6143,32 @@
         <v>#N/A</v>
       </c>
       <c r="I98" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L98" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M98" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;tr style="font-family: 이야기안상수체;font-size: 16px&gt;&lt;td&gt;이야기안상수체&lt;/td&gt;&lt;td&gt;이야기&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C98&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C98&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E98&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr style="font-family: 가로수체;font-size: 16px&gt;&lt;td&gt;가로수체&lt;/td&gt;&lt;td&gt;전영기&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B99" t="str">
-        <f t="shared" si="3"/>
-        <v>dokkebi_han.py ! han\IYGSBS.han ! ! 이야기삼벌식</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>137</v>
+        <f t="shared" si="2"/>
+        <v>dokkebi_han.py eng\! han\HANGHS.han ksg\! spc\! 궁서흘림체</v>
+      </c>
+      <c r="C99" t="s">
+        <v>80</v>
+      </c>
+      <c r="D99" t="s">
+        <v>452</v>
+      </c>
+      <c r="E99" t="s">
+        <v>451</v>
+      </c>
+      <c r="F99" t="s">
+        <v>571</v>
       </c>
       <c r="G99" t="e">
         <f>VLOOKUP(F99,영어!A:C,2,FALSE)</f>
@@ -5885,29 +6179,32 @@
         <v>#N/A</v>
       </c>
       <c r="I99" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L99" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M99" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;tr style="font-family: 이야기삼벌식;font-size: 16px&gt;&lt;td&gt;이야기삼벌식&lt;/td&gt;&lt;td&gt;이야기&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C99&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C99&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E99&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr style="font-family: 궁서흘림체;font-size: 16px&gt;&lt;td&gt;궁서흘림체&lt;/td&gt;&lt;td&gt;천리안 한글살리기 운동/이종훈&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B100" t="str">
-        <f t="shared" si="3"/>
-        <v>dokkebi_han.py ! han\HANGINSM.han ! ! 긴샘체</v>
+        <f t="shared" si="2"/>
+        <v>dokkebi_han.py eng\! han\TBG4.han ksg\! spc\! 태백명조체</v>
       </c>
       <c r="C100" t="s">
-        <v>78</v>
+        <v>462</v>
       </c>
       <c r="D100" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
       <c r="E100" t="s">
-        <v>79</v>
+        <v>461</v>
+      </c>
+      <c r="F100" t="s">
+        <v>571</v>
       </c>
       <c r="G100" t="e">
         <f>VLOOKUP(F100,영어!A:C,2,FALSE)</f>
@@ -5918,29 +6215,32 @@
         <v>#N/A</v>
       </c>
       <c r="I100" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L100" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M100" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;tr style="font-family: 긴샘체;font-size: 16px&gt;&lt;td&gt;긴샘체&lt;/td&gt;&lt;td&gt;이종훈&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C100&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C100&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E100&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr style="font-family: 태백명조체;font-size: 16px&gt;&lt;td&gt;태백명조체&lt;/td&gt;&lt;td&gt;태백한글/태백무른모&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B101" t="str">
-        <f t="shared" si="3"/>
-        <v>dokkebi_han.py ! han\HANGHS.han ! ! 궁서흘림체</v>
+        <f t="shared" si="2"/>
+        <v>dokkebi_han.py eng\! han\TBHM.han ksg\! spc\! 태백훈민정음체</v>
       </c>
       <c r="C101" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D101" t="s">
-        <v>455</v>
+        <v>466</v>
       </c>
       <c r="E101" t="s">
-        <v>454</v>
+        <v>461</v>
+      </c>
+      <c r="F101" t="s">
+        <v>571</v>
       </c>
       <c r="G101" t="e">
         <f>VLOOKUP(F101,영어!A:C,2,FALSE)</f>
@@ -5951,29 +6251,32 @@
         <v>#N/A</v>
       </c>
       <c r="I101" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L101" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M101" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;tr style="font-family: 궁서흘림체;font-size: 16px&gt;&lt;td&gt;궁서흘림체&lt;/td&gt;&lt;td&gt;천리안 한글살리기 운동/이종훈&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C101&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C101&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E101&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr style="font-family: 태백훈민정음체;font-size: 16px&gt;&lt;td&gt;태백훈민정음체&lt;/td&gt;&lt;td&gt;태백한글/태백무른모&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B102" t="str">
-        <f t="shared" si="3"/>
-        <v>dokkebi_han.py ! han\HIYGGD2.han ! ! 이야기고딕체</v>
-      </c>
-      <c r="C102" t="s">
-        <v>82</v>
-      </c>
-      <c r="D102" t="s">
-        <v>457</v>
+        <f t="shared" si="2"/>
+        <v>dokkebi_han.py eng\! han\TBPIL.han ksg\! spc\! 태백필기체</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>467</v>
       </c>
       <c r="E102" t="s">
-        <v>458</v>
+        <v>461</v>
+      </c>
+      <c r="F102" t="s">
+        <v>571</v>
       </c>
       <c r="G102" t="e">
         <f>VLOOKUP(F102,영어!A:C,2,FALSE)</f>
@@ -5984,29 +6287,29 @@
         <v>#N/A</v>
       </c>
       <c r="I102" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L102" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M102" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;tr style="font-family: 이야기고딕체;font-size: 16px&gt;&lt;td&gt;이야기고딕체&lt;/td&gt;&lt;td&gt;이확영(이야기굵은체 기반)&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C102&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C102&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E102&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr style="font-family: 태백필기체;font-size: 16px&gt;&lt;td&gt;태백필기체&lt;/td&gt;&lt;td&gt;태백한글/태백무른모&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B103" t="str">
-        <f t="shared" si="3"/>
-        <v>dokkebi_han.py ! han\HPRCS.han ! ! 가는가을한글체</v>
+        <f t="shared" si="2"/>
+        <v>dokkebi_han.py eng\eprcs.eng han\HPRCS.han ksg\! spc\! 가는가을한글체</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>81</v>
       </c>
       <c r="D103" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>456</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>459</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>196</v>
@@ -6020,32 +6323,32 @@
         <v xml:space="preserve">이확영, 프린세스 메이커  </v>
       </c>
       <c r="I103" t="s">
-        <v>377</v>
+        <v>571</v>
       </c>
       <c r="L103" t="s">
-        <v>378</v>
+        <v>571</v>
       </c>
       <c r="M103" t="str">
-        <f t="shared" si="4"/>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C103&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C103&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E103&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
         <v>&lt;tr style="font-family: 가는가을한글체;font-size: 16px&gt;&lt;td&gt;가는가을한글체&lt;/td&gt;&lt;td&gt;프린세스메이커(이확영 변환)&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
-        <v>460</v>
-      </c>
       <c r="B104" t="str">
-        <f t="shared" si="3"/>
-        <v>dokkebi_han.py ! han\HANYH.han ! ! 영화체</v>
+        <f t="shared" si="2"/>
+        <v>dokkebi_han.py eng\! han\H_DMYONG.han ksg\! spc\! 복선명조체</v>
       </c>
       <c r="C104" t="s">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="D104" t="s">
-        <v>462</v>
+        <v>565</v>
       </c>
       <c r="E104" t="s">
-        <v>461</v>
+        <v>489</v>
+      </c>
+      <c r="F104" t="s">
+        <v>571</v>
       </c>
       <c r="G104" t="e">
         <f>VLOOKUP(F104,영어!A:C,2,FALSE)</f>
@@ -6056,29 +6359,32 @@
         <v>#N/A</v>
       </c>
       <c r="I104" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L104" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M104" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;tr style="font-family: 영화체;font-size: 16px&gt;&lt;td&gt;영화체&lt;/td&gt;&lt;td&gt;장영화/과학기술원 시스템공학연구소 폰트개발보급센터&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C104&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C104&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E104&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr style="font-family: 복선명조체;font-size: 16px&gt;&lt;td&gt;복선명조체&lt;/td&gt;&lt;td&gt;하나리C라이브러리/이확영&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B105" t="str">
-        <f t="shared" si="3"/>
-        <v>dokkebi_han.py ! han\HANGRS.han ! ! 가로수체</v>
+        <f t="shared" si="2"/>
+        <v>dokkebi_han.py eng\! han\H_SOFT.han ksg\! spc\! 소프트체</v>
       </c>
       <c r="C105" t="s">
-        <v>83</v>
+        <v>490</v>
       </c>
       <c r="D105" t="s">
-        <v>463</v>
+        <v>491</v>
       </c>
       <c r="E105" t="s">
-        <v>84</v>
+        <v>489</v>
+      </c>
+      <c r="F105" t="s">
+        <v>571</v>
       </c>
       <c r="G105" t="e">
         <f>VLOOKUP(F105,영어!A:C,2,FALSE)</f>
@@ -6089,32 +6395,32 @@
         <v>#N/A</v>
       </c>
       <c r="I105" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L105" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M105" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;tr style="font-family: 가로수체;font-size: 16px&gt;&lt;td&gt;가로수체&lt;/td&gt;&lt;td&gt;전영기&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C105&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C105&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E105&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr style="font-family: 소프트체;font-size: 16px&gt;&lt;td&gt;소프트체&lt;/td&gt;&lt;td&gt;하나리C라이브러리/이확영&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A106" s="3" t="s">
-        <v>472</v>
-      </c>
       <c r="B106" t="str">
-        <f t="shared" si="3"/>
-        <v>dokkebi_han.py ! han\TBG2.han ! ! 태백명조체개조</v>
+        <f t="shared" si="2"/>
+        <v>dokkebi_han.py eng\! han\HANHCH.han ksg\! spc\! 혜성체</v>
       </c>
       <c r="C106" t="s">
-        <v>471</v>
+        <v>93</v>
       </c>
       <c r="D106" t="s">
-        <v>467</v>
+        <v>494</v>
       </c>
       <c r="E106" t="s">
-        <v>466</v>
+        <v>90</v>
+      </c>
+      <c r="F106" t="s">
+        <v>571</v>
       </c>
       <c r="G106" t="e">
         <f>VLOOKUP(F106,영어!A:C,2,FALSE)</f>
@@ -6125,29 +6431,32 @@
         <v>#N/A</v>
       </c>
       <c r="I106" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L106" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M106" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;tr style="font-family: 태백명조체개조;font-size: 16px&gt;&lt;td&gt;태백명조체개조&lt;/td&gt;&lt;td&gt;불명(태백명조체 기반)&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C106&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C106&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E106&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr style="font-family: 혜성체;font-size: 16px&gt;&lt;td&gt;혜성체&lt;/td&gt;&lt;td&gt;하혜성&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B107" t="str">
-        <f t="shared" si="3"/>
-        <v>dokkebi_han.py ! han\TBG4.han ! ! 태백명조체</v>
+        <f t="shared" si="2"/>
+        <v>dokkebi_han.py eng\! han\HANHYES.han ksg\! spc\! 붓펜체</v>
       </c>
       <c r="C107" t="s">
-        <v>465</v>
+        <v>91</v>
       </c>
       <c r="D107" t="s">
-        <v>468</v>
+        <v>492</v>
       </c>
       <c r="E107" t="s">
-        <v>464</v>
+        <v>90</v>
+      </c>
+      <c r="F107" t="s">
+        <v>571</v>
       </c>
       <c r="G107" t="e">
         <f>VLOOKUP(F107,영어!A:C,2,FALSE)</f>
@@ -6158,29 +6467,32 @@
         <v>#N/A</v>
       </c>
       <c r="I107" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L107" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M107" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;tr style="font-family: 태백명조체;font-size: 16px&gt;&lt;td&gt;태백명조체&lt;/td&gt;&lt;td&gt;태백한글/태백무른모&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C107&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C107&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E107&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr style="font-family: 붓펜체;font-size: 16px&gt;&lt;td&gt;붓펜체&lt;/td&gt;&lt;td&gt;하혜성&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B108" t="str">
-        <f t="shared" si="3"/>
-        <v>dokkebi_han.py ! han\TBHM.han ! ! 태백훈민정음체</v>
+        <f t="shared" si="2"/>
+        <v>dokkebi_han.py eng\! han\HANCHD.han ksg\! spc\! 어린이체</v>
       </c>
       <c r="C108" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D108" t="s">
-        <v>469</v>
+        <v>493</v>
       </c>
       <c r="E108" t="s">
-        <v>464</v>
+        <v>495</v>
+      </c>
+      <c r="F108" t="s">
+        <v>571</v>
       </c>
       <c r="G108" t="e">
         <f>VLOOKUP(F108,영어!A:C,2,FALSE)</f>
@@ -6191,29 +6503,32 @@
         <v>#N/A</v>
       </c>
       <c r="I108" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L108" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M108" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;tr style="font-family: 태백훈민정음체;font-size: 16px&gt;&lt;td&gt;태백훈민정음체&lt;/td&gt;&lt;td&gt;태백한글/태백무른모&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C108&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C108&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E108&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr style="font-family: 어린이체;font-size: 16px&gt;&lt;td&gt;어린이체&lt;/td&gt;&lt;td&gt;하혜성,서정호,허인구&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B109" t="str">
-        <f t="shared" si="3"/>
-        <v>dokkebi_han.py ! han\TBPIL.han ! ! 태백필기체</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="E109" t="s">
-        <v>464</v>
+        <f t="shared" si="2"/>
+        <v>dokkebi_han.py eng\! han\HANDG.han ksg\! spc\! 한글디자인체</v>
+      </c>
+      <c r="C109" t="s">
+        <v>402</v>
+      </c>
+      <c r="D109" t="s">
+        <v>400</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="F109" t="s">
+        <v>571</v>
       </c>
       <c r="G109" t="e">
         <f>VLOOKUP(F109,영어!A:C,2,FALSE)</f>
@@ -6224,29 +6539,32 @@
         <v>#N/A</v>
       </c>
       <c r="I109" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L109" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M109" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;tr style="font-family: 태백필기체;font-size: 16px&gt;&lt;td&gt;태백필기체&lt;/td&gt;&lt;td&gt;태백한글/태백무른모&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C109&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C109&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E109&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr style="font-family: 한글디자인체;font-size: 16px&gt;&lt;td&gt;한글디자인체&lt;/td&gt;&lt;td&gt;한글/한글과컴퓨터&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B110" t="str">
-        <f t="shared" si="3"/>
-        <v>dokkebi_han.py ! han\H_DMYONG.han ! ! 복선명조체</v>
+        <f t="shared" si="2"/>
+        <v>dokkebi_han.py eng\! han\HANGS.han ksg\! spc\! 한글궁서체</v>
       </c>
       <c r="C110" t="s">
-        <v>89</v>
+        <v>399</v>
       </c>
       <c r="D110" t="s">
-        <v>568</v>
-      </c>
-      <c r="E110" t="s">
-        <v>492</v>
+        <v>401</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="F110" t="s">
+        <v>571</v>
       </c>
       <c r="G110" t="e">
         <f>VLOOKUP(F110,영어!A:C,2,FALSE)</f>
@@ -6257,29 +6575,32 @@
         <v>#N/A</v>
       </c>
       <c r="I110" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L110" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M110" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;tr style="font-family: 복선명조체;font-size: 16px&gt;&lt;td&gt;복선명조체&lt;/td&gt;&lt;td&gt;하나리C라이브러리/이확영&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C110&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C110&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E110&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr style="font-family: 한글궁서체;font-size: 16px&gt;&lt;td&gt;한글궁서체&lt;/td&gt;&lt;td&gt;한글/한글과컴퓨터&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B111" t="str">
-        <f t="shared" si="3"/>
-        <v>dokkebi_han.py ! han\H_SOFT.han ! ! 소프트체</v>
+        <f t="shared" si="2"/>
+        <v>dokkebi_han.py eng\! han\HANGSMGO.han ksg\! spc\! 한글견샘물고딕체</v>
       </c>
       <c r="C111" t="s">
-        <v>493</v>
+        <v>403</v>
       </c>
       <c r="D111" t="s">
-        <v>494</v>
-      </c>
-      <c r="E111" t="s">
-        <v>492</v>
+        <v>397</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="F111" t="s">
+        <v>571</v>
       </c>
       <c r="G111" t="e">
         <f>VLOOKUP(F111,영어!A:C,2,FALSE)</f>
@@ -6290,29 +6611,32 @@
         <v>#N/A</v>
       </c>
       <c r="I111" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L111" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M111" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;tr style="font-family: 소프트체;font-size: 16px&gt;&lt;td&gt;소프트체&lt;/td&gt;&lt;td&gt;하나리C라이브러리/이확영&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C111&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C111&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E111&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr style="font-family: 한글견샘물고딕체;font-size: 16px&gt;&lt;td&gt;한글견샘물고딕체&lt;/td&gt;&lt;td&gt;한글/한글과컴퓨터&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B112" t="str">
-        <f t="shared" si="3"/>
-        <v>dokkebi_han.py ! han\HANHCH.han ! ! 혜성체</v>
-      </c>
-      <c r="C112" t="s">
-        <v>93</v>
-      </c>
-      <c r="D112" t="s">
-        <v>497</v>
-      </c>
-      <c r="E112" t="s">
-        <v>90</v>
+        <f t="shared" si="2"/>
+        <v>dokkebi_han.py eng\! han\HANMY.han ksg\! spc\! 한글명조체</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="F112" t="s">
+        <v>571</v>
       </c>
       <c r="G112" t="e">
         <f>VLOOKUP(F112,영어!A:C,2,FALSE)</f>
@@ -6323,29 +6647,32 @@
         <v>#N/A</v>
       </c>
       <c r="I112" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L112" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M112" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;tr style="font-family: 혜성체;font-size: 16px&gt;&lt;td&gt;혜성체&lt;/td&gt;&lt;td&gt;하혜성&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C112&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C112&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E112&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr style="font-family: 한글명조체;font-size: 16px&gt;&lt;td&gt;한글명조체&lt;/td&gt;&lt;td&gt;한글/한글과컴퓨터&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="113" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B113" t="str">
-        <f t="shared" si="3"/>
-        <v>dokkebi_han.py ! han\HANHYES.han ! ! 붓펜체</v>
-      </c>
-      <c r="C113" t="s">
-        <v>91</v>
-      </c>
-      <c r="D113" t="s">
-        <v>495</v>
-      </c>
-      <c r="E113" t="s">
-        <v>90</v>
+        <f t="shared" si="2"/>
+        <v>dokkebi_han.py eng\! han\SANHSB.han ksg\! spc\! 한석봉체</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="F113" t="s">
+        <v>571</v>
       </c>
       <c r="G113" t="e">
         <f>VLOOKUP(F113,영어!A:C,2,FALSE)</f>
@@ -6356,63 +6683,69 @@
         <v>#N/A</v>
       </c>
       <c r="I113" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L113" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M113" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;tr style="font-family: 붓펜체;font-size: 16px&gt;&lt;td&gt;붓펜체&lt;/td&gt;&lt;td&gt;하혜성&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C113&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C113&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E113&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr style="font-family: 한석봉체;font-size: 16px&gt;&lt;td&gt;한석봉체&lt;/td&gt;&lt;td&gt;한글에디터 산 1.x/박규현&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="114" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B114" t="str">
-        <f t="shared" si="3"/>
-        <v>dokkebi_han.py ! han\HANCHD.han ! ! 어린이체</v>
-      </c>
-      <c r="C114" t="s">
-        <v>92</v>
-      </c>
-      <c r="D114" t="s">
-        <v>496</v>
-      </c>
-      <c r="E114" t="s">
-        <v>498</v>
-      </c>
-      <c r="G114" t="e">
+        <f t="shared" si="2"/>
+        <v>dokkebi_han.py eng\san.eng han\SANIGJ.han ksg\! spc\! 임꺽정체</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="F114" t="s">
+        <v>228</v>
+      </c>
+      <c r="G114" t="str">
         <f>VLOOKUP(F114,영어!A:C,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H114" t="e">
+        <v>San</v>
+      </c>
+      <c r="H114" t="str">
         <f>VLOOKUP(F114,영어!A:C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>산</v>
       </c>
       <c r="I114" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L114" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M114" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;tr style="font-family: 어린이체;font-size: 16px&gt;&lt;td&gt;어린이체&lt;/td&gt;&lt;td&gt;하혜성,서정호,허인구&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C114&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C114&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E114&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr style="font-family: 임꺽정체;font-size: 16px&gt;&lt;td&gt;임꺽정체&lt;/td&gt;&lt;td&gt;한글에디터 산 1.x/박규현&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="115" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B115" t="str">
-        <f t="shared" si="3"/>
-        <v>dokkebi_han.py ! han\TAK.han ! ! 탁체</v>
+        <f t="shared" si="2"/>
+        <v>dokkebi_han.py eng\! han\TAK.han ksg\! spc\! 탁체</v>
       </c>
       <c r="C115" t="s">
         <v>94</v>
       </c>
       <c r="D115" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="E115" t="s">
         <v>95</v>
       </c>
+      <c r="F115" t="s">
+        <v>571</v>
+      </c>
       <c r="G115" t="e">
         <f>VLOOKUP(F115,영어!A:C,2,FALSE)</f>
         <v>#N/A</v>
@@ -6422,30 +6755,33 @@
         <v>#N/A</v>
       </c>
       <c r="I115" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L115" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M115" t="str">
-        <f t="shared" si="4"/>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C115&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C115&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E115&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
         <v>&lt;tr style="font-family: 탁체;font-size: 16px&gt;&lt;td&gt;탁체&lt;/td&gt;&lt;td&gt;한기택&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="116" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B116" t="str">
-        <f t="shared" si="3"/>
-        <v>dokkebi_han.py ! han\HMGOTH.han ! ! 한메고딕체</v>
+        <f t="shared" si="2"/>
+        <v>dokkebi_han.py eng\! han\HMGOTH.han ksg\! spc\! 한메고딕체</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>152</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>155</v>
       </c>
+      <c r="F116" t="s">
+        <v>571</v>
+      </c>
       <c r="G116" t="e">
         <f>VLOOKUP(F116,영어!A:C,2,FALSE)</f>
         <v>#N/A</v>
@@ -6455,30 +6791,33 @@
         <v>#N/A</v>
       </c>
       <c r="I116" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L116" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M116" t="str">
-        <f t="shared" si="4"/>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C116&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C116&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E116&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
         <v>&lt;tr style="font-family: 한메고딕체;font-size: 16px&gt;&lt;td&gt;한메고딕체&lt;/td&gt;&lt;td&gt;한메한글&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="117" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B117" t="str">
-        <f t="shared" si="3"/>
-        <v>dokkebi_han.py ! han\HMSAM.han ! ! 한메샘물체</v>
+        <f t="shared" si="2"/>
+        <v>dokkebi_han.py eng\! han\HMSAM.han ksg\! spc\! 한메샘물체</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>154</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>155</v>
       </c>
+      <c r="F117" t="s">
+        <v>571</v>
+      </c>
       <c r="G117" t="e">
         <f>VLOOKUP(F117,영어!A:C,2,FALSE)</f>
         <v>#N/A</v>
@@ -6488,30 +6827,33 @@
         <v>#N/A</v>
       </c>
       <c r="I117" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L117" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M117" t="str">
-        <f t="shared" si="4"/>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C117&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C117&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E117&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
         <v>&lt;tr style="font-family: 한메샘물체;font-size: 16px&gt;&lt;td&gt;한메샘물체&lt;/td&gt;&lt;td&gt;한메한글&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="118" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B118" t="str">
-        <f t="shared" si="3"/>
-        <v>dokkebi_han.py ! han\HMSYS.han ! ! 한메본문체</v>
+        <f t="shared" si="2"/>
+        <v>dokkebi_han.py eng\! han\HMSYS.han ksg\! spc\! 한메본문체</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>295</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>155</v>
       </c>
+      <c r="F118" t="s">
+        <v>571</v>
+      </c>
       <c r="G118" t="e">
         <f>VLOOKUP(F118,영어!A:C,2,FALSE)</f>
         <v>#N/A</v>
@@ -6521,30 +6863,33 @@
         <v>#N/A</v>
       </c>
       <c r="I118" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L118" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M118" t="str">
-        <f t="shared" si="4"/>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C118&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C118&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E118&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
         <v>&lt;tr style="font-family: 한메본문체;font-size: 16px&gt;&lt;td&gt;한메본문체&lt;/td&gt;&lt;td&gt;한메한글&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="119" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B119" t="str">
-        <f t="shared" si="3"/>
-        <v>dokkebi_han.py ! han\HMSYSTH.han ! ! 한메가는본문체</v>
+        <f t="shared" si="2"/>
+        <v>dokkebi_han.py eng\! han\HMSYSTH.han ksg\! spc\! 한메가는본문체</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>153</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>155</v>
       </c>
+      <c r="F119" t="s">
+        <v>571</v>
+      </c>
       <c r="G119" t="e">
         <f>VLOOKUP(F119,영어!A:C,2,FALSE)</f>
         <v>#N/A</v>
@@ -6554,29 +6899,32 @@
         <v>#N/A</v>
       </c>
       <c r="I119" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L119" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M119" t="str">
-        <f t="shared" si="4"/>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C119&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C119&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E119&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
         <v>&lt;tr style="font-family: 한메가는본문체;font-size: 16px&gt;&lt;td&gt;한메가는본문체&lt;/td&gt;&lt;td&gt;한메한글&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="120" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B120" t="str">
-        <f t="shared" si="3"/>
-        <v>dokkebi_han.py ! han\HANBYTE.han ! ! 바이트체</v>
+        <f t="shared" si="2"/>
+        <v>dokkebi_han.py eng\! han\HANAHN.han ksg\! spc\! 허인구안상수체</v>
       </c>
       <c r="C120" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="D120" t="s">
-        <v>507</v>
+        <v>518</v>
       </c>
       <c r="E120" t="s">
-        <v>99</v>
+        <v>508</v>
+      </c>
+      <c r="F120" t="s">
+        <v>571</v>
       </c>
       <c r="G120" t="e">
         <f>VLOOKUP(F120,영어!A:C,2,FALSE)</f>
@@ -6587,30 +6935,33 @@
         <v>#N/A</v>
       </c>
       <c r="I120" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L120" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M120" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;tr style="font-family: 바이트체;font-size: 16px&gt;&lt;td&gt;바이트체&lt;/td&gt;&lt;td&gt;허인구&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C120&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C120&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E120&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr style="font-family: 허인구안상수체;font-size: 16px&gt;&lt;td&gt;허인구안상수체&lt;/td&gt;&lt;td&gt;허인(이야기안상수체 기반)&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="121" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B121" t="str">
-        <f t="shared" si="3"/>
-        <v>dokkebi_han.py ! han\HANDGO.han ! ! 둥근고딕체</v>
+        <f t="shared" si="2"/>
+        <v>dokkebi_han.py eng\! han\HANBYTE.han ksg\! spc\! 바이트체</v>
       </c>
       <c r="C121" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D121" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E121" t="s">
         <v>99</v>
       </c>
+      <c r="F121" t="s">
+        <v>571</v>
+      </c>
       <c r="G121" t="e">
         <f>VLOOKUP(F121,영어!A:C,2,FALSE)</f>
         <v>#N/A</v>
@@ -6620,30 +6971,33 @@
         <v>#N/A</v>
       </c>
       <c r="I121" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L121" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M121" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;tr style="font-family: 둥근고딕체;font-size: 16px&gt;&lt;td&gt;둥근고딕체&lt;/td&gt;&lt;td&gt;허인구&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C121&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C121&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E121&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr style="font-family: 바이트체;font-size: 16px&gt;&lt;td&gt;바이트체&lt;/td&gt;&lt;td&gt;허인구&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="122" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B122" t="str">
-        <f t="shared" si="3"/>
-        <v>dokkebi_han.py ! han\HANEAPN.han ! ! 예쁜손글체</v>
+        <f t="shared" si="2"/>
+        <v>dokkebi_han.py eng\! han\HANDGO.han ksg\! spc\! 둥근고딕체</v>
       </c>
       <c r="C122" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D122" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="E122" t="s">
         <v>99</v>
       </c>
+      <c r="F122" t="s">
+        <v>571</v>
+      </c>
       <c r="G122" t="e">
         <f>VLOOKUP(F122,영어!A:C,2,FALSE)</f>
         <v>#N/A</v>
@@ -6653,30 +7007,33 @@
         <v>#N/A</v>
       </c>
       <c r="I122" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L122" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M122" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;tr style="font-family: 예쁜손글체;font-size: 16px&gt;&lt;td&gt;예쁜손글체&lt;/td&gt;&lt;td&gt;허인구&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C122&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C122&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E122&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr style="font-family: 둥근고딕체;font-size: 16px&gt;&lt;td&gt;둥근고딕체&lt;/td&gt;&lt;td&gt;허인구&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="123" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B123" t="str">
-        <f t="shared" si="3"/>
-        <v>dokkebi_han.py ! han\HANGUNG.han ! ! 한궁체</v>
+        <f t="shared" si="2"/>
+        <v>dokkebi_han.py eng\! han\HANEAPN.han ksg\! spc\! 예쁜손글체</v>
       </c>
       <c r="C123" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D123" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="E123" t="s">
         <v>99</v>
       </c>
+      <c r="F123" t="s">
+        <v>571</v>
+      </c>
       <c r="G123" t="e">
         <f>VLOOKUP(F123,영어!A:C,2,FALSE)</f>
         <v>#N/A</v>
@@ -6686,30 +7043,33 @@
         <v>#N/A</v>
       </c>
       <c r="I123" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L123" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M123" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;tr style="font-family: 한궁체;font-size: 16px&gt;&lt;td&gt;한궁체&lt;/td&gt;&lt;td&gt;허인구&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C123&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C123&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E123&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr style="font-family: 예쁜손글체;font-size: 16px&gt;&lt;td&gt;예쁜손글체&lt;/td&gt;&lt;td&gt;허인구&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="124" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B124" t="str">
-        <f t="shared" si="3"/>
-        <v>dokkebi_han.py ! han\HANHLGO.han ! ! 흘림고딕체</v>
+        <f t="shared" si="2"/>
+        <v>dokkebi_han.py eng\! han\HANGUNG.han ksg\! spc\! 한궁체</v>
       </c>
       <c r="C124" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D124" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="E124" t="s">
         <v>99</v>
       </c>
+      <c r="F124" t="s">
+        <v>571</v>
+      </c>
       <c r="G124" t="e">
         <f>VLOOKUP(F124,영어!A:C,2,FALSE)</f>
         <v>#N/A</v>
@@ -6719,29 +7079,32 @@
         <v>#N/A</v>
       </c>
       <c r="I124" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L124" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M124" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;tr style="font-family: 흘림고딕체;font-size: 16px&gt;&lt;td&gt;흘림고딕체&lt;/td&gt;&lt;td&gt;허인구&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C124&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C124&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E124&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr style="font-family: 한궁체;font-size: 16px&gt;&lt;td&gt;한궁체&lt;/td&gt;&lt;td&gt;허인구&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="125" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B125" t="str">
-        <f t="shared" si="3"/>
-        <v>dokkebi_han.py ! han\HANHMSM.han ! ! 허인구한메샘물체</v>
+        <f t="shared" si="2"/>
+        <v>dokkebi_han.py eng\! han\HANHLGO.han ksg\! spc\! 흘림고딕체</v>
       </c>
       <c r="C125" t="s">
+        <v>111</v>
+      </c>
+      <c r="D125" t="s">
         <v>519</v>
       </c>
-      <c r="D125" t="s">
-        <v>518</v>
-      </c>
       <c r="E125" t="s">
-        <v>520</v>
+        <v>99</v>
+      </c>
+      <c r="F125" t="s">
+        <v>571</v>
       </c>
       <c r="G125" t="e">
         <f>VLOOKUP(F125,영어!A:C,2,FALSE)</f>
@@ -6752,30 +7115,33 @@
         <v>#N/A</v>
       </c>
       <c r="I125" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L125" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M125" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;tr style="font-family: 허인구한메샘물체;font-size: 16px&gt;&lt;td&gt;허인구한메샘물체&lt;/td&gt;&lt;td&gt;허인구(한메샘물체 기반)&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C125&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C125&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E125&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr style="font-family: 흘림고딕체;font-size: 16px&gt;&lt;td&gt;흘림고딕체&lt;/td&gt;&lt;td&gt;허인구&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="126" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B126" t="str">
-        <f t="shared" si="3"/>
-        <v>dokkebi_han.py ! han\HANPW.han ! ! 정서체</v>
+        <f t="shared" si="2"/>
+        <v>dokkebi_han.py eng\! han\HANPW.han ksg\! spc\! 정서체</v>
       </c>
       <c r="C126" t="s">
         <v>106</v>
       </c>
       <c r="D126" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="E126" t="s">
         <v>107</v>
       </c>
+      <c r="F126" t="s">
+        <v>571</v>
+      </c>
       <c r="G126" t="e">
         <f>VLOOKUP(F126,영어!A:C,2,FALSE)</f>
         <v>#N/A</v>
@@ -6785,30 +7151,33 @@
         <v>#N/A</v>
       </c>
       <c r="I126" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L126" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M126" t="str">
-        <f t="shared" si="4"/>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C126&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C126&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E126&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
         <v>&lt;tr style="font-family: 정서체;font-size: 16px&gt;&lt;td&gt;정서체&lt;/td&gt;&lt;td&gt;허인구&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="127" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B127" t="str">
-        <f t="shared" si="3"/>
-        <v>dokkebi_han.py ! han\HANVADA.han ! ! 바다체</v>
+        <f t="shared" si="2"/>
+        <v>dokkebi_han.py eng\! han\HANVADA.han ksg\! spc\! 바다체</v>
       </c>
       <c r="C127" t="s">
         <v>100</v>
       </c>
       <c r="D127" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="E127" t="s">
         <v>99</v>
       </c>
+      <c r="F127" t="s">
+        <v>571</v>
+      </c>
       <c r="G127" t="e">
         <f>VLOOKUP(F127,영어!A:C,2,FALSE)</f>
         <v>#N/A</v>
@@ -6818,30 +7187,33 @@
         <v>#N/A</v>
       </c>
       <c r="I127" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L127" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M127" t="str">
-        <f t="shared" si="4"/>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C127&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C127&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E127&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
         <v>&lt;tr style="font-family: 바다체;font-size: 16px&gt;&lt;td&gt;바다체&lt;/td&gt;&lt;td&gt;허인구&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="128" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B128" t="str">
-        <f t="shared" si="3"/>
-        <v>dokkebi_han.py ! han\HANBIGO.han ! ! 큰글고딕체</v>
+        <f t="shared" si="2"/>
+        <v>dokkebi_han.py eng\! han\HANBIGO.han ksg\! spc\! 큰글고딕체</v>
       </c>
       <c r="C128" t="s">
         <v>108</v>
       </c>
       <c r="D128" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="E128" t="s">
         <v>97</v>
       </c>
+      <c r="F128" t="s">
+        <v>571</v>
+      </c>
       <c r="G128" t="e">
         <f>VLOOKUP(F128,영어!A:C,2,FALSE)</f>
         <v>#N/A</v>
@@ -6851,30 +7223,33 @@
         <v>#N/A</v>
       </c>
       <c r="I128" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L128" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M128" t="str">
-        <f t="shared" si="4"/>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C128&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C128&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E128&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
         <v>&lt;tr style="font-family: 큰글고딕체;font-size: 16px&gt;&lt;td&gt;큰글고딕체&lt;/td&gt;&lt;td&gt;허인구  &lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="129" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B129" t="str">
-        <f t="shared" ref="B129:B156" si="5">"dokkebi_han.py ! han\"&amp;D129&amp;" ! ! "&amp;C129</f>
-        <v>dokkebi_han.py ! han\HANNAK.han ! ! 낙서체</v>
+        <f t="shared" si="2"/>
+        <v>dokkebi_han.py eng\! han\HANNAK.han ksg\! spc\! 낙서체</v>
       </c>
       <c r="C129" t="s">
         <v>96</v>
       </c>
       <c r="D129" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="E129" t="s">
         <v>97</v>
       </c>
+      <c r="F129" t="s">
+        <v>571</v>
+      </c>
       <c r="G129" t="e">
         <f>VLOOKUP(F129,영어!A:C,2,FALSE)</f>
         <v>#N/A</v>
@@ -6884,30 +7259,33 @@
         <v>#N/A</v>
       </c>
       <c r="I129" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L129" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M129" t="str">
-        <f t="shared" si="4"/>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C129&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C129&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E129&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
         <v>&lt;tr style="font-family: 낙서체;font-size: 16px&gt;&lt;td&gt;낙서체&lt;/td&gt;&lt;td&gt;허인구  &lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="130" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B130" t="str">
-        <f t="shared" si="5"/>
-        <v>dokkebi_han.py ! han\HANSPN.han ! ! 샘물이쁜체</v>
+        <f t="shared" ref="B130:B156" si="3">"dokkebi_han.py eng\"&amp;F130&amp;" han\"&amp;D130&amp;" ksg\"&amp;I130&amp;" spc\"&amp;L130&amp;" "&amp;C130</f>
+        <v>dokkebi_han.py eng\! han\HANSPN.han ksg\! spc\! 샘물이쁜체</v>
       </c>
       <c r="C130" t="s">
         <v>103</v>
       </c>
       <c r="D130" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="E130" t="s">
         <v>97</v>
       </c>
+      <c r="F130" t="s">
+        <v>571</v>
+      </c>
       <c r="G130" t="e">
         <f>VLOOKUP(F130,영어!A:C,2,FALSE)</f>
         <v>#N/A</v>
@@ -6917,29 +7295,32 @@
         <v>#N/A</v>
       </c>
       <c r="I130" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L130" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M130" t="str">
-        <f t="shared" si="4"/>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C130&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C130&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E130&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
         <v>&lt;tr style="font-family: 샘물이쁜체;font-size: 16px&gt;&lt;td&gt;샘물이쁜체&lt;/td&gt;&lt;td&gt;허인구  &lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="131" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B131" t="str">
-        <f t="shared" si="5"/>
-        <v>dokkebi_han.py ! han\HANAHN.han ! ! 허인구안상수체</v>
+        <f t="shared" si="3"/>
+        <v>dokkebi_han.py eng\! han\HANHMSM.han ksg\! spc\! 허인구한메샘물체</v>
       </c>
       <c r="C131" t="s">
-        <v>110</v>
+        <v>516</v>
       </c>
       <c r="D131" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="E131" t="s">
-        <v>511</v>
+        <v>517</v>
+      </c>
+      <c r="F131" t="s">
+        <v>571</v>
       </c>
       <c r="G131" t="e">
         <f>VLOOKUP(F131,영어!A:C,2,FALSE)</f>
@@ -6950,29 +7331,32 @@
         <v>#N/A</v>
       </c>
       <c r="I131" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L131" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M131" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;tr style="font-family: 허인구안상수체;font-size: 16px&gt;&lt;td&gt;허인구안상수체&lt;/td&gt;&lt;td&gt;허인(이야기안상수체 기반)&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C131&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C131&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E131&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr style="font-family: 허인구한메샘물체;font-size: 16px&gt;&lt;td&gt;허인구한메샘물체&lt;/td&gt;&lt;td&gt;허인구(한메샘물체 기반)&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="132" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B132" t="str">
-        <f t="shared" si="5"/>
-        <v>dokkebi_han.py ! han\HANSMGO.han ! ! 샘물고딕체</v>
+        <f t="shared" si="3"/>
+        <v>dokkebi_han.py eng\! han\HANSMGO.han ksg\! spc\! 샘물고딕체</v>
       </c>
       <c r="C132" t="s">
         <v>102</v>
       </c>
       <c r="D132" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="E132" t="s">
-        <v>509</v>
+        <v>506</v>
+      </c>
+      <c r="F132" t="s">
+        <v>571</v>
       </c>
       <c r="G132" t="e">
         <f>VLOOKUP(F132,영어!A:C,2,FALSE)</f>
@@ -6983,29 +7367,32 @@
         <v>#N/A</v>
       </c>
       <c r="I132" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L132" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M132" t="str">
-        <f t="shared" ref="M132:M133" si="6">"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C132&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C132&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E132&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C132&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C132&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E132&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
         <v>&lt;tr style="font-family: 샘물고딕체;font-size: 16px&gt;&lt;td&gt;샘물고딕체&lt;/td&gt;&lt;td&gt;허인구,곽택종&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="133" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B133" t="str">
-        <f t="shared" si="5"/>
-        <v>dokkebi_han.py ! han\HANIPN.han ! ! 손글이쁜체</v>
+        <f t="shared" si="3"/>
+        <v>dokkebi_han.py eng\! han\HANIPN.han ksg\! spc\! 손글이쁜체</v>
       </c>
       <c r="C133" t="s">
         <v>104</v>
       </c>
       <c r="D133" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="E133" t="s">
-        <v>510</v>
+        <v>507</v>
+      </c>
+      <c r="F133" t="s">
+        <v>571</v>
       </c>
       <c r="G133" t="e">
         <f>VLOOKUP(F133,영어!A:C,2,FALSE)</f>
@@ -7016,24 +7403,27 @@
         <v>#N/A</v>
       </c>
       <c r="I133" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L133" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="M133" t="str">
-        <f t="shared" si="6"/>
+        <f>"&lt;tr style="&amp;CHAR(34)&amp;"font-family: "&amp;C133&amp;";font-size: 16px&gt;&lt;td&gt;"&amp;C133&amp;"&lt;/td&gt;&lt;td&gt;"&amp;E133&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
         <v>&lt;tr style="font-family: 손글이쁜체;font-size: 16px&gt;&lt;td&gt;손글이쁜체&lt;/td&gt;&lt;td&gt;허인구,서정호&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="134" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B134" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">dokkebi_han.py ! han\Han1.han ! ! </v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">dokkebi_han.py eng\! han\Han1.han ksg\! spc\! </v>
       </c>
       <c r="D134" t="s">
         <v>0</v>
       </c>
+      <c r="F134" t="s">
+        <v>571</v>
+      </c>
       <c r="G134" t="e">
         <f>VLOOKUP(F134,영어!A:C,2,FALSE)</f>
         <v>#N/A</v>
@@ -7043,20 +7433,23 @@
         <v>#N/A</v>
       </c>
       <c r="I134" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L134" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
     </row>
     <row r="135" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B135" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">dokkebi_han.py ! han\Han3.han ! ! </v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">dokkebi_han.py eng\! han\Han3.han ksg\! spc\! </v>
       </c>
       <c r="D135" t="s">
         <v>1</v>
       </c>
+      <c r="F135" t="s">
+        <v>571</v>
+      </c>
       <c r="G135" t="e">
         <f>VLOOKUP(F135,영어!A:C,2,FALSE)</f>
         <v>#N/A</v>
@@ -7066,20 +7459,23 @@
         <v>#N/A</v>
       </c>
       <c r="I135" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L135" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
     </row>
     <row r="136" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B136" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">dokkebi_han.py ! han\Han4.han ! ! </v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">dokkebi_han.py eng\! han\Han4.han ksg\! spc\! </v>
       </c>
       <c r="D136" t="s">
         <v>2</v>
       </c>
+      <c r="F136" t="s">
+        <v>571</v>
+      </c>
       <c r="G136" t="e">
         <f>VLOOKUP(F136,영어!A:C,2,FALSE)</f>
         <v>#N/A</v>
@@ -7089,20 +7485,23 @@
         <v>#N/A</v>
       </c>
       <c r="I136" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L136" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
     </row>
     <row r="137" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B137" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">dokkebi_han.py ! han\Han5.han ! ! </v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">dokkebi_han.py eng\! han\Han5.han ksg\! spc\! </v>
       </c>
       <c r="D137" t="s">
         <v>3</v>
       </c>
+      <c r="F137" t="s">
+        <v>571</v>
+      </c>
       <c r="G137" t="e">
         <f>VLOOKUP(F137,영어!A:C,2,FALSE)</f>
         <v>#N/A</v>
@@ -7112,20 +7511,23 @@
         <v>#N/A</v>
       </c>
       <c r="I137" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L137" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
     </row>
     <row r="138" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B138" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">dokkebi_han.py ! han\Han6.han ! ! </v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">dokkebi_han.py eng\! han\Han6.han ksg\! spc\! </v>
       </c>
       <c r="D138" t="s">
         <v>4</v>
       </c>
+      <c r="F138" t="s">
+        <v>571</v>
+      </c>
       <c r="G138" t="e">
         <f>VLOOKUP(F138,영어!A:C,2,FALSE)</f>
         <v>#N/A</v>
@@ -7135,20 +7537,23 @@
         <v>#N/A</v>
       </c>
       <c r="I138" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L138" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
     </row>
     <row r="139" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B139" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">dokkebi_han.py ! han\Han7.han ! ! </v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">dokkebi_han.py eng\! han\Han7.han ksg\! spc\! </v>
       </c>
       <c r="D139" t="s">
         <v>5</v>
       </c>
+      <c r="F139" t="s">
+        <v>571</v>
+      </c>
       <c r="G139" t="e">
         <f>VLOOKUP(F139,영어!A:C,2,FALSE)</f>
         <v>#N/A</v>
@@ -7158,20 +7563,23 @@
         <v>#N/A</v>
       </c>
       <c r="I139" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L139" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
     </row>
     <row r="140" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B140" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">dokkebi_han.py ! han\Han8.han ! ! </v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">dokkebi_han.py eng\! han\Han8.han ksg\! spc\! </v>
       </c>
       <c r="D140" t="s">
         <v>6</v>
       </c>
+      <c r="F140" t="s">
+        <v>571</v>
+      </c>
       <c r="G140" t="e">
         <f>VLOOKUP(F140,영어!A:C,2,FALSE)</f>
         <v>#N/A</v>
@@ -7181,20 +7589,23 @@
         <v>#N/A</v>
       </c>
       <c r="I140" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L140" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
     </row>
     <row r="141" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B141" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">dokkebi_han.py ! han\Han9.han ! ! </v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">dokkebi_han.py eng\! han\Han9.han ksg\! spc\! </v>
       </c>
       <c r="D141" t="s">
         <v>7</v>
       </c>
+      <c r="F141" t="s">
+        <v>571</v>
+      </c>
       <c r="G141" t="e">
         <f>VLOOKUP(F141,영어!A:C,2,FALSE)</f>
         <v>#N/A</v>
@@ -7204,20 +7615,23 @@
         <v>#N/A</v>
       </c>
       <c r="I141" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L141" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
     </row>
     <row r="142" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B142" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">dokkebi_han.py ! han\hansi.han ! ! </v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">dokkebi_han.py eng\! han\hansi.han ksg\! spc\! </v>
       </c>
       <c r="D142" t="s">
         <v>173</v>
       </c>
+      <c r="F142" t="s">
+        <v>571</v>
+      </c>
       <c r="G142" t="e">
         <f>VLOOKUP(F142,영어!A:C,2,FALSE)</f>
         <v>#N/A</v>
@@ -7227,19 +7641,22 @@
         <v>#N/A</v>
       </c>
       <c r="I142" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L142" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
     </row>
     <row r="143" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B143" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">dokkebi_han.py ! han\hansm.han ! ! </v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">dokkebi_han.py eng\! han\hansm.han ksg\! spc\! </v>
       </c>
       <c r="D143" t="s">
-        <v>565</v>
+        <v>562</v>
+      </c>
+      <c r="F143" t="s">
+        <v>571</v>
       </c>
       <c r="G143" t="e">
         <f>VLOOKUP(F143,영어!A:C,2,FALSE)</f>
@@ -7250,20 +7667,23 @@
         <v>#N/A</v>
       </c>
       <c r="I143" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L143" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
     </row>
     <row r="144" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B144" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">dokkebi_han.py ! han\hanyetgo.han ! ! </v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">dokkebi_han.py eng\! han\hanyetgo.han ksg\! spc\! </v>
       </c>
       <c r="D144" t="s">
         <v>23</v>
       </c>
+      <c r="F144" t="s">
+        <v>571</v>
+      </c>
       <c r="G144" t="e">
         <f>VLOOKUP(F144,영어!A:C,2,FALSE)</f>
         <v>#N/A</v>
@@ -7273,20 +7693,23 @@
         <v>#N/A</v>
       </c>
       <c r="I144" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L144" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
     </row>
     <row r="145" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B145" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">dokkebi_han.py ! han\hanyk.han ! ! </v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">dokkebi_han.py eng\! han\hanyk.han ksg\! spc\! </v>
       </c>
       <c r="D145" t="s">
         <v>174</v>
       </c>
+      <c r="F145" t="s">
+        <v>571</v>
+      </c>
       <c r="G145" t="e">
         <f>VLOOKUP(F145,영어!A:C,2,FALSE)</f>
         <v>#N/A</v>
@@ -7296,20 +7719,23 @@
         <v>#N/A</v>
       </c>
       <c r="I145" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L145" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
     </row>
     <row r="146" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B146" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">dokkebi_han.py ! han\my.han ! ! </v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">dokkebi_han.py eng\! han\my.han ksg\! spc\! </v>
       </c>
       <c r="D146" t="s">
         <v>9</v>
       </c>
+      <c r="F146" t="s">
+        <v>571</v>
+      </c>
       <c r="G146" t="e">
         <f>VLOOKUP(F146,영어!A:C,2,FALSE)</f>
         <v>#N/A</v>
@@ -7319,20 +7745,23 @@
         <v>#N/A</v>
       </c>
       <c r="I146" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L146" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
     </row>
     <row r="147" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B147" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">dokkebi_han.py ! han\Vv.han ! ! </v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">dokkebi_han.py eng\! han\Vv.han ksg\! spc\! </v>
       </c>
       <c r="D147" t="s">
         <v>11</v>
       </c>
+      <c r="F147" t="s">
+        <v>571</v>
+      </c>
       <c r="G147" t="e">
         <f>VLOOKUP(F147,영어!A:C,2,FALSE)</f>
         <v>#N/A</v>
@@ -7342,20 +7771,23 @@
         <v>#N/A</v>
       </c>
       <c r="I147" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L147" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
     </row>
     <row r="148" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B148" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">dokkebi_han.py ! han\Vv2.han ! ! </v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">dokkebi_han.py eng\! han\Vv2.han ksg\! spc\! </v>
       </c>
       <c r="D148" t="s">
         <v>12</v>
       </c>
+      <c r="F148" t="s">
+        <v>571</v>
+      </c>
       <c r="G148" t="e">
         <f>VLOOKUP(F148,영어!A:C,2,FALSE)</f>
         <v>#N/A</v>
@@ -7365,20 +7797,23 @@
         <v>#N/A</v>
       </c>
       <c r="I148" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L148" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
     </row>
     <row r="149" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B149" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">dokkebi_han.py ! han\Vv3.han ! ! </v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">dokkebi_han.py eng\! han\Vv3.han ksg\! spc\! </v>
       </c>
       <c r="D149" t="s">
         <v>13</v>
       </c>
+      <c r="F149" t="s">
+        <v>571</v>
+      </c>
       <c r="G149" t="e">
         <f>VLOOKUP(F149,영어!A:C,2,FALSE)</f>
         <v>#N/A</v>
@@ -7388,20 +7823,23 @@
         <v>#N/A</v>
       </c>
       <c r="I149" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L149" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
     </row>
     <row r="150" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B150" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">dokkebi_han.py ! han\Vv4.han ! ! </v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">dokkebi_han.py eng\! han\Vv4.han ksg\! spc\! </v>
       </c>
       <c r="D150" t="s">
         <v>14</v>
       </c>
+      <c r="F150" t="s">
+        <v>571</v>
+      </c>
       <c r="G150" t="e">
         <f>VLOOKUP(F150,영어!A:C,2,FALSE)</f>
         <v>#N/A</v>
@@ -7411,20 +7849,23 @@
         <v>#N/A</v>
       </c>
       <c r="I150" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L150" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
     </row>
     <row r="151" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B151" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">dokkebi_han.py ! han\Vv5.han ! ! </v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">dokkebi_han.py eng\! han\Vv5.han ksg\! spc\! </v>
       </c>
       <c r="D151" t="s">
         <v>15</v>
       </c>
+      <c r="F151" t="s">
+        <v>571</v>
+      </c>
       <c r="G151" t="e">
         <f>VLOOKUP(F151,영어!A:C,2,FALSE)</f>
         <v>#N/A</v>
@@ -7434,20 +7875,23 @@
         <v>#N/A</v>
       </c>
       <c r="I151" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L151" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
     </row>
     <row r="152" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B152" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">dokkebi_han.py ! han\Vv6.han ! ! </v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">dokkebi_han.py eng\! han\Vv6.han ksg\! spc\! </v>
       </c>
       <c r="D152" t="s">
         <v>16</v>
       </c>
+      <c r="F152" t="s">
+        <v>571</v>
+      </c>
       <c r="G152" t="e">
         <f>VLOOKUP(F152,영어!A:C,2,FALSE)</f>
         <v>#N/A</v>
@@ -7457,20 +7901,23 @@
         <v>#N/A</v>
       </c>
       <c r="I152" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L152" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
     </row>
     <row r="153" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B153" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">dokkebi_han.py ! han\Vv7.han ! ! </v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">dokkebi_han.py eng\! han\Vv7.han ksg\! spc\! </v>
       </c>
       <c r="D153" t="s">
         <v>17</v>
       </c>
+      <c r="F153" t="s">
+        <v>571</v>
+      </c>
       <c r="G153" t="e">
         <f>VLOOKUP(F153,영어!A:C,2,FALSE)</f>
         <v>#N/A</v>
@@ -7480,20 +7927,23 @@
         <v>#N/A</v>
       </c>
       <c r="I153" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L153" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
     </row>
     <row r="154" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B154" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">dokkebi_han.py ! han\Vv8.han ! ! </v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">dokkebi_han.py eng\! han\Vv8.han ksg\! spc\! </v>
       </c>
       <c r="D154" t="s">
         <v>18</v>
       </c>
+      <c r="F154" t="s">
+        <v>571</v>
+      </c>
       <c r="G154" t="e">
         <f>VLOOKUP(F154,영어!A:C,2,FALSE)</f>
         <v>#N/A</v>
@@ -7503,20 +7953,23 @@
         <v>#N/A</v>
       </c>
       <c r="I154" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L154" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
     </row>
     <row r="155" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B155" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">dokkebi_han.py ! han\Vv9.han ! ! </v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">dokkebi_han.py eng\! han\Vv9.han ksg\! spc\! </v>
       </c>
       <c r="D155" t="s">
         <v>19</v>
       </c>
+      <c r="F155" t="s">
+        <v>571</v>
+      </c>
       <c r="G155" t="e">
         <f>VLOOKUP(F155,영어!A:C,2,FALSE)</f>
         <v>#N/A</v>
@@ -7526,20 +7979,23 @@
         <v>#N/A</v>
       </c>
       <c r="I155" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L155" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
     </row>
     <row r="156" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B156" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">dokkebi_han.py ! han\뻗음꼴.han ! ! </v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">dokkebi_han.py eng\! han\뻗음꼴.han ksg\! spc\! </v>
       </c>
       <c r="D156" t="s">
         <v>20</v>
       </c>
+      <c r="F156" t="s">
+        <v>571</v>
+      </c>
       <c r="G156" t="e">
         <f>VLOOKUP(F156,영어!A:C,2,FALSE)</f>
         <v>#N/A</v>
@@ -7549,13 +8005,18 @@
         <v>#N/A</v>
       </c>
       <c r="I156" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="L156" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:M156" xr:uid="{B7EE061E-4DF6-4129-B2C9-943A90EE26B5}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M156">
+      <sortCondition ref="E1:E156"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7566,7 +8027,7 @@
           <x14:formula1>
             <xm:f>영어!$A:$A</xm:f>
           </x14:formula1>
-          <xm:sqref>F1:F1048576</xm:sqref>
+          <xm:sqref>F1 F22 F37 F50:F51 F54 F73 F92 F103 F114 F157:F1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -7594,357 +8055,357 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
@@ -7969,287 +8430,287 @@
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.3">
@@ -8299,7 +8760,7 @@
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.3">
@@ -8370,8 +8831,8 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8906,7 +9367,7 @@
         <v>193</v>
       </c>
       <c r="B22" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C22" t="s">
         <v>125</v>
@@ -9268,7 +9729,7 @@
         <v>208</v>
       </c>
       <c r="B38" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C38" t="s">
         <v>275</v>
@@ -9357,7 +9818,7 @@
         <v>213</v>
       </c>
       <c r="B42" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C42" t="s">
         <v>136</v>
@@ -9380,7 +9841,7 @@
         <v>214</v>
       </c>
       <c r="B43" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C43" t="s">
         <v>136</v>
@@ -9495,10 +9956,10 @@
         <v>219</v>
       </c>
       <c r="B48" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C48" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F48" t="str">
         <f t="shared" si="0"/>
@@ -9535,10 +9996,10 @@
         <v>221</v>
       </c>
       <c r="B50" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C50" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F50" t="str">
         <f t="shared" si="0"/>
@@ -9592,7 +10053,7 @@
         <v>224</v>
       </c>
       <c r="B53" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C53" t="s">
         <v>125</v>
@@ -9649,7 +10110,7 @@
         <v>227</v>
       </c>
       <c r="B56" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C56" t="s">
         <v>125</v>
@@ -9833,10 +10294,10 @@
         <v>235</v>
       </c>
       <c r="B64" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C64" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F64" t="str">
         <f t="shared" si="3"/>
@@ -9856,10 +10317,10 @@
         <v>236</v>
       </c>
       <c r="B65" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C65" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="F65" t="str">
         <f t="shared" si="3"/>
@@ -9968,13 +10429,13 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="B70" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="C70" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
     </row>
   </sheetData>
@@ -10185,7 +10646,7 @@
         <v>155</v>
       </c>
       <c r="F7" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -10223,7 +10684,7 @@
         <v>367</v>
       </c>
       <c r="F11" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -10237,7 +10698,7 @@
         <v>372</v>
       </c>
       <c r="F12" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -10267,7 +10728,7 @@
         <v>373</v>
       </c>
       <c r="F15" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
   </sheetData>
